--- a/GATEWAY/A1#111GARASOFTWAREXX/Gara_Software/AnaSanPlus/V1/report-checklist.xlsx
+++ b/GATEWAY/A1#111GARASOFTWAREXX/Gara_Software/AnaSanPlus/V1/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Massimo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\AnaSan\FSE\FSE 2\Accreditamento\V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5331030-7BB3-4008-AE1E-09FE6DE5B8A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EF69BF-CA02-4347-BD49-3E7906153DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="724">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3955,8 +3955,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="72">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4045,7 +4045,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4130,7 +4129,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -4444,12 +4443,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="130.140625" customWidth="1"/>
-    <col min="2" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="130.109375" customWidth="1"/>
+    <col min="2" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
@@ -4467,7 +4468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="152.25" customHeight="1">
+    <row r="4" spans="1:1" ht="189.6" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -5512,11 +5513,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="194.140625" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="194.109375" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
@@ -5532,7 +5533,7 @@
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="14.4">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -5540,7 +5541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
+    <row r="5" spans="1:2" ht="28.8">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -5548,7 +5549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="14.4">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -5556,7 +5557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75">
+    <row r="7" spans="1:2" ht="72">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="14.4">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -5572,7 +5573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="14.4">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -5580,7 +5581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="14.4">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -5588,7 +5589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
+    <row r="11" spans="1:2" ht="43.2">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -6610,26 +6611,26 @@
   <dimension ref="A1:T755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="P67" sqref="P67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="104.85546875" customWidth="1"/>
-    <col min="6" max="9" width="33.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" customWidth="1"/>
-    <col min="17" max="17" width="33.140625" customWidth="1"/>
-    <col min="18" max="18" width="36.42578125" customWidth="1"/>
-    <col min="19" max="20" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="5" max="5" width="104.88671875" customWidth="1"/>
+    <col min="6" max="9" width="33.109375" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" customWidth="1"/>
+    <col min="11" max="15" width="36.44140625" customWidth="1"/>
+    <col min="16" max="16" width="27.109375" customWidth="1"/>
+    <col min="17" max="17" width="33.109375" customWidth="1"/>
+    <col min="18" max="18" width="36.44140625" customWidth="1"/>
+    <col min="19" max="20" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
@@ -6651,12 +6652,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="63"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -6674,14 +6675,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="71" t="s">
         <v>364</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="63"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -6699,12 +6700,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="72" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="71" t="s">
         <v>365</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -6723,12 +6724,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="64"/>
+      <c r="D5" s="63"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -6746,8 +6747,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -6864,145 +6865,145 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="165.75" thickBot="1">
-      <c r="A10" s="34">
+    <row r="10" spans="1:20" ht="144.6" thickBot="1">
+      <c r="A10" s="33">
         <v>1</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>45370</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>494</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="37" t="s">
         <v>425</v>
       </c>
-      <c r="J10" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="41" t="s">
+      <c r="J10" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="40" t="s">
         <v>426</v>
       </c>
-      <c r="T10" s="42" t="s">
+      <c r="T10" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="165.75" thickBot="1">
-      <c r="A11" s="34">
+    <row r="11" spans="1:20" ht="144.6" thickBot="1">
+      <c r="A11" s="33">
         <v>2</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="37">
         <v>45370</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="49" t="s">
         <v>495</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="J11" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="41" t="s">
+      <c r="J11" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="40" t="s">
         <v>434</v>
       </c>
-      <c r="T11" s="42" t="s">
+      <c r="T11" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="165.75" thickBot="1">
-      <c r="A12" s="34">
+    <row r="12" spans="1:20" ht="144.6" thickBot="1">
+      <c r="A12" s="33">
         <v>3</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>45374</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="49" t="s">
         <v>496</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="47" t="s">
         <v>476</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="37" t="s">
         <v>477</v>
       </c>
-      <c r="J12" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="41" t="s">
+      <c r="J12" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="T12" s="42" t="s">
+      <c r="T12" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="165.75" thickBot="1">
+    <row r="13" spans="1:20" ht="144.6" thickBot="1">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -7019,7 +7020,7 @@
         <v>54</v>
       </c>
       <c r="F13" s="23"/>
-      <c r="G13" s="51"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="25" t="s">
@@ -7040,7 +7041,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="165.75" thickBot="1">
+    <row r="14" spans="1:20" ht="144.6" thickBot="1">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -7057,7 +7058,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="49"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="25" t="s">
@@ -7078,53 +7079,53 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="225.75" thickBot="1">
-      <c r="A15" s="34">
+    <row r="15" spans="1:20" ht="202.2" thickBot="1">
+      <c r="A15" s="33">
         <v>6</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="37">
         <v>45376</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="59" t="s">
         <v>661</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="47" t="s">
         <v>528</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="37" t="s">
         <v>529</v>
       </c>
-      <c r="J15" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="44" t="s">
+      <c r="J15" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="T15" s="42" t="s">
+      <c r="T15" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="150.75" thickBot="1">
+    <row r="16" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A16" s="20">
         <v>7</v>
       </c>
@@ -7141,7 +7142,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="23"/>
-      <c r="G16" s="51"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="25" t="s">
@@ -7162,7 +7163,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="150.75" thickBot="1">
+    <row r="17" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A17" s="20">
         <v>8</v>
       </c>
@@ -7200,7 +7201,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="150.75" thickBot="1">
+    <row r="18" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A18" s="20">
         <v>9</v>
       </c>
@@ -7217,7 +7218,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="23"/>
-      <c r="G18" s="49"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="25" t="s">
@@ -7239,98 +7240,98 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="153.75" customHeight="1" thickBot="1">
-      <c r="A19" s="34">
+      <c r="A19" s="33">
         <v>11</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <v>45367</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="J19" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="41" t="s">
+      <c r="J19" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="T19" s="42" t="s">
+      <c r="T19" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="164.25" customHeight="1" thickBot="1">
-      <c r="A20" s="34">
+      <c r="A20" s="33">
         <v>12</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="36">
         <v>45369</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="J20" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="41" t="s">
+      <c r="J20" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="40" t="s">
         <v>415</v>
       </c>
-      <c r="T20" s="42" t="s">
+      <c r="T20" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="135.75" thickBot="1">
+    <row r="21" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A21" s="20">
         <v>13</v>
       </c>
@@ -7350,7 +7351,7 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K21" s="25" t="s">
@@ -7370,7 +7371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="135.75" thickBot="1">
+    <row r="22" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A22" s="20">
         <v>14</v>
       </c>
@@ -7390,7 +7391,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="46" t="s">
+      <c r="J22" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K22" s="25" t="s">
@@ -7408,53 +7409,53 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="150.75" thickBot="1">
-      <c r="A23" s="34">
+    <row r="23" spans="1:20" ht="144.6" thickBot="1">
+      <c r="A23" s="33">
         <v>24</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="36">
         <v>45376</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="37" t="s">
         <v>662</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="37" t="s">
         <v>568</v>
       </c>
-      <c r="J23" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="44" t="s">
+      <c r="J23" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="43" t="s">
         <v>569</v>
       </c>
-      <c r="T23" s="42" t="s">
+      <c r="T23" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="150.75" thickBot="1">
+    <row r="24" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A24" s="20">
         <v>25</v>
       </c>
@@ -7492,7 +7493,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="150.75" thickBot="1">
+    <row r="25" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A25" s="20">
         <v>26</v>
       </c>
@@ -7530,7 +7531,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="150.75" thickBot="1">
+    <row r="26" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A26" s="20">
         <v>27</v>
       </c>
@@ -7547,7 +7548,7 @@
         <v>85</v>
       </c>
       <c r="F26" s="23"/>
-      <c r="G26" s="49"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="25" t="s">
@@ -7568,1357 +7569,1357 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="225.75" thickBot="1">
-      <c r="A27" s="34">
+    <row r="27" spans="1:20" ht="202.2" thickBot="1">
+      <c r="A27" s="33">
         <v>28</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="37">
         <v>45370</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="49" t="s">
         <v>497</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J27" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M27" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N27" s="43" t="s">
+      <c r="J27" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="38"/>
+      <c r="L27" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M27" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N27" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="O27" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P27" s="43" t="s">
+      <c r="O27" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="41" t="s">
+      <c r="Q27" s="38"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="40" t="s">
         <v>428</v>
       </c>
-      <c r="T27" s="42" t="s">
+      <c r="T27" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="225.75" thickBot="1">
-      <c r="A28" s="34">
+    <row r="28" spans="1:20" ht="202.2" thickBot="1">
+      <c r="A28" s="33">
         <v>29</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="37">
         <v>45374</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="49" t="s">
         <v>511</v>
       </c>
-      <c r="H28" s="48" t="s">
+      <c r="H28" s="47" t="s">
         <v>510</v>
       </c>
-      <c r="I28" s="38" t="s">
+      <c r="I28" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J28" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K28" s="39"/>
-      <c r="L28" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M28" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N28" s="43" t="s">
+      <c r="J28" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="38"/>
+      <c r="L28" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M28" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N28" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="O28" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P28" s="43" t="s">
+      <c r="O28" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="41" t="s">
+      <c r="Q28" s="38"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="40" t="s">
         <v>512</v>
       </c>
-      <c r="T28" s="42" t="s">
+      <c r="T28" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="225.75" thickBot="1">
-      <c r="A29" s="34">
+    <row r="29" spans="1:20" ht="202.2" thickBot="1">
+      <c r="A29" s="33">
         <v>31</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="37">
         <v>45367</v>
       </c>
-      <c r="G29" s="50" t="s">
+      <c r="G29" s="49" t="s">
         <v>481</v>
       </c>
-      <c r="H29" s="48" t="s">
+      <c r="H29" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="I29" s="38" t="s">
+      <c r="I29" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J29" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K29" s="39"/>
-      <c r="L29" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M29" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N29" s="43" t="s">
+      <c r="J29" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="38"/>
+      <c r="L29" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M29" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N29" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="O29" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P29" s="43" t="s">
+      <c r="O29" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="41" t="s">
+      <c r="Q29" s="38"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="T29" s="42" t="s">
+      <c r="T29" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="225.75" thickBot="1">
-      <c r="A30" s="34">
+    <row r="30" spans="1:20" ht="202.2" thickBot="1">
+      <c r="A30" s="33">
         <v>32</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="37">
         <v>45374</v>
       </c>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="49" t="s">
         <v>517</v>
       </c>
-      <c r="H30" s="48" t="s">
+      <c r="H30" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="I30" s="38" t="s">
+      <c r="I30" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J30" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K30" s="39"/>
-      <c r="L30" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M30" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N30" s="39" t="s">
+      <c r="J30" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="38"/>
+      <c r="L30" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M30" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N30" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="O30" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P30" s="39" t="s">
+      <c r="O30" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P30" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="41" t="s">
+      <c r="Q30" s="38"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="40" t="s">
         <v>518</v>
       </c>
-      <c r="T30" s="42" t="s">
+      <c r="T30" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="150.75" customHeight="1" thickBot="1">
-      <c r="A31" s="34">
+      <c r="A31" s="33">
         <v>35</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="37">
         <v>45374</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="54" t="s">
         <v>663</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="47" t="s">
         <v>521</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J31" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K31" s="39"/>
-      <c r="L31" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M31" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N31" s="39" t="s">
+      <c r="J31" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" s="38"/>
+      <c r="L31" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M31" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N31" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="O31" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P31" s="39" t="s">
+      <c r="O31" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P31" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="41" t="s">
+      <c r="Q31" s="38"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="T31" s="42" t="s">
+      <c r="T31" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="210.75" customHeight="1" thickBot="1">
-      <c r="A32" s="34">
+      <c r="A32" s="33">
         <v>36</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="37">
         <v>45370</v>
       </c>
-      <c r="G32" s="50" t="s">
+      <c r="G32" s="49" t="s">
         <v>498</v>
       </c>
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="47" t="s">
         <v>429</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J32" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K32" s="39"/>
-      <c r="L32" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M32" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N32" s="43" t="s">
+      <c r="J32" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" s="38"/>
+      <c r="L32" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M32" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N32" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="O32" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P32" s="39" t="s">
+      <c r="O32" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="41" t="s">
+      <c r="Q32" s="38"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="40" t="s">
         <v>431</v>
       </c>
-      <c r="T32" s="42" t="s">
+      <c r="T32" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="165.75" customHeight="1" thickBot="1">
-      <c r="A33" s="34">
+      <c r="A33" s="33">
         <v>37</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="36">
         <v>45374</v>
       </c>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="53" t="s">
         <v>514</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="37" t="s">
         <v>513</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="I33" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J33" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K33" s="39"/>
-      <c r="L33" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M33" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N33" s="43" t="s">
+      <c r="J33" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="38"/>
+      <c r="L33" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N33" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="O33" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P33" s="43" t="s">
+      <c r="O33" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P33" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="41" t="s">
+      <c r="Q33" s="38"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="T33" s="42" t="s">
+      <c r="T33" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="210.75" customHeight="1" thickBot="1">
-      <c r="A34" s="34">
+      <c r="A34" s="33">
         <v>39</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="36">
         <v>45367</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="46" t="s">
         <v>482</v>
       </c>
-      <c r="H34" s="38" t="s">
+      <c r="H34" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="I34" s="38" t="s">
+      <c r="I34" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J34" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K34" s="39"/>
-      <c r="L34" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M34" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N34" s="43" t="s">
+      <c r="J34" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K34" s="38"/>
+      <c r="L34" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M34" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N34" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="O34" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P34" s="43" t="s">
+      <c r="O34" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="41" t="s">
+      <c r="Q34" s="38"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="T34" s="42" t="s">
+      <c r="T34" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="165.75" customHeight="1" thickBot="1">
-      <c r="A35" s="34">
+      <c r="A35" s="33">
         <v>40</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="36">
         <v>45374</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="44" t="s">
         <v>664</v>
       </c>
-      <c r="H35" s="38" t="s">
+      <c r="H35" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="I35" s="38" t="s">
+      <c r="I35" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J35" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K35" s="39"/>
-      <c r="L35" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M35" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N35" s="39" t="s">
+      <c r="J35" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K35" s="38"/>
+      <c r="L35" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M35" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N35" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="O35" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P35" s="39" t="s">
+      <c r="O35" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P35" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="41" t="s">
+      <c r="Q35" s="38"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="40" t="s">
         <v>520</v>
       </c>
-      <c r="T35" s="42" t="s">
+      <c r="T35" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="165.75" customHeight="1" thickBot="1">
-      <c r="A36" s="34">
+      <c r="A36" s="33">
         <v>43</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="37">
         <v>45374</v>
       </c>
-      <c r="G36" s="55" t="s">
+      <c r="G36" s="54" t="s">
         <v>665</v>
       </c>
-      <c r="H36" s="48" t="s">
+      <c r="H36" s="47" t="s">
         <v>523</v>
       </c>
-      <c r="I36" s="38" t="s">
+      <c r="I36" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J36" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K36" s="39"/>
-      <c r="L36" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M36" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N36" s="39" t="s">
+      <c r="J36" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="38"/>
+      <c r="L36" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M36" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N36" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="O36" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P36" s="39" t="s">
+      <c r="O36" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P36" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="41" t="s">
+      <c r="Q36" s="38"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="T36" s="42" t="s">
+      <c r="T36" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="60.75" thickBot="1">
-      <c r="A37" s="34">
+    <row r="37" spans="1:20" ht="58.2" thickBot="1">
+      <c r="A37" s="33">
         <v>44</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M37" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N37" s="39" t="s">
+      <c r="F37" s="36"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M37" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N37" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="O37" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P37" s="39" t="s">
+      <c r="O37" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P37" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="S37" s="44"/>
-      <c r="T37" s="42" t="s">
+      <c r="Q37" s="38"/>
+      <c r="R37" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="S37" s="43"/>
+      <c r="T37" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A38" s="34">
+      <c r="A38" s="33">
         <v>45</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M38" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N38" s="43" t="s">
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M38" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N38" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="O38" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P38" s="43" t="s">
+      <c r="O38" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P38" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="S38" s="44"/>
-      <c r="T38" s="42" t="s">
+      <c r="Q38" s="38"/>
+      <c r="R38" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="S38" s="43"/>
+      <c r="T38" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="60.75" thickBot="1">
-      <c r="A39" s="34">
+    <row r="39" spans="1:20" ht="58.2" thickBot="1">
+      <c r="A39" s="33">
         <v>47</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M39" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N39" s="43" t="s">
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M39" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N39" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="O39" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P39" s="43" t="s">
+      <c r="O39" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P39" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="S39" s="44"/>
-      <c r="T39" s="42" t="s">
+      <c r="Q39" s="38"/>
+      <c r="R39" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="S39" s="43"/>
+      <c r="T39" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="60.75" thickBot="1">
-      <c r="A40" s="34">
+    <row r="40" spans="1:20" ht="58.2" thickBot="1">
+      <c r="A40" s="33">
         <v>48</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M40" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N40" s="39" t="s">
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M40" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N40" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="O40" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P40" s="39" t="s">
+      <c r="O40" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P40" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="S40" s="44"/>
-      <c r="T40" s="42" t="s">
+      <c r="Q40" s="38"/>
+      <c r="R40" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="S40" s="43"/>
+      <c r="T40" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="60.75" thickBot="1">
-      <c r="A41" s="34">
+    <row r="41" spans="1:20" ht="58.2" thickBot="1">
+      <c r="A41" s="33">
         <v>51</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M41" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N41" s="39" t="s">
+      <c r="F41" s="36"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M41" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N41" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="O41" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P41" s="39" t="s">
+      <c r="O41" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P41" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="S41" s="44"/>
-      <c r="T41" s="42" t="s">
+      <c r="Q41" s="38"/>
+      <c r="R41" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="S41" s="43"/>
+      <c r="T41" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A42" s="34">
+    <row r="42" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A42" s="33">
         <v>52</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="37">
         <v>45370</v>
       </c>
-      <c r="G42" s="50" t="s">
+      <c r="G42" s="49" t="s">
         <v>499</v>
       </c>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="I42" s="38" t="s">
+      <c r="I42" s="37" t="s">
         <v>436</v>
       </c>
-      <c r="J42" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K42" s="39"/>
-      <c r="L42" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M42" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N42" s="43" t="s">
+      <c r="J42" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" s="38"/>
+      <c r="L42" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M42" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N42" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="O42" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P42" s="43" t="s">
+      <c r="O42" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P42" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="44" t="s">
+      <c r="Q42" s="38"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="43" t="s">
         <v>437</v>
       </c>
-      <c r="T42" s="42" t="s">
+      <c r="T42" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A43" s="34">
+    <row r="43" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A43" s="33">
         <v>53</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="37">
         <v>45370</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="H43" s="48" t="s">
+      <c r="H43" s="47" t="s">
         <v>438</v>
       </c>
-      <c r="I43" s="38" t="s">
+      <c r="I43" s="37" t="s">
         <v>439</v>
       </c>
-      <c r="J43" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K43" s="39"/>
-      <c r="L43" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M43" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N43" s="43" t="s">
+      <c r="J43" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K43" s="38"/>
+      <c r="L43" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M43" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N43" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="O43" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P43" s="43" t="s">
+      <c r="O43" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P43" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="41" t="s">
+      <c r="Q43" s="38"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="40" t="s">
         <v>440</v>
       </c>
-      <c r="T43" s="42" t="s">
+      <c r="T43" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A44" s="34">
+    <row r="44" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A44" s="33">
         <v>54</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="37">
         <v>45370</v>
       </c>
-      <c r="G44" s="50" t="s">
+      <c r="G44" s="49" t="s">
         <v>501</v>
       </c>
-      <c r="H44" s="48" t="s">
+      <c r="H44" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="I44" s="38" t="s">
+      <c r="I44" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="J44" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K44" s="39"/>
-      <c r="L44" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M44" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N44" s="43" t="s">
+      <c r="J44" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" s="38"/>
+      <c r="L44" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M44" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N44" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="O44" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P44" s="43" t="s">
+      <c r="O44" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P44" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="41" t="s">
+      <c r="Q44" s="38"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="T44" s="42" t="s">
+      <c r="T44" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A45" s="34">
+    <row r="45" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A45" s="33">
         <v>55</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="37">
         <v>45370</v>
       </c>
-      <c r="G45" s="50" t="s">
+      <c r="G45" s="49" t="s">
         <v>502</v>
       </c>
-      <c r="H45" s="48" t="s">
+      <c r="H45" s="47" t="s">
         <v>444</v>
       </c>
-      <c r="I45" s="38" t="s">
+      <c r="I45" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="J45" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K45" s="39"/>
-      <c r="L45" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M45" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N45" s="43" t="s">
+      <c r="J45" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K45" s="38"/>
+      <c r="L45" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M45" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N45" s="42" t="s">
         <v>446</v>
       </c>
-      <c r="O45" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P45" s="43" t="s">
+      <c r="O45" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P45" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="41" t="s">
+      <c r="Q45" s="38"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="T45" s="42" t="s">
+      <c r="T45" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A46" s="34">
+    <row r="46" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A46" s="33">
         <v>56</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="37">
         <v>45370</v>
       </c>
-      <c r="G46" s="50" t="s">
+      <c r="G46" s="49" t="s">
         <v>503</v>
       </c>
-      <c r="H46" s="48" t="s">
+      <c r="H46" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="I46" s="38" t="s">
+      <c r="I46" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="J46" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K46" s="39"/>
-      <c r="L46" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M46" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N46" s="43" t="s">
+      <c r="J46" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K46" s="38"/>
+      <c r="L46" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M46" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N46" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="O46" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P46" s="43" t="s">
+      <c r="O46" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P46" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="41" t="s">
+      <c r="Q46" s="38"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="T46" s="42" t="s">
+      <c r="T46" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A47" s="34">
+    <row r="47" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A47" s="33">
         <v>57</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="37">
         <v>45370</v>
       </c>
-      <c r="G47" s="50" t="s">
+      <c r="G47" s="49" t="s">
         <v>504</v>
       </c>
-      <c r="H47" s="48" t="s">
+      <c r="H47" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="I47" s="38" t="s">
+      <c r="I47" s="37" t="s">
         <v>453</v>
       </c>
-      <c r="J47" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K47" s="39"/>
-      <c r="L47" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M47" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N47" s="43" t="s">
+      <c r="J47" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" s="38"/>
+      <c r="L47" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M47" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N47" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="O47" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P47" s="43" t="s">
+      <c r="O47" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P47" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="41" t="s">
+      <c r="Q47" s="38"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="40" t="s">
         <v>454</v>
       </c>
-      <c r="T47" s="42" t="s">
+      <c r="T47" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A48" s="34">
+    <row r="48" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A48" s="33">
         <v>58</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="37">
         <v>45371</v>
       </c>
-      <c r="G48" s="50" t="s">
+      <c r="G48" s="49" t="s">
         <v>505</v>
       </c>
-      <c r="H48" s="48" t="s">
+      <c r="H48" s="47" t="s">
         <v>455</v>
       </c>
-      <c r="I48" s="38" t="s">
+      <c r="I48" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="J48" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K48" s="39"/>
-      <c r="L48" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M48" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N48" s="43" t="s">
+      <c r="J48" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K48" s="38"/>
+      <c r="L48" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M48" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N48" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="O48" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P48" s="43" t="s">
+      <c r="O48" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P48" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="41" t="s">
+      <c r="Q48" s="38"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="40" t="s">
         <v>458</v>
       </c>
-      <c r="T48" s="42" t="s">
+      <c r="T48" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="345.75" thickBot="1">
-      <c r="A49" s="34">
+    <row r="49" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A49" s="33">
         <v>59</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="37">
         <v>45371</v>
       </c>
-      <c r="G49" s="50" t="s">
+      <c r="G49" s="49" t="s">
         <v>506</v>
       </c>
-      <c r="H49" s="53" t="s">
+      <c r="H49" s="52" t="s">
         <v>459</v>
       </c>
-      <c r="I49" s="38" t="s">
+      <c r="I49" s="37" t="s">
         <v>460</v>
       </c>
-      <c r="J49" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K49" s="39"/>
-      <c r="L49" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M49" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N49" s="43" t="s">
+      <c r="J49" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K49" s="38"/>
+      <c r="L49" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M49" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N49" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="O49" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P49" s="43" t="s">
+      <c r="O49" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P49" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="41" t="s">
+      <c r="Q49" s="38"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="T49" s="42" t="s">
+      <c r="T49" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="409.6" thickBot="1">
-      <c r="A50" s="34">
+      <c r="A50" s="33">
         <v>60</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50" s="37">
         <v>45371</v>
       </c>
-      <c r="G50" s="50" t="s">
+      <c r="G50" s="49" t="s">
         <v>507</v>
       </c>
-      <c r="H50" s="48" t="s">
+      <c r="H50" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="I50" s="38" t="s">
+      <c r="I50" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="J50" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K50" s="39"/>
-      <c r="L50" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M50" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N50" s="43" t="s">
+      <c r="J50" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K50" s="38"/>
+      <c r="L50" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M50" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N50" s="42" t="s">
         <v>464</v>
       </c>
-      <c r="O50" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P50" s="43" t="s">
+      <c r="O50" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P50" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="41" t="s">
+      <c r="Q50" s="38"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="T50" s="42" t="s">
+      <c r="T50" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A51" s="34">
+    <row r="51" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A51" s="33">
         <v>61</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="36" t="s">
+      <c r="E51" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="37">
         <v>45371</v>
       </c>
-      <c r="G51" s="50" t="s">
+      <c r="G51" s="49" t="s">
         <v>508</v>
       </c>
-      <c r="H51" s="48" t="s">
+      <c r="H51" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="I51" s="38" t="s">
+      <c r="I51" s="37" t="s">
         <v>467</v>
       </c>
-      <c r="J51" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K51" s="39"/>
-      <c r="L51" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M51" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N51" s="43" t="s">
+      <c r="J51" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" s="38"/>
+      <c r="L51" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M51" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N51" s="42" t="s">
         <v>468</v>
       </c>
-      <c r="O51" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P51" s="39" t="s">
+      <c r="O51" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P51" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="41" t="s">
+      <c r="Q51" s="38"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="T51" s="42" t="s">
+      <c r="T51" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="120.75" thickBot="1">
+    <row r="52" spans="1:20" ht="115.8" thickBot="1">
       <c r="A52" s="20">
         <v>62</v>
       </c>
@@ -8935,10 +8936,10 @@
         <v>137</v>
       </c>
       <c r="F52" s="23"/>
-      <c r="G52" s="51"/>
+      <c r="G52" s="50"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
-      <c r="J52" s="46" t="s">
+      <c r="J52" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K52" s="25" t="s">
@@ -8956,455 +8957,455 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A53" s="34">
+    <row r="53" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A53" s="33">
         <v>63</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="36">
         <v>45376</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="G53" s="37" t="s">
         <v>666</v>
       </c>
-      <c r="H53" s="38" t="s">
+      <c r="H53" s="37" t="s">
         <v>531</v>
       </c>
-      <c r="I53" s="38" t="s">
+      <c r="I53" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="J53" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M53" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N53" s="39" t="s">
+      <c r="J53" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M53" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N53" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="O53" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P53" s="39" t="s">
+      <c r="O53" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P53" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="44" t="s">
+      <c r="Q53" s="38"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="43" t="s">
         <v>533</v>
       </c>
-      <c r="T53" s="42" t="s">
+      <c r="T53" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A54" s="34">
+    <row r="54" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A54" s="33">
         <v>64</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="36">
         <v>45376</v>
       </c>
-      <c r="G54" s="38" t="s">
+      <c r="G54" s="37" t="s">
         <v>667</v>
       </c>
-      <c r="H54" s="38" t="s">
+      <c r="H54" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="I54" s="38" t="s">
+      <c r="I54" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="J54" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M54" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N54" s="39" t="s">
+      <c r="J54" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M54" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N54" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="O54" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P54" s="39" t="s">
+      <c r="O54" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P54" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="44" t="s">
+      <c r="Q54" s="38"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="43" t="s">
         <v>536</v>
       </c>
-      <c r="T54" s="42" t="s">
+      <c r="T54" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="360.75" thickBot="1">
-      <c r="A55" s="34">
+    <row r="55" spans="1:20" ht="346.2" thickBot="1">
+      <c r="A55" s="33">
         <v>65</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="E55" s="36" t="s">
+      <c r="E55" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="36">
         <v>45376</v>
       </c>
-      <c r="G55" s="38" t="s">
+      <c r="G55" s="37" t="s">
         <v>668</v>
       </c>
-      <c r="H55" s="38" t="s">
+      <c r="H55" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="I55" s="38" t="s">
+      <c r="I55" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="J55" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M55" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N55" s="39" t="s">
+      <c r="J55" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M55" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N55" s="38" t="s">
         <v>539</v>
       </c>
-      <c r="O55" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P55" s="39" t="s">
+      <c r="O55" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P55" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="44" t="s">
+      <c r="Q55" s="38"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="43" t="s">
         <v>540</v>
       </c>
-      <c r="T55" s="42" t="s">
+      <c r="T55" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="360.75" thickBot="1">
-      <c r="A56" s="34">
+    <row r="56" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A56" s="33">
         <v>66</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="36">
         <v>45376</v>
       </c>
-      <c r="G56" s="38" t="s">
+      <c r="G56" s="37" t="s">
         <v>669</v>
       </c>
-      <c r="H56" s="38" t="s">
+      <c r="H56" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="I56" s="38" t="s">
+      <c r="I56" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="J56" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M56" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N56" s="39" t="s">
+      <c r="J56" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M56" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N56" s="38" t="s">
         <v>543</v>
       </c>
-      <c r="O56" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P56" s="39" t="s">
+      <c r="O56" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P56" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="44" t="s">
+      <c r="Q56" s="38"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="43" t="s">
         <v>544</v>
       </c>
-      <c r="T56" s="42" t="s">
+      <c r="T56" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="360.75" thickBot="1">
-      <c r="A57" s="34">
+    <row r="57" spans="1:20" ht="303" thickBot="1">
+      <c r="A57" s="33">
         <v>67</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="E57" s="36" t="s">
+      <c r="E57" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="36">
         <v>45376</v>
       </c>
-      <c r="G57" s="38" t="s">
+      <c r="G57" s="37" t="s">
         <v>670</v>
       </c>
-      <c r="H57" s="38" t="s">
+      <c r="H57" s="37" t="s">
         <v>545</v>
       </c>
-      <c r="I57" s="38" t="s">
+      <c r="I57" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="J57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N57" s="39" t="s">
+      <c r="J57" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M57" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N57" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="O57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P57" s="39" t="s">
+      <c r="O57" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P57" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="44" t="s">
+      <c r="Q57" s="38"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="T57" s="42" t="s">
+      <c r="T57" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A58" s="34">
+    <row r="58" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A58" s="33">
         <v>68</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="36">
         <v>45376</v>
       </c>
-      <c r="G58" s="38" t="s">
+      <c r="G58" s="37" t="s">
         <v>671</v>
       </c>
-      <c r="H58" s="38" t="s">
+      <c r="H58" s="37" t="s">
         <v>549</v>
       </c>
-      <c r="I58" s="38" t="s">
+      <c r="I58" s="37" t="s">
         <v>550</v>
       </c>
-      <c r="J58" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M58" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N58" s="39" t="s">
+      <c r="J58" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M58" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N58" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="O58" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P58" s="39" t="s">
+      <c r="O58" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P58" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="44" t="s">
+      <c r="Q58" s="38"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="43" t="s">
         <v>552</v>
       </c>
-      <c r="T58" s="42" t="s">
+      <c r="T58" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="330.75" thickBot="1">
-      <c r="A59" s="34">
+    <row r="59" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A59" s="33">
         <v>69</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="36" t="s">
+      <c r="E59" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="F59" s="37">
+      <c r="F59" s="36">
         <v>45376</v>
       </c>
-      <c r="G59" s="38" t="s">
+      <c r="G59" s="37" t="s">
         <v>672</v>
       </c>
-      <c r="H59" s="38" t="s">
+      <c r="H59" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="I59" s="38" t="s">
+      <c r="I59" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="J59" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M59" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N59" s="39" t="s">
+      <c r="J59" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M59" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N59" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="O59" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P59" s="39" t="s">
+      <c r="O59" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P59" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="44" t="s">
+      <c r="Q59" s="38"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="43" t="s">
         <v>555</v>
       </c>
-      <c r="T59" s="42" t="s">
+      <c r="T59" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A60" s="34">
+    <row r="60" spans="1:20" ht="303" thickBot="1">
+      <c r="A60" s="33">
         <v>70</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="F60" s="37">
+      <c r="F60" s="36">
         <v>45376</v>
       </c>
-      <c r="G60" s="38" t="s">
+      <c r="G60" s="37" t="s">
         <v>673</v>
       </c>
-      <c r="H60" s="38" t="s">
+      <c r="H60" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="I60" s="38" t="s">
+      <c r="I60" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="J60" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M60" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N60" s="39" t="s">
+      <c r="J60" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M60" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N60" s="38" t="s">
         <v>558</v>
       </c>
-      <c r="O60" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P60" s="39" t="s">
+      <c r="O60" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P60" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="44" t="s">
+      <c r="Q60" s="38"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="T60" s="42" t="s">
+      <c r="T60" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="120.75" thickBot="1">
+    <row r="61" spans="1:20" ht="115.8" thickBot="1">
       <c r="A61" s="20">
         <v>71</v>
       </c>
@@ -9442,7 +9443,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="120.75" thickBot="1">
+    <row r="62" spans="1:20" ht="115.8" thickBot="1">
       <c r="A62" s="20">
         <v>72</v>
       </c>
@@ -9480,63 +9481,63 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A63" s="34">
+    <row r="63" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A63" s="33">
         <v>73</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="E63" s="36" t="s">
+      <c r="E63" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F63" s="37">
+      <c r="F63" s="36">
         <v>45376</v>
       </c>
-      <c r="G63" s="56" t="s">
+      <c r="G63" s="55" t="s">
         <v>674</v>
       </c>
-      <c r="H63" s="38" t="s">
+      <c r="H63" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="I63" s="38" t="s">
+      <c r="I63" s="37" t="s">
         <v>561</v>
       </c>
-      <c r="J63" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M63" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N63" s="39" t="s">
+      <c r="J63" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M63" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N63" s="38" t="s">
         <v>562</v>
       </c>
-      <c r="O63" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P63" s="39" t="s">
+      <c r="O63" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P63" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="44" t="s">
+      <c r="Q63" s="38"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="43" t="s">
         <v>563</v>
       </c>
-      <c r="T63" s="42" t="s">
+      <c r="T63" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="120.75" thickBot="1">
+    <row r="64" spans="1:20" ht="115.8" thickBot="1">
       <c r="A64" s="20">
         <v>74</v>
       </c>
@@ -9553,8 +9554,8 @@
         <v>161</v>
       </c>
       <c r="F64" s="24"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="57"/>
       <c r="I64" s="24"/>
       <c r="J64" s="25" t="s">
         <v>363</v>
@@ -9575,340 +9576,342 @@
       </c>
     </row>
     <row r="65" spans="1:20" ht="315" customHeight="1" thickBot="1">
-      <c r="A65" s="34">
+      <c r="A65" s="33">
         <v>75</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="E65" s="36" t="s">
+      <c r="E65" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F65" s="37">
         <v>45367</v>
       </c>
-      <c r="G65" s="50" t="s">
+      <c r="G65" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="H65" s="48" t="s">
+      <c r="H65" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="I65" s="38" t="s">
+      <c r="I65" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="J65" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K65" s="39"/>
-      <c r="L65" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M65" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N65" s="43" t="s">
+      <c r="J65" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K65" s="38"/>
+      <c r="L65" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M65" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N65" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="O65" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P65" s="43" t="s">
+      <c r="O65" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P65" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="41" t="s">
+      <c r="Q65" s="38"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="T65" s="42" t="s">
+      <c r="T65" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A66" s="34">
+    <row r="66" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A66" s="33">
         <v>76</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="F66" s="38">
+      <c r="F66" s="37">
         <v>45367</v>
       </c>
-      <c r="G66" s="50" t="s">
+      <c r="G66" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="H66" s="48" t="s">
+      <c r="H66" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="I66" s="38" t="s">
+      <c r="I66" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="J66" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K66" s="39"/>
-      <c r="L66" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M66" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N66" s="43" t="s">
+      <c r="J66" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K66" s="38"/>
+      <c r="L66" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M66" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N66" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="O66" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P66" s="43" t="s">
+      <c r="O66" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P66" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="41" t="s">
+      <c r="Q66" s="38"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="T66" s="42" t="s">
+      <c r="T66" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A67" s="34">
+    <row r="67" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A67" s="33">
         <v>77</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="37">
         <v>45369</v>
       </c>
-      <c r="G67" s="50" t="s">
+      <c r="G67" s="49" t="s">
         <v>485</v>
       </c>
-      <c r="H67" s="48" t="s">
+      <c r="H67" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="I67" s="38" t="s">
+      <c r="I67" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="J67" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K67" s="39"/>
-      <c r="L67" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M67" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N67" s="43" t="s">
+      <c r="J67" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K67" s="38"/>
+      <c r="L67" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M67" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N67" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="O67" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P67" s="39" t="s">
+      <c r="O67" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P67" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="41" t="s">
+      <c r="Q67" s="38"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="40" t="s">
         <v>419</v>
       </c>
-      <c r="T67" s="42" t="s">
+      <c r="T67" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A68" s="34">
+    <row r="68" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A68" s="33">
         <v>78</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="E68" s="36" t="s">
+      <c r="E68" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="37">
         <v>45367</v>
       </c>
-      <c r="G68" s="50" t="s">
+      <c r="G68" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="H68" s="48" t="s">
+      <c r="H68" s="47" t="s">
         <v>389</v>
       </c>
-      <c r="I68" s="38" t="s">
+      <c r="I68" s="37" t="s">
         <v>390</v>
       </c>
-      <c r="J68" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K68" s="39"/>
-      <c r="L68" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M68" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N68" s="43" t="s">
+      <c r="J68" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K68" s="38"/>
+      <c r="L68" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M68" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N68" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39" t="s">
+      <c r="O68" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P68" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="41" t="s">
+      <c r="Q68" s="38"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="T68" s="42" t="s">
+      <c r="T68" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A69" s="34">
+    <row r="69" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A69" s="33">
         <v>79</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="E69" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F69" s="38">
+      <c r="F69" s="37">
         <v>45367</v>
       </c>
-      <c r="G69" s="50" t="s">
+      <c r="G69" s="49" t="s">
         <v>487</v>
       </c>
-      <c r="H69" s="48" t="s">
+      <c r="H69" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="I69" s="38" t="s">
+      <c r="I69" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="J69" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K69" s="39"/>
-      <c r="L69" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M69" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N69" s="43" t="s">
+      <c r="J69" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K69" s="38"/>
+      <c r="L69" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M69" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N69" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="O69" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P69" s="43" t="s">
+      <c r="O69" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P69" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="41" t="s">
+      <c r="Q69" s="38"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="40" t="s">
         <v>396</v>
       </c>
-      <c r="T69" s="42" t="s">
+      <c r="T69" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A70" s="34">
+    <row r="70" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A70" s="33">
         <v>80</v>
       </c>
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="E70" s="36" t="s">
+      <c r="E70" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="F70" s="38">
+      <c r="F70" s="37">
         <v>45367</v>
       </c>
-      <c r="G70" s="50" t="s">
+      <c r="G70" s="49" t="s">
         <v>488</v>
       </c>
-      <c r="H70" s="48" t="s">
+      <c r="H70" s="47" t="s">
         <v>397</v>
       </c>
-      <c r="I70" s="38" t="s">
+      <c r="I70" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="J70" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K70" s="39"/>
-      <c r="L70" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M70" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N70" s="43" t="s">
+      <c r="J70" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K70" s="38"/>
+      <c r="L70" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M70" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N70" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="O70" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P70" s="43" t="s">
+      <c r="O70" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P70" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="41" t="s">
+      <c r="Q70" s="38"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="40" t="s">
         <v>400</v>
       </c>
-      <c r="T70" s="42" t="s">
+      <c r="T70" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="120.75" thickBot="1">
+    <row r="71" spans="1:20" ht="115.8" thickBot="1">
       <c r="A71" s="20">
         <v>81</v>
       </c>
@@ -9925,10 +9928,10 @@
         <v>175</v>
       </c>
       <c r="F71" s="23"/>
-      <c r="G71" s="52"/>
+      <c r="G71" s="51"/>
       <c r="H71" s="24"/>
       <c r="I71" s="24"/>
-      <c r="J71" s="46" t="s">
+      <c r="J71" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K71" s="25" t="s">
@@ -9946,231 +9949,231 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A72" s="34">
+    <row r="72" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A72" s="33">
         <v>82</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="E72" s="36" t="s">
+      <c r="E72" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="37">
         <v>45369</v>
       </c>
-      <c r="G72" s="50" t="s">
+      <c r="G72" s="49" t="s">
         <v>489</v>
       </c>
-      <c r="H72" s="48" t="s">
+      <c r="H72" s="47" t="s">
         <v>420</v>
       </c>
-      <c r="I72" s="38" t="s">
+      <c r="I72" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="J72" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K72" s="39"/>
-      <c r="L72" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M72" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N72" s="43" t="s">
+      <c r="J72" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K72" s="38"/>
+      <c r="L72" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M72" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N72" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="O72" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P72" s="39" t="s">
+      <c r="O72" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P72" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="41" t="s">
+      <c r="Q72" s="38"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="40" t="s">
         <v>423</v>
       </c>
-      <c r="T72" s="42" t="s">
+      <c r="T72" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="345.75" thickBot="1">
-      <c r="A73" s="34">
+    <row r="73" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A73" s="33">
         <v>83</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="E73" s="36" t="s">
+      <c r="E73" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="37">
         <v>45367</v>
       </c>
-      <c r="G73" s="50" t="s">
+      <c r="G73" s="49" t="s">
         <v>490</v>
       </c>
-      <c r="H73" s="48" t="s">
+      <c r="H73" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="I73" s="38" t="s">
+      <c r="I73" s="37" t="s">
         <v>402</v>
       </c>
-      <c r="J73" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K73" s="39"/>
-      <c r="L73" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M73" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N73" s="43" t="s">
+      <c r="J73" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K73" s="38"/>
+      <c r="L73" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M73" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N73" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="O73" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P73" s="43" t="s">
+      <c r="O73" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P73" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="41" t="s">
+      <c r="Q73" s="38"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="T73" s="42" t="s">
+      <c r="T73" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="345.75" thickBot="1">
-      <c r="A74" s="34">
+    <row r="74" spans="1:20" ht="331.8" thickBot="1">
+      <c r="A74" s="33">
         <v>84</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="E74" s="36" t="s">
+      <c r="E74" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74" s="37">
         <v>45367</v>
       </c>
-      <c r="G74" s="50" t="s">
+      <c r="G74" s="49" t="s">
         <v>491</v>
       </c>
-      <c r="H74" s="48" t="s">
+      <c r="H74" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="I74" s="38" t="s">
+      <c r="I74" s="37" t="s">
         <v>406</v>
       </c>
-      <c r="J74" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K74" s="39"/>
-      <c r="L74" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M74" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N74" s="43" t="s">
+      <c r="J74" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K74" s="38"/>
+      <c r="L74" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M74" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N74" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="O74" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P74" s="43" t="s">
+      <c r="O74" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P74" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="41" t="s">
+      <c r="Q74" s="38"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="40" t="s">
         <v>408</v>
       </c>
-      <c r="T74" s="42" t="s">
+      <c r="T74" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="330.75" thickBot="1">
-      <c r="A75" s="34">
+    <row r="75" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A75" s="33">
         <v>85</v>
       </c>
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="E75" s="36" t="s">
+      <c r="E75" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="37">
         <v>45367</v>
       </c>
-      <c r="G75" s="50" t="s">
+      <c r="G75" s="49" t="s">
         <v>492</v>
       </c>
-      <c r="H75" s="48" t="s">
+      <c r="H75" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="I75" s="38" t="s">
+      <c r="I75" s="37" t="s">
         <v>410</v>
       </c>
-      <c r="J75" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K75" s="39"/>
-      <c r="L75" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M75" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N75" s="43" t="s">
+      <c r="J75" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K75" s="38"/>
+      <c r="L75" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M75" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N75" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="O75" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P75" s="39" t="s">
+      <c r="O75" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P75" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="41" t="s">
+      <c r="Q75" s="38"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="40" t="s">
         <v>412</v>
       </c>
-      <c r="T75" s="42" t="s">
+      <c r="T75" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="120.75" thickBot="1">
+    <row r="76" spans="1:20" ht="115.8" thickBot="1">
       <c r="A76" s="20">
         <v>86</v>
       </c>
@@ -10187,10 +10190,10 @@
         <v>185</v>
       </c>
       <c r="F76" s="23"/>
-      <c r="G76" s="51"/>
+      <c r="G76" s="50"/>
       <c r="H76" s="24"/>
       <c r="I76" s="24"/>
-      <c r="J76" s="46" t="s">
+      <c r="J76" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K76" s="25" t="s">
@@ -10208,7 +10211,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="135.75" thickBot="1">
+    <row r="77" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A77" s="20">
         <v>87</v>
       </c>
@@ -10228,7 +10231,7 @@
       <c r="G77" s="24"/>
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
-      <c r="J77" s="46" t="s">
+      <c r="J77" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K77" s="25" t="s">
@@ -10246,7 +10249,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="120.75" thickBot="1">
+    <row r="78" spans="1:20" ht="115.8" thickBot="1">
       <c r="A78" s="20">
         <v>88</v>
       </c>
@@ -10266,7 +10269,7 @@
       <c r="G78" s="24"/>
       <c r="H78" s="24"/>
       <c r="I78" s="24"/>
-      <c r="J78" s="46" t="s">
+      <c r="J78" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K78" s="25" t="s">
@@ -10284,7 +10287,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="105.75" thickBot="1">
+    <row r="79" spans="1:20" ht="101.4" thickBot="1">
       <c r="A79" s="20">
         <v>89</v>
       </c>
@@ -10304,7 +10307,7 @@
       <c r="G79" s="24"/>
       <c r="H79" s="24"/>
       <c r="I79" s="24"/>
-      <c r="J79" s="46" t="s">
+      <c r="J79" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K79" s="25" t="s">
@@ -10322,7 +10325,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="105.75" thickBot="1">
+    <row r="80" spans="1:20" ht="101.4" thickBot="1">
       <c r="A80" s="20">
         <v>90</v>
       </c>
@@ -10342,7 +10345,7 @@
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
-      <c r="J80" s="46" t="s">
+      <c r="J80" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K80" s="25" t="s">
@@ -10360,7 +10363,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="120.75" thickBot="1">
+    <row r="81" spans="1:20" ht="115.8" thickBot="1">
       <c r="A81" s="20">
         <v>91</v>
       </c>
@@ -10380,7 +10383,7 @@
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
-      <c r="J81" s="46" t="s">
+      <c r="J81" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K81" s="25" t="s">
@@ -10398,7 +10401,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="120.75" thickBot="1">
+    <row r="82" spans="1:20" ht="115.8" thickBot="1">
       <c r="A82" s="20">
         <v>92</v>
       </c>
@@ -10418,7 +10421,7 @@
       <c r="G82" s="24"/>
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
-      <c r="J82" s="46" t="s">
+      <c r="J82" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K82" s="25" t="s">
@@ -10436,7 +10439,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="120.75" thickBot="1">
+    <row r="83" spans="1:20" ht="115.8" thickBot="1">
       <c r="A83" s="20">
         <v>93</v>
       </c>
@@ -10456,7 +10459,7 @@
       <c r="G83" s="24"/>
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
-      <c r="J83" s="46" t="s">
+      <c r="J83" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K83" s="25" t="s">
@@ -10474,679 +10477,679 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A84" s="34">
+    <row r="84" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A84" s="33">
         <v>122</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="E84" s="36" t="s">
+      <c r="E84" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="F84" s="37">
+      <c r="F84" s="36">
         <v>45376</v>
       </c>
-      <c r="G84" s="38" t="s">
+      <c r="G84" s="37" t="s">
         <v>675</v>
       </c>
-      <c r="H84" s="38" t="s">
+      <c r="H84" s="37" t="s">
         <v>616</v>
       </c>
-      <c r="I84" s="38" t="s">
+      <c r="I84" s="37" t="s">
         <v>617</v>
       </c>
-      <c r="J84" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K84" s="39"/>
-      <c r="L84" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M84" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N84" s="39" t="s">
+      <c r="J84" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M84" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N84" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="O84" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P84" s="39" t="s">
+      <c r="O84" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P84" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="40"/>
-      <c r="S84" s="44" t="s">
+      <c r="Q84" s="38"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="43" t="s">
         <v>615</v>
       </c>
-      <c r="T84" s="42" t="s">
+      <c r="T84" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A85" s="34">
+    <row r="85" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A85" s="33">
         <v>123</v>
       </c>
-      <c r="B85" s="35" t="s">
+      <c r="B85" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="D85" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="E85" s="36" t="s">
+      <c r="E85" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F85" s="37">
+      <c r="F85" s="36">
         <v>45376</v>
       </c>
-      <c r="G85" s="38" t="s">
+      <c r="G85" s="37" t="s">
         <v>676</v>
       </c>
-      <c r="H85" s="38" t="s">
+      <c r="H85" s="37" t="s">
         <v>619</v>
       </c>
-      <c r="I85" s="38" t="s">
+      <c r="I85" s="37" t="s">
         <v>620</v>
       </c>
-      <c r="J85" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K85" s="39"/>
-      <c r="L85" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M85" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N85" s="39" t="s">
+      <c r="J85" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M85" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N85" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="O85" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P85" s="39" t="s">
+      <c r="O85" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P85" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q85" s="39"/>
-      <c r="R85" s="40"/>
-      <c r="S85" s="44" t="s">
+      <c r="Q85" s="38"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="43" t="s">
         <v>618</v>
       </c>
-      <c r="T85" s="42" t="s">
+      <c r="T85" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A86" s="34">
+    <row r="86" spans="1:20" ht="303" thickBot="1">
+      <c r="A86" s="33">
         <v>124</v>
       </c>
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="35" t="s">
+      <c r="D86" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E86" s="36" t="s">
+      <c r="E86" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="F86" s="37">
+      <c r="F86" s="36">
         <v>45376</v>
       </c>
-      <c r="G86" s="38" t="s">
+      <c r="G86" s="37" t="s">
         <v>677</v>
       </c>
-      <c r="H86" s="38" t="s">
+      <c r="H86" s="37" t="s">
         <v>622</v>
       </c>
-      <c r="I86" s="38" t="s">
+      <c r="I86" s="37" t="s">
         <v>623</v>
       </c>
-      <c r="J86" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K86" s="39"/>
-      <c r="L86" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M86" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N86" s="39" t="s">
+      <c r="J86" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M86" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N86" s="38" t="s">
         <v>624</v>
       </c>
-      <c r="O86" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P86" s="39" t="s">
+      <c r="O86" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P86" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q86" s="39"/>
-      <c r="R86" s="40"/>
-      <c r="S86" s="44" t="s">
+      <c r="Q86" s="38"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="43" t="s">
         <v>621</v>
       </c>
-      <c r="T86" s="42" t="s">
+      <c r="T86" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A87" s="34">
+    <row r="87" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A87" s="33">
         <v>125</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="E87" s="36" t="s">
+      <c r="E87" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="F87" s="37">
+      <c r="F87" s="36">
         <v>45376</v>
       </c>
-      <c r="G87" s="38" t="s">
+      <c r="G87" s="37" t="s">
         <v>678</v>
       </c>
-      <c r="H87" s="38" t="s">
+      <c r="H87" s="37" t="s">
         <v>626</v>
       </c>
-      <c r="I87" s="38" t="s">
+      <c r="I87" s="37" t="s">
         <v>627</v>
       </c>
-      <c r="J87" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K87" s="39"/>
-      <c r="L87" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M87" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N87" s="39" t="s">
+      <c r="J87" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M87" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N87" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="O87" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P87" s="39" t="s">
+      <c r="O87" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P87" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="40"/>
-      <c r="S87" s="44" t="s">
+      <c r="Q87" s="38"/>
+      <c r="R87" s="39"/>
+      <c r="S87" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="T87" s="42" t="s">
+      <c r="T87" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A88" s="34">
+    <row r="88" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A88" s="33">
         <v>126</v>
       </c>
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="35" t="s">
+      <c r="D88" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="E88" s="36" t="s">
+      <c r="E88" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="F88" s="37">
+      <c r="F88" s="36">
         <v>45376</v>
       </c>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="37" t="s">
         <v>679</v>
       </c>
-      <c r="H88" s="38" t="s">
+      <c r="H88" s="37" t="s">
         <v>629</v>
       </c>
-      <c r="I88" s="38" t="s">
+      <c r="I88" s="37" t="s">
         <v>630</v>
       </c>
-      <c r="J88" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K88" s="39"/>
-      <c r="L88" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M88" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N88" s="39" t="s">
+      <c r="J88" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M88" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N88" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="O88" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P88" s="39" t="s">
+      <c r="O88" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P88" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="40"/>
-      <c r="S88" s="44" t="s">
+      <c r="Q88" s="38"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="43" t="s">
         <v>628</v>
       </c>
-      <c r="T88" s="42" t="s">
+      <c r="T88" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A89" s="34">
+    <row r="89" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A89" s="33">
         <v>127</v>
       </c>
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D89" s="35" t="s">
+      <c r="D89" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="E89" s="36" t="s">
+      <c r="E89" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="F89" s="37">
+      <c r="F89" s="36">
         <v>45376</v>
       </c>
-      <c r="G89" s="38" t="s">
+      <c r="G89" s="37" t="s">
         <v>680</v>
       </c>
-      <c r="H89" s="38" t="s">
+      <c r="H89" s="37" t="s">
         <v>632</v>
       </c>
-      <c r="I89" s="38" t="s">
+      <c r="I89" s="37" t="s">
         <v>633</v>
       </c>
-      <c r="J89" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K89" s="39"/>
-      <c r="L89" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M89" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N89" s="39" t="s">
+      <c r="J89" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M89" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N89" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="O89" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P89" s="39" t="s">
+      <c r="O89" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P89" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q89" s="39"/>
-      <c r="R89" s="40"/>
-      <c r="S89" s="44" t="s">
+      <c r="Q89" s="38"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="43" t="s">
         <v>631</v>
       </c>
-      <c r="T89" s="42" t="s">
+      <c r="T89" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A90" s="34">
+    <row r="90" spans="1:20" ht="303" thickBot="1">
+      <c r="A90" s="33">
         <v>128</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="E90" s="36" t="s">
+      <c r="E90" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="F90" s="37">
+      <c r="F90" s="36">
         <v>45376</v>
       </c>
-      <c r="G90" s="38" t="s">
+      <c r="G90" s="37" t="s">
         <v>681</v>
       </c>
-      <c r="H90" s="38" t="s">
+      <c r="H90" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="I90" s="38" t="s">
+      <c r="I90" s="37" t="s">
         <v>636</v>
       </c>
-      <c r="J90" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K90" s="39"/>
-      <c r="L90" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M90" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N90" s="39" t="s">
+      <c r="J90" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M90" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N90" s="38" t="s">
         <v>637</v>
       </c>
-      <c r="O90" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P90" s="39" t="s">
+      <c r="O90" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P90" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="40"/>
-      <c r="S90" s="44" t="s">
+      <c r="Q90" s="38"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="T90" s="42" t="s">
+      <c r="T90" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="345.75" thickBot="1">
-      <c r="A91" s="34">
+    <row r="91" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A91" s="33">
         <v>129</v>
       </c>
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C91" s="35" t="s">
+      <c r="C91" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D91" s="35" t="s">
+      <c r="D91" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="E91" s="36" t="s">
+      <c r="E91" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="F91" s="37">
+      <c r="F91" s="36">
         <v>45376</v>
       </c>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="37" t="s">
         <v>682</v>
       </c>
-      <c r="H91" s="38" t="s">
+      <c r="H91" s="37" t="s">
         <v>639</v>
       </c>
-      <c r="I91" s="38" t="s">
+      <c r="I91" s="37" t="s">
         <v>640</v>
       </c>
-      <c r="J91" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K91" s="39"/>
-      <c r="L91" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M91" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N91" s="39" t="s">
+      <c r="J91" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K91" s="38"/>
+      <c r="L91" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M91" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N91" s="38" t="s">
         <v>641</v>
       </c>
-      <c r="O91" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P91" s="39" t="s">
+      <c r="O91" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P91" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="40"/>
-      <c r="S91" s="44" t="s">
+      <c r="Q91" s="38"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="43" t="s">
         <v>638</v>
       </c>
-      <c r="T91" s="42" t="s">
+      <c r="T91" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="330.75" thickBot="1">
-      <c r="A92" s="34">
+    <row r="92" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A92" s="33">
         <v>130</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C92" s="35" t="s">
+      <c r="C92" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D92" s="35" t="s">
+      <c r="D92" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="E92" s="36" t="s">
+      <c r="E92" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="F92" s="37">
+      <c r="F92" s="36">
         <v>45376</v>
       </c>
-      <c r="G92" s="38" t="s">
+      <c r="G92" s="37" t="s">
         <v>683</v>
       </c>
-      <c r="H92" s="38" t="s">
+      <c r="H92" s="37" t="s">
         <v>643</v>
       </c>
-      <c r="I92" s="38" t="s">
+      <c r="I92" s="37" t="s">
         <v>644</v>
       </c>
-      <c r="J92" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K92" s="39"/>
-      <c r="L92" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M92" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N92" s="39" t="s">
+      <c r="J92" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M92" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N92" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="O92" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P92" s="39" t="s">
+      <c r="O92" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P92" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="40"/>
-      <c r="S92" s="44" t="s">
+      <c r="Q92" s="38"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="43" t="s">
         <v>642</v>
       </c>
-      <c r="T92" s="42" t="s">
+      <c r="T92" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="270.75" thickBot="1">
-      <c r="A93" s="34">
+    <row r="93" spans="1:20" ht="245.4" thickBot="1">
+      <c r="A93" s="33">
         <v>131</v>
       </c>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C93" s="35" t="s">
+      <c r="C93" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D93" s="35" t="s">
+      <c r="D93" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="E93" s="36" t="s">
+      <c r="E93" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="F93" s="37">
+      <c r="F93" s="36">
         <v>45376</v>
       </c>
-      <c r="G93" s="38" t="s">
+      <c r="G93" s="37" t="s">
         <v>684</v>
       </c>
-      <c r="H93" s="38" t="s">
+      <c r="H93" s="37" t="s">
         <v>646</v>
       </c>
-      <c r="I93" s="38" t="s">
+      <c r="I93" s="37" t="s">
         <v>647</v>
       </c>
-      <c r="J93" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K93" s="39"/>
-      <c r="L93" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M93" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N93" s="39" t="s">
+      <c r="J93" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K93" s="38"/>
+      <c r="L93" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M93" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N93" s="38" t="s">
         <v>648</v>
       </c>
-      <c r="O93" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P93" s="39" t="s">
+      <c r="O93" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P93" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="40"/>
-      <c r="S93" s="44" t="s">
+      <c r="Q93" s="38"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="43" t="s">
         <v>645</v>
       </c>
-      <c r="T93" s="42" t="s">
+      <c r="T93" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A94" s="34">
+    <row r="94" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A94" s="33">
         <v>132</v>
       </c>
-      <c r="B94" s="35" t="s">
+      <c r="B94" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="35" t="s">
+      <c r="D94" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="E94" s="36" t="s">
+      <c r="E94" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="F94" s="37">
+      <c r="F94" s="36">
         <v>45376</v>
       </c>
-      <c r="G94" s="38" t="s">
+      <c r="G94" s="37" t="s">
         <v>685</v>
       </c>
-      <c r="H94" s="38" t="s">
+      <c r="H94" s="37" t="s">
         <v>650</v>
       </c>
-      <c r="I94" s="38" t="s">
+      <c r="I94" s="37" t="s">
         <v>651</v>
       </c>
-      <c r="J94" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K94" s="39"/>
-      <c r="L94" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M94" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N94" s="39" t="s">
+      <c r="J94" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M94" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N94" s="38" t="s">
         <v>652</v>
       </c>
-      <c r="O94" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P94" s="39" t="s">
+      <c r="O94" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P94" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="40"/>
-      <c r="S94" s="44" t="s">
+      <c r="Q94" s="38"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="43" t="s">
         <v>649</v>
       </c>
-      <c r="T94" s="42" t="s">
+      <c r="T94" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A95" s="34">
+    <row r="95" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A95" s="33">
         <v>133</v>
       </c>
-      <c r="B95" s="35" t="s">
+      <c r="B95" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C95" s="35" t="s">
+      <c r="C95" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D95" s="35" t="s">
+      <c r="D95" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="E95" s="36" t="s">
+      <c r="E95" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="F95" s="37">
+      <c r="F95" s="36">
         <v>45376</v>
       </c>
-      <c r="G95" s="38" t="s">
+      <c r="G95" s="37" t="s">
         <v>686</v>
       </c>
-      <c r="H95" s="38" t="s">
+      <c r="H95" s="37" t="s">
         <v>654</v>
       </c>
-      <c r="I95" s="38" t="s">
+      <c r="I95" s="37" t="s">
         <v>655</v>
       </c>
-      <c r="J95" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K95" s="39"/>
-      <c r="L95" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M95" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N95" s="39" t="s">
+      <c r="J95" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K95" s="38"/>
+      <c r="L95" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M95" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N95" s="38" t="s">
         <v>656</v>
       </c>
-      <c r="O95" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P95" s="39" t="s">
+      <c r="O95" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P95" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="40"/>
-      <c r="S95" s="44" t="s">
+      <c r="Q95" s="38"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="43" t="s">
         <v>653</v>
       </c>
-      <c r="T95" s="42" t="s">
+      <c r="T95" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="105.75" thickBot="1">
+    <row r="96" spans="1:20" ht="101.4" thickBot="1">
       <c r="A96" s="20">
         <v>134</v>
       </c>
@@ -11184,7 +11187,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="105.75" thickBot="1">
+    <row r="97" spans="1:20" ht="101.4" thickBot="1">
       <c r="A97" s="20">
         <v>135</v>
       </c>
@@ -11222,7 +11225,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="105.75" thickBot="1">
+    <row r="98" spans="1:20" ht="101.4" thickBot="1">
       <c r="A98" s="20">
         <v>136</v>
       </c>
@@ -11260,7 +11263,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="120.75" thickBot="1">
+    <row r="99" spans="1:20" ht="115.8" thickBot="1">
       <c r="A99" s="20">
         <v>137</v>
       </c>
@@ -11298,7 +11301,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="105.75" thickBot="1">
+    <row r="100" spans="1:20" ht="101.4" thickBot="1">
       <c r="A100" s="20">
         <v>138</v>
       </c>
@@ -11336,119 +11339,119 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A101" s="34">
+    <row r="101" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A101" s="33">
         <v>139</v>
       </c>
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D101" s="35" t="s">
+      <c r="D101" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="E101" s="36" t="s">
+      <c r="E101" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="F101" s="37">
+      <c r="F101" s="36">
         <v>45376</v>
       </c>
-      <c r="G101" s="38" t="s">
+      <c r="G101" s="37" t="s">
         <v>687</v>
       </c>
-      <c r="H101" s="38" t="s">
+      <c r="H101" s="37" t="s">
         <v>658</v>
       </c>
-      <c r="I101" s="38" t="s">
+      <c r="I101" s="37" t="s">
         <v>659</v>
       </c>
-      <c r="J101" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K101" s="39"/>
-      <c r="L101" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M101" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N101" s="39" t="s">
+      <c r="J101" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K101" s="38"/>
+      <c r="L101" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M101" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N101" s="38" t="s">
         <v>660</v>
       </c>
-      <c r="O101" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P101" s="39" t="s">
+      <c r="O101" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P101" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q101" s="39"/>
-      <c r="R101" s="40"/>
-      <c r="S101" s="44" t="s">
+      <c r="Q101" s="38"/>
+      <c r="R101" s="39"/>
+      <c r="S101" s="43" t="s">
         <v>657</v>
       </c>
-      <c r="T101" s="42" t="s">
+      <c r="T101" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="409.6" thickBot="1">
-      <c r="A102" s="34">
+      <c r="A102" s="33">
         <v>140</v>
       </c>
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D102" s="35" t="s">
+      <c r="D102" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="E102" s="36" t="s">
+      <c r="E102" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="F102" s="37">
+      <c r="F102" s="36">
         <v>45377</v>
       </c>
-      <c r="G102" s="38" t="s">
+      <c r="G102" s="37" t="s">
         <v>706</v>
       </c>
-      <c r="H102" s="38" t="s">
+      <c r="H102" s="37" t="s">
         <v>705</v>
       </c>
-      <c r="I102" s="38" t="s">
+      <c r="I102" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="J102" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K102" s="39"/>
-      <c r="L102" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M102" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N102" s="39" t="s">
+      <c r="J102" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K102" s="38"/>
+      <c r="L102" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M102" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N102" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="O102" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P102" s="39" t="s">
+      <c r="O102" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P102" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q102" s="39"/>
-      <c r="R102" s="40"/>
-      <c r="S102" s="44" t="s">
+      <c r="Q102" s="38"/>
+      <c r="R102" s="39"/>
+      <c r="S102" s="43" t="s">
         <v>704</v>
       </c>
-      <c r="T102" s="42" t="s">
+      <c r="T102" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="120.75" thickBot="1">
+    <row r="103" spans="1:20" ht="115.8" thickBot="1">
       <c r="A103" s="20">
         <v>141</v>
       </c>
@@ -11486,175 +11489,175 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A104" s="34">
+    <row r="104" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A104" s="33">
         <v>142</v>
       </c>
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D104" s="35" t="s">
+      <c r="D104" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="E104" s="36" t="s">
+      <c r="E104" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="F104" s="37">
+      <c r="F104" s="36">
         <v>45377</v>
       </c>
-      <c r="G104" s="38" t="s">
+      <c r="G104" s="37" t="s">
         <v>710</v>
       </c>
-      <c r="H104" s="38" t="s">
+      <c r="H104" s="37" t="s">
         <v>711</v>
       </c>
-      <c r="I104" s="38" t="s">
+      <c r="I104" s="37" t="s">
         <v>712</v>
       </c>
-      <c r="J104" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K104" s="39"/>
-      <c r="L104" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M104" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N104" s="39" t="s">
+      <c r="J104" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K104" s="38"/>
+      <c r="L104" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M104" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N104" s="38" t="s">
         <v>713</v>
       </c>
-      <c r="O104" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P104" s="39" t="s">
+      <c r="O104" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P104" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q104" s="39"/>
-      <c r="R104" s="40"/>
-      <c r="S104" s="44" t="s">
+      <c r="Q104" s="38"/>
+      <c r="R104" s="39"/>
+      <c r="S104" s="43" t="s">
         <v>709</v>
       </c>
-      <c r="T104" s="42" t="s">
+      <c r="T104" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A105" s="34">
+    <row r="105" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A105" s="33">
         <v>143</v>
       </c>
-      <c r="B105" s="35" t="s">
+      <c r="B105" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D105" s="35" t="s">
+      <c r="D105" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="E105" s="36" t="s">
+      <c r="E105" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="F105" s="37">
+      <c r="F105" s="36">
         <v>45377</v>
       </c>
-      <c r="G105" s="38" t="s">
+      <c r="G105" s="37" t="s">
         <v>715</v>
       </c>
-      <c r="H105" s="38" t="s">
+      <c r="H105" s="37" t="s">
         <v>716</v>
       </c>
-      <c r="I105" s="38" t="s">
+      <c r="I105" s="37" t="s">
         <v>717</v>
       </c>
-      <c r="J105" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K105" s="39"/>
-      <c r="L105" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M105" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N105" s="39" t="s">
+      <c r="J105" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K105" s="38"/>
+      <c r="L105" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M105" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N105" s="38" t="s">
         <v>718</v>
       </c>
-      <c r="O105" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P105" s="39" t="s">
+      <c r="O105" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P105" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q105" s="39"/>
-      <c r="R105" s="40"/>
-      <c r="S105" s="44" t="s">
+      <c r="Q105" s="38"/>
+      <c r="R105" s="39"/>
+      <c r="S105" s="43" t="s">
         <v>714</v>
       </c>
-      <c r="T105" s="42" t="s">
+      <c r="T105" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A106" s="34">
+    <row r="106" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A106" s="33">
         <v>144</v>
       </c>
-      <c r="B106" s="35" t="s">
+      <c r="B106" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C106" s="35" t="s">
+      <c r="C106" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D106" s="35" t="s">
+      <c r="D106" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E106" s="36" t="s">
+      <c r="E106" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="F106" s="37">
+      <c r="F106" s="36">
         <v>45377</v>
       </c>
-      <c r="G106" s="38" t="s">
+      <c r="G106" s="37" t="s">
         <v>720</v>
       </c>
-      <c r="H106" s="38" t="s">
+      <c r="H106" s="37" t="s">
         <v>721</v>
       </c>
-      <c r="I106" s="38" t="s">
+      <c r="I106" s="37" t="s">
         <v>722</v>
       </c>
-      <c r="J106" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K106" s="39"/>
-      <c r="L106" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M106" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N106" s="39" t="s">
+      <c r="J106" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K106" s="38"/>
+      <c r="L106" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M106" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N106" s="38" t="s">
         <v>723</v>
       </c>
-      <c r="O106" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P106" s="39" t="s">
+      <c r="O106" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P106" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q106" s="39"/>
-      <c r="R106" s="40"/>
-      <c r="S106" s="44" t="s">
+      <c r="Q106" s="38"/>
+      <c r="R106" s="39"/>
+      <c r="S106" s="43" t="s">
         <v>719</v>
       </c>
-      <c r="T106" s="42" t="s">
+      <c r="T106" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="120.75" thickBot="1">
+    <row r="107" spans="1:20" ht="115.8" thickBot="1">
       <c r="A107" s="20">
         <v>145</v>
       </c>
@@ -11692,7 +11695,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="120.75" thickBot="1">
+    <row r="108" spans="1:20" ht="115.8" thickBot="1">
       <c r="A108" s="20">
         <v>146</v>
       </c>
@@ -11730,53 +11733,53 @@
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="165.75" thickBot="1">
-      <c r="A109" s="34">
+    <row r="109" spans="1:20" ht="159" thickBot="1">
+      <c r="A109" s="33">
         <v>147</v>
       </c>
-      <c r="B109" s="35" t="s">
+      <c r="B109" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D109" s="35" t="s">
+      <c r="D109" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="E109" s="36" t="s">
+      <c r="E109" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="F109" s="37">
+      <c r="F109" s="36">
         <v>45376</v>
       </c>
-      <c r="G109" s="38" t="s">
+      <c r="G109" s="37" t="s">
         <v>688</v>
       </c>
-      <c r="H109" s="38" t="s">
+      <c r="H109" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="I109" s="38" t="s">
+      <c r="I109" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="J109" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K109" s="39"/>
-      <c r="L109" s="39"/>
-      <c r="M109" s="39"/>
-      <c r="N109" s="39"/>
-      <c r="O109" s="39"/>
-      <c r="P109" s="39"/>
-      <c r="Q109" s="39"/>
-      <c r="R109" s="40"/>
-      <c r="S109" s="44" t="s">
+      <c r="J109" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K109" s="38"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="38"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
+      <c r="Q109" s="38"/>
+      <c r="R109" s="39"/>
+      <c r="S109" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="T109" s="42" t="s">
+      <c r="T109" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="165.75" thickBot="1">
+    <row r="110" spans="1:20" ht="159" thickBot="1">
       <c r="A110" s="20">
         <v>148</v>
       </c>
@@ -11814,7 +11817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="165.75" thickBot="1">
+    <row r="111" spans="1:20" ht="159" thickBot="1">
       <c r="A111" s="20">
         <v>149</v>
       </c>
@@ -11852,7 +11855,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="165.75" thickBot="1">
+    <row r="112" spans="1:20" ht="159" thickBot="1">
       <c r="A112" s="20">
         <v>150</v>
       </c>
@@ -11890,343 +11893,343 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A113" s="34">
+    <row r="113" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A113" s="33">
         <v>151</v>
       </c>
-      <c r="B113" s="35" t="s">
+      <c r="B113" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D113" s="35" t="s">
+      <c r="D113" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="E113" s="36" t="s">
+      <c r="E113" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="F113" s="37">
+      <c r="F113" s="36">
         <v>45376</v>
       </c>
-      <c r="G113" s="38" t="s">
+      <c r="G113" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="H113" s="38" t="s">
+      <c r="H113" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="I113" s="38" t="s">
+      <c r="I113" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="J113" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K113" s="39"/>
-      <c r="L113" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M113" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N113" s="39" t="s">
+      <c r="J113" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K113" s="38"/>
+      <c r="L113" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M113" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N113" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="O113" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P113" s="39" t="s">
+      <c r="O113" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P113" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q113" s="39"/>
-      <c r="R113" s="40"/>
-      <c r="S113" s="44" t="s">
+      <c r="Q113" s="38"/>
+      <c r="R113" s="39"/>
+      <c r="S113" s="43" t="s">
         <v>578</v>
       </c>
-      <c r="T113" s="42" t="s">
+      <c r="T113" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A114" s="34">
+    <row r="114" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A114" s="33">
         <v>152</v>
       </c>
-      <c r="B114" s="35" t="s">
+      <c r="B114" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C114" s="35" t="s">
+      <c r="C114" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D114" s="35" t="s">
+      <c r="D114" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="E114" s="36" t="s">
+      <c r="E114" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="F114" s="37">
+      <c r="F114" s="36">
         <v>45376</v>
       </c>
-      <c r="G114" s="38" t="s">
+      <c r="G114" s="37" t="s">
         <v>690</v>
       </c>
-      <c r="H114" s="38" t="s">
+      <c r="H114" s="37" t="s">
         <v>580</v>
       </c>
-      <c r="I114" s="38" t="s">
+      <c r="I114" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="J114" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K114" s="39"/>
-      <c r="L114" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M114" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N114" s="39" t="s">
+      <c r="J114" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K114" s="38"/>
+      <c r="L114" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M114" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N114" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="O114" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P114" s="39" t="s">
+      <c r="O114" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P114" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q114" s="39"/>
-      <c r="R114" s="40"/>
-      <c r="S114" s="44" t="s">
+      <c r="Q114" s="38"/>
+      <c r="R114" s="39"/>
+      <c r="S114" s="43" t="s">
         <v>579</v>
       </c>
-      <c r="T114" s="42" t="s">
+      <c r="T114" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="330.75" thickBot="1">
-      <c r="A115" s="34">
+    <row r="115" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A115" s="33">
         <v>153</v>
       </c>
-      <c r="B115" s="35" t="s">
+      <c r="B115" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C115" s="35" t="s">
+      <c r="C115" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D115" s="35" t="s">
+      <c r="D115" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="E115" s="36" t="s">
+      <c r="E115" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="F115" s="37">
+      <c r="F115" s="36">
         <v>45376</v>
       </c>
-      <c r="G115" s="38" t="s">
+      <c r="G115" s="37" t="s">
         <v>691</v>
       </c>
-      <c r="H115" s="38" t="s">
+      <c r="H115" s="37" t="s">
         <v>583</v>
       </c>
-      <c r="I115" s="38" t="s">
+      <c r="I115" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="J115" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K115" s="39"/>
-      <c r="L115" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M115" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N115" s="39" t="s">
+      <c r="J115" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K115" s="38"/>
+      <c r="L115" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M115" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N115" s="38" t="s">
         <v>585</v>
       </c>
-      <c r="O115" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P115" s="39" t="s">
+      <c r="O115" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P115" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q115" s="39"/>
-      <c r="R115" s="40"/>
-      <c r="S115" s="44" t="s">
+      <c r="Q115" s="38"/>
+      <c r="R115" s="39"/>
+      <c r="S115" s="43" t="s">
         <v>582</v>
       </c>
-      <c r="T115" s="42" t="s">
+      <c r="T115" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A116" s="34">
+    <row r="116" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A116" s="33">
         <v>154</v>
       </c>
-      <c r="B116" s="35" t="s">
+      <c r="B116" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C116" s="35" t="s">
+      <c r="C116" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D116" s="35" t="s">
+      <c r="D116" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="E116" s="36" t="s">
+      <c r="E116" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="F116" s="37">
+      <c r="F116" s="36">
         <v>45376</v>
       </c>
-      <c r="G116" s="38" t="s">
+      <c r="G116" s="37" t="s">
         <v>692</v>
       </c>
-      <c r="H116" s="38" t="s">
+      <c r="H116" s="37" t="s">
         <v>587</v>
       </c>
-      <c r="I116" s="38" t="s">
+      <c r="I116" s="37" t="s">
         <v>588</v>
       </c>
-      <c r="J116" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K116" s="39"/>
-      <c r="L116" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M116" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N116" s="39" t="s">
+      <c r="J116" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K116" s="38"/>
+      <c r="L116" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M116" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N116" s="38" t="s">
         <v>589</v>
       </c>
-      <c r="O116" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P116" s="39" t="s">
+      <c r="O116" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P116" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q116" s="39"/>
-      <c r="R116" s="40"/>
-      <c r="S116" s="44" t="s">
+      <c r="Q116" s="38"/>
+      <c r="R116" s="39"/>
+      <c r="S116" s="43" t="s">
         <v>586</v>
       </c>
-      <c r="T116" s="42" t="s">
+      <c r="T116" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A117" s="34">
+    <row r="117" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A117" s="33">
         <v>155</v>
       </c>
-      <c r="B117" s="35" t="s">
+      <c r="B117" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="35" t="s">
+      <c r="C117" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D117" s="35" t="s">
+      <c r="D117" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="E117" s="36" t="s">
+      <c r="E117" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="F117" s="37">
+      <c r="F117" s="36">
         <v>45376</v>
       </c>
-      <c r="G117" s="38" t="s">
+      <c r="G117" s="37" t="s">
         <v>693</v>
       </c>
-      <c r="H117" s="38" t="s">
+      <c r="H117" s="37" t="s">
         <v>591</v>
       </c>
-      <c r="I117" s="38" t="s">
+      <c r="I117" s="37" t="s">
         <v>592</v>
       </c>
-      <c r="J117" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K117" s="39"/>
-      <c r="L117" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M117" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N117" s="39" t="s">
+      <c r="J117" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K117" s="38"/>
+      <c r="L117" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M117" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N117" s="38" t="s">
         <v>593</v>
       </c>
-      <c r="O117" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P117" s="39" t="s">
+      <c r="O117" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P117" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q117" s="39"/>
-      <c r="R117" s="40"/>
-      <c r="S117" s="44" t="s">
+      <c r="Q117" s="38"/>
+      <c r="R117" s="39"/>
+      <c r="S117" s="43" t="s">
         <v>590</v>
       </c>
-      <c r="T117" s="42" t="s">
+      <c r="T117" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A118" s="34">
+    <row r="118" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A118" s="33">
         <v>156</v>
       </c>
-      <c r="B118" s="35" t="s">
+      <c r="B118" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C118" s="35" t="s">
+      <c r="C118" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D118" s="35" t="s">
+      <c r="D118" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="E118" s="36" t="s">
+      <c r="E118" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="F118" s="37">
+      <c r="F118" s="36">
         <v>45376</v>
       </c>
-      <c r="G118" s="38" t="s">
+      <c r="G118" s="37" t="s">
         <v>694</v>
       </c>
-      <c r="H118" s="38" t="s">
+      <c r="H118" s="37" t="s">
         <v>595</v>
       </c>
-      <c r="I118" s="38" t="s">
+      <c r="I118" s="37" t="s">
         <v>596</v>
       </c>
-      <c r="J118" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K118" s="39"/>
-      <c r="L118" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M118" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N118" s="39" t="s">
+      <c r="J118" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K118" s="38"/>
+      <c r="L118" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M118" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N118" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="O118" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P118" s="39" t="s">
+      <c r="O118" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P118" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q118" s="39"/>
-      <c r="R118" s="40"/>
-      <c r="S118" s="44" t="s">
+      <c r="Q118" s="38"/>
+      <c r="R118" s="39"/>
+      <c r="S118" s="43" t="s">
         <v>594</v>
       </c>
-      <c r="T118" s="42" t="s">
+      <c r="T118" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="135.75" thickBot="1">
+    <row r="119" spans="1:20" ht="115.8" thickBot="1">
       <c r="A119" s="20">
         <v>157</v>
       </c>
@@ -12264,231 +12267,231 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A120" s="34">
+    <row r="120" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A120" s="33">
         <v>158</v>
       </c>
-      <c r="B120" s="35" t="s">
+      <c r="B120" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C120" s="35" t="s">
+      <c r="C120" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D120" s="35" t="s">
+      <c r="D120" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="E120" s="36" t="s">
+      <c r="E120" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="F120" s="37">
+      <c r="F120" s="36">
         <v>45376</v>
       </c>
-      <c r="G120" s="38" t="s">
+      <c r="G120" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="H120" s="38" t="s">
+      <c r="H120" s="37" t="s">
         <v>598</v>
       </c>
-      <c r="I120" s="38" t="s">
+      <c r="I120" s="37" t="s">
         <v>599</v>
       </c>
-      <c r="J120" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K120" s="39"/>
-      <c r="L120" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M120" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N120" s="39" t="s">
+      <c r="J120" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K120" s="38"/>
+      <c r="L120" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M120" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N120" s="38" t="s">
         <v>600</v>
       </c>
-      <c r="O120" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P120" s="39" t="s">
+      <c r="O120" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P120" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q120" s="39"/>
-      <c r="R120" s="40"/>
-      <c r="S120" s="44" t="s">
+      <c r="Q120" s="38"/>
+      <c r="R120" s="39"/>
+      <c r="S120" s="43" t="s">
         <v>597</v>
       </c>
-      <c r="T120" s="42" t="s">
+      <c r="T120" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="345.75" thickBot="1">
-      <c r="A121" s="34">
+    <row r="121" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A121" s="33">
         <v>159</v>
       </c>
-      <c r="B121" s="35" t="s">
+      <c r="B121" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C121" s="35" t="s">
+      <c r="C121" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D121" s="35" t="s">
+      <c r="D121" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="E121" s="36" t="s">
+      <c r="E121" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="F121" s="37">
+      <c r="F121" s="36">
         <v>45376</v>
       </c>
-      <c r="G121" s="38" t="s">
+      <c r="G121" s="37" t="s">
         <v>696</v>
       </c>
-      <c r="H121" s="38" t="s">
+      <c r="H121" s="37" t="s">
         <v>602</v>
       </c>
-      <c r="I121" s="38" t="s">
+      <c r="I121" s="37" t="s">
         <v>603</v>
       </c>
-      <c r="J121" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K121" s="39"/>
-      <c r="L121" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M121" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N121" s="39" t="s">
+      <c r="J121" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K121" s="38"/>
+      <c r="L121" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M121" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N121" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="O121" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P121" s="39" t="s">
+      <c r="O121" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P121" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q121" s="39"/>
-      <c r="R121" s="40"/>
-      <c r="S121" s="44" t="s">
+      <c r="Q121" s="38"/>
+      <c r="R121" s="39"/>
+      <c r="S121" s="43" t="s">
         <v>601</v>
       </c>
-      <c r="T121" s="42" t="s">
+      <c r="T121" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="345.75" thickBot="1">
-      <c r="A122" s="34">
+    <row r="122" spans="1:20" ht="331.8" thickBot="1">
+      <c r="A122" s="33">
         <v>160</v>
       </c>
-      <c r="B122" s="35" t="s">
+      <c r="B122" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C122" s="35" t="s">
+      <c r="C122" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D122" s="35" t="s">
+      <c r="D122" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="E122" s="36" t="s">
+      <c r="E122" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="F122" s="37">
+      <c r="F122" s="36">
         <v>45376</v>
       </c>
-      <c r="G122" s="38" t="s">
+      <c r="G122" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="H122" s="38" t="s">
+      <c r="H122" s="37" t="s">
         <v>605</v>
       </c>
-      <c r="I122" s="38" t="s">
+      <c r="I122" s="37" t="s">
         <v>606</v>
       </c>
-      <c r="J122" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K122" s="39"/>
-      <c r="L122" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M122" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N122" s="39" t="s">
+      <c r="J122" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K122" s="38"/>
+      <c r="L122" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M122" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N122" s="38" t="s">
         <v>607</v>
       </c>
-      <c r="O122" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P122" s="39" t="s">
+      <c r="O122" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P122" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q122" s="39"/>
-      <c r="R122" s="40"/>
-      <c r="S122" s="44" t="s">
+      <c r="Q122" s="38"/>
+      <c r="R122" s="39"/>
+      <c r="S122" s="43" t="s">
         <v>604</v>
       </c>
-      <c r="T122" s="42" t="s">
+      <c r="T122" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="330.75" thickBot="1">
-      <c r="A123" s="34">
+    <row r="123" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A123" s="33">
         <v>161</v>
       </c>
-      <c r="B123" s="35" t="s">
+      <c r="B123" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C123" s="35" t="s">
+      <c r="C123" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D123" s="35" t="s">
+      <c r="D123" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="E123" s="36" t="s">
+      <c r="E123" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="F123" s="37">
+      <c r="F123" s="36">
         <v>45376</v>
       </c>
-      <c r="G123" s="38" t="s">
+      <c r="G123" s="37" t="s">
         <v>698</v>
       </c>
-      <c r="H123" s="38" t="s">
+      <c r="H123" s="37" t="s">
         <v>609</v>
       </c>
-      <c r="I123" s="38" t="s">
+      <c r="I123" s="37" t="s">
         <v>610</v>
       </c>
-      <c r="J123" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K123" s="39"/>
-      <c r="L123" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M123" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N123" s="39" t="s">
+      <c r="J123" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K123" s="38"/>
+      <c r="L123" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M123" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N123" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="O123" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P123" s="39" t="s">
+      <c r="O123" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P123" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q123" s="39"/>
-      <c r="R123" s="40"/>
-      <c r="S123" s="44" t="s">
+      <c r="Q123" s="38"/>
+      <c r="R123" s="39"/>
+      <c r="S123" s="43" t="s">
         <v>608</v>
       </c>
-      <c r="T123" s="42" t="s">
+      <c r="T123" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="135.75" thickBot="1">
+    <row r="124" spans="1:20" ht="115.8" thickBot="1">
       <c r="A124" s="20">
         <v>162</v>
       </c>
@@ -12526,7 +12529,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="135.75" thickBot="1">
+    <row r="125" spans="1:20" ht="115.8" thickBot="1">
       <c r="A125" s="20">
         <v>163</v>
       </c>
@@ -12564,7 +12567,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="135.75" thickBot="1">
+    <row r="126" spans="1:20" ht="115.8" thickBot="1">
       <c r="A126" s="20">
         <v>164</v>
       </c>
@@ -12602,7 +12605,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="135.75" thickBot="1">
+    <row r="127" spans="1:20" ht="115.8" thickBot="1">
       <c r="A127" s="20">
         <v>165</v>
       </c>
@@ -12640,7 +12643,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="135.75" thickBot="1">
+    <row r="128" spans="1:20" ht="115.8" thickBot="1">
       <c r="A128" s="20">
         <v>166</v>
       </c>
@@ -12678,7 +12681,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="135.75" thickBot="1">
+    <row r="129" spans="1:20" ht="115.8" thickBot="1">
       <c r="A129" s="20">
         <v>167</v>
       </c>
@@ -12716,7 +12719,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="135.75" thickBot="1">
+    <row r="130" spans="1:20" ht="115.8" thickBot="1">
       <c r="A130" s="20">
         <v>168</v>
       </c>
@@ -12754,63 +12757,63 @@
         <v>88</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A131" s="34">
+    <row r="131" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A131" s="33">
         <v>169</v>
       </c>
-      <c r="B131" s="35" t="s">
+      <c r="B131" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D131" s="35" t="s">
+      <c r="D131" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="E131" s="36" t="s">
+      <c r="E131" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="F131" s="37">
+      <c r="F131" s="36">
         <v>45376</v>
       </c>
-      <c r="G131" s="38" t="s">
+      <c r="G131" s="37" t="s">
         <v>699</v>
       </c>
-      <c r="H131" s="38" t="s">
+      <c r="H131" s="37" t="s">
         <v>612</v>
       </c>
-      <c r="I131" s="38" t="s">
+      <c r="I131" s="37" t="s">
         <v>613</v>
       </c>
-      <c r="J131" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K131" s="39"/>
-      <c r="L131" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M131" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N131" s="39" t="s">
+      <c r="J131" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K131" s="38"/>
+      <c r="L131" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M131" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N131" s="38" t="s">
         <v>614</v>
       </c>
-      <c r="O131" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P131" s="39" t="s">
+      <c r="O131" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P131" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q131" s="39"/>
-      <c r="R131" s="40"/>
-      <c r="S131" s="44" t="s">
+      <c r="Q131" s="38"/>
+      <c r="R131" s="39"/>
+      <c r="S131" s="43" t="s">
         <v>611</v>
       </c>
-      <c r="T131" s="42" t="s">
+      <c r="T131" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="150.75" thickBot="1">
+    <row r="132" spans="1:20" ht="144.6" thickBot="1">
       <c r="A132" s="20">
         <v>191</v>
       </c>
@@ -12830,7 +12833,7 @@
       <c r="G132" s="24"/>
       <c r="H132" s="24"/>
       <c r="I132" s="24"/>
-      <c r="J132" s="46" t="s">
+      <c r="J132" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K132" s="25" t="s">
@@ -12848,237 +12851,237 @@
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="165.75" thickBot="1">
-      <c r="A133" s="34">
+    <row r="133" spans="1:20" ht="144.6" thickBot="1">
+      <c r="A133" s="33">
         <v>368</v>
       </c>
-      <c r="B133" s="35" t="s">
+      <c r="B133" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C133" s="35" t="s">
+      <c r="C133" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D133" s="35" t="s">
+      <c r="D133" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="E133" s="36" t="s">
+      <c r="E133" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="F133" s="38">
+      <c r="F133" s="37">
         <v>45374</v>
       </c>
-      <c r="G133" s="50" t="s">
+      <c r="G133" s="49" t="s">
         <v>509</v>
       </c>
-      <c r="H133" s="48" t="s">
+      <c r="H133" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="I133" s="38" t="s">
+      <c r="I133" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="J133" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K133" s="39"/>
-      <c r="L133" s="39"/>
-      <c r="M133" s="39"/>
-      <c r="N133" s="39"/>
-      <c r="O133" s="39"/>
-      <c r="P133" s="39"/>
-      <c r="Q133" s="39"/>
-      <c r="R133" s="40"/>
-      <c r="S133" s="41" t="s">
+      <c r="J133" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K133" s="38"/>
+      <c r="L133" s="38"/>
+      <c r="M133" s="38"/>
+      <c r="N133" s="38"/>
+      <c r="O133" s="38"/>
+      <c r="P133" s="38"/>
+      <c r="Q133" s="38"/>
+      <c r="R133" s="39"/>
+      <c r="S133" s="40" t="s">
         <v>475</v>
       </c>
-      <c r="T133" s="42" t="s">
+      <c r="T133" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="225.75" thickBot="1">
-      <c r="A134" s="34">
+    <row r="134" spans="1:20" ht="202.2" thickBot="1">
+      <c r="A134" s="33">
         <v>369</v>
       </c>
-      <c r="B134" s="35" t="s">
+      <c r="B134" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C134" s="35" t="s">
+      <c r="C134" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D134" s="35" t="s">
+      <c r="D134" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="E134" s="36" t="s">
+      <c r="E134" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="F134" s="38">
+      <c r="F134" s="37">
         <v>45376</v>
       </c>
-      <c r="G134" s="60" t="s">
+      <c r="G134" s="59" t="s">
         <v>700</v>
       </c>
-      <c r="H134" s="48" t="s">
+      <c r="H134" s="47" t="s">
         <v>525</v>
       </c>
-      <c r="I134" s="38" t="s">
+      <c r="I134" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="J134" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K134" s="39"/>
-      <c r="L134" s="39"/>
-      <c r="M134" s="39"/>
-      <c r="N134" s="39"/>
-      <c r="O134" s="39"/>
-      <c r="P134" s="39"/>
-      <c r="Q134" s="39"/>
-      <c r="R134" s="40"/>
-      <c r="S134" s="44" t="s">
+      <c r="J134" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K134" s="38"/>
+      <c r="L134" s="38"/>
+      <c r="M134" s="38"/>
+      <c r="N134" s="38"/>
+      <c r="O134" s="38"/>
+      <c r="P134" s="38"/>
+      <c r="Q134" s="38"/>
+      <c r="R134" s="39"/>
+      <c r="S134" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="T134" s="42" t="s">
+      <c r="T134" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="195.75" thickBot="1">
-      <c r="A135" s="34">
+    <row r="135" spans="1:20" ht="187.8" thickBot="1">
+      <c r="A135" s="33">
         <v>370</v>
       </c>
-      <c r="B135" s="35" t="s">
+      <c r="B135" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C135" s="35" t="s">
+      <c r="C135" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D135" s="35" t="s">
+      <c r="D135" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="E135" s="36" t="s">
+      <c r="E135" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="F135" s="38">
+      <c r="F135" s="37">
         <v>45374</v>
       </c>
-      <c r="G135" s="50" t="s">
+      <c r="G135" s="49" t="s">
         <v>493</v>
       </c>
-      <c r="H135" s="48" t="s">
+      <c r="H135" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="I135" s="38" t="s">
+      <c r="I135" s="37" t="s">
         <v>471</v>
       </c>
-      <c r="J135" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K135" s="39"/>
-      <c r="L135" s="39"/>
-      <c r="M135" s="39"/>
-      <c r="N135" s="39"/>
-      <c r="O135" s="39"/>
-      <c r="P135" s="39"/>
-      <c r="Q135" s="39"/>
-      <c r="R135" s="40"/>
-      <c r="S135" s="41" t="s">
+      <c r="J135" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K135" s="38"/>
+      <c r="L135" s="38"/>
+      <c r="M135" s="38"/>
+      <c r="N135" s="38"/>
+      <c r="O135" s="38"/>
+      <c r="P135" s="38"/>
+      <c r="Q135" s="38"/>
+      <c r="R135" s="39"/>
+      <c r="S135" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="T135" s="42" t="s">
+      <c r="T135" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="150.75" thickBot="1">
-      <c r="A136" s="34">
+    <row r="136" spans="1:20" ht="144.6" thickBot="1">
+      <c r="A136" s="33">
         <v>373</v>
       </c>
-      <c r="B136" s="35" t="s">
+      <c r="B136" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C136" s="35" t="s">
+      <c r="C136" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D136" s="35" t="s">
+      <c r="D136" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="E136" s="36" t="s">
+      <c r="E136" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="F136" s="37">
+      <c r="F136" s="36">
         <v>45376</v>
       </c>
-      <c r="G136" s="38" t="s">
+      <c r="G136" s="37" t="s">
         <v>701</v>
       </c>
-      <c r="H136" s="38" t="s">
+      <c r="H136" s="37" t="s">
         <v>564</v>
       </c>
-      <c r="I136" s="38" t="s">
+      <c r="I136" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="J136" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K136" s="39"/>
-      <c r="L136" s="39"/>
-      <c r="M136" s="39"/>
-      <c r="N136" s="39"/>
-      <c r="O136" s="39"/>
-      <c r="P136" s="39"/>
-      <c r="Q136" s="39"/>
-      <c r="R136" s="40"/>
-      <c r="S136" s="44" t="s">
+      <c r="J136" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K136" s="38"/>
+      <c r="L136" s="38"/>
+      <c r="M136" s="38"/>
+      <c r="N136" s="38"/>
+      <c r="O136" s="38"/>
+      <c r="P136" s="38"/>
+      <c r="Q136" s="38"/>
+      <c r="R136" s="39"/>
+      <c r="S136" s="43" t="s">
         <v>566</v>
       </c>
-      <c r="T136" s="42" t="s">
+      <c r="T136" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="165.75" thickBot="1">
-      <c r="A137" s="34">
+    <row r="137" spans="1:20" ht="159" thickBot="1">
+      <c r="A137" s="33">
         <v>374</v>
       </c>
-      <c r="B137" s="35" t="s">
+      <c r="B137" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="35" t="s">
+      <c r="C137" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D137" s="35" t="s">
+      <c r="D137" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="E137" s="36" t="s">
+      <c r="E137" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="F137" s="37">
+      <c r="F137" s="36">
         <v>45376</v>
       </c>
-      <c r="G137" s="38" t="s">
+      <c r="G137" s="37" t="s">
         <v>702</v>
       </c>
-      <c r="H137" s="38" t="s">
+      <c r="H137" s="37" t="s">
         <v>570</v>
       </c>
-      <c r="I137" s="38" t="s">
+      <c r="I137" s="37" t="s">
         <v>571</v>
       </c>
-      <c r="J137" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K137" s="39"/>
-      <c r="L137" s="39"/>
-      <c r="M137" s="39"/>
-      <c r="N137" s="39"/>
-      <c r="O137" s="39"/>
-      <c r="P137" s="39"/>
-      <c r="Q137" s="39"/>
-      <c r="R137" s="40"/>
-      <c r="S137" s="44" t="s">
+      <c r="J137" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K137" s="38"/>
+      <c r="L137" s="38"/>
+      <c r="M137" s="38"/>
+      <c r="N137" s="38"/>
+      <c r="O137" s="38"/>
+      <c r="P137" s="38"/>
+      <c r="Q137" s="38"/>
+      <c r="R137" s="39"/>
+      <c r="S137" s="43" t="s">
         <v>572</v>
       </c>
-      <c r="T137" s="42" t="s">
+      <c r="T137" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="165">
+    <row r="138" spans="1:20" ht="144">
       <c r="A138" s="20">
         <v>376</v>
       </c>
@@ -17811,13 +17814,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="4" width="102" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
@@ -17904,7 +17907,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="14.4">
       <c r="A7" s="11" t="s">
         <v>77</v>
       </c>
@@ -17918,7 +17921,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="14.4">
       <c r="A8" s="11" t="s">
         <v>94</v>
       </c>
@@ -17932,7 +17935,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="14.4">
       <c r="A9" s="11" t="s">
         <v>91</v>
       </c>
@@ -17946,7 +17949,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45">
+    <row r="10" spans="1:4" ht="43.2">
       <c r="A10" s="11" t="s">
         <v>329</v>
       </c>
@@ -19482,34 +19485,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="4" t="s">
         <v>363</v>
       </c>
     </row>

--- a/GATEWAY/A1#111GARASOFTWAREXX/Gara_Software/AnaSanPlus/V1/report-checklist.xlsx
+++ b/GATEWAY/A1#111GARASOFTWAREXX/Gara_Software/AnaSanPlus/V1/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\AnaSan\FSE\FSE 2\Accreditamento\V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Massimo\Desktop\Lavoro\FSE\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EF69BF-CA02-4347-BD49-3E7906153DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C948627-2F3D-4EB9-8A82-DC67C38CED43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="724">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2638,20 +2638,6 @@
 }</t>
   </si>
   <si>
-    <t>c5ecc6c5104ec54b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.a565d1ace74eb76a1589d3d00e4ee8f945009dfe3fecca23f334022d0ae0840c.cd6a4f7586^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>{
-    "traceID": "c5ecc6c5104ec54b",
-    "spanID": "c5ecc6c5104ec54b",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.a565d1ace74eb76a1589d3d00e4ee8f945009dfe3fecca23f334022d0ae0840c.cd6a4f7586^^^^urn:ihe:iti:xdw:2013:workflowInstanceId",
-    "warning": "[W003|  Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione PUO' contenere l'elemento 'entry' ]"
-}</t>
-  </si>
-  <si>
     <t>8470e37ee9c784dd</t>
   </si>
   <si>
@@ -2845,19 +2831,6 @@
 }</t>
   </si>
   <si>
-    <t>d24276400c896ec4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.a565d1ace74eb76a1589d3d00e4ee8f945009dfe3fecca23f334022d0ae0840c.826fbbc1ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>{
-    "traceID": "d24276400c896ec4",
-    "spanID": "d24276400c896ec4",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.a565d1ace74eb76a1589d3d00e4ee8f945009dfe3fecca23f334022d0ae0840c.826fbbc1ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
-}</t>
-  </si>
-  <si>
     <t>3faddb5ae47a279b</t>
   </si>
   <si>
@@ -3355,12 +3328,6 @@
     <t>Errore semantico. [ERRORE-b28| Sezione Dimissione: l'entry/act/performer/assignedEntity/assignedPerson/name DEVE contenere gli elementi 'family' e 'given']</t>
   </si>
   <si>
-    <t>2024-0-25T14:40:37Z</t>
-  </si>
-  <si>
-    <t>2024-03-25T16:44:33Z</t>
-  </si>
-  <si>
     <t>2024-03-23T20:31:53Z</t>
   </si>
   <si>
@@ -3578,6 +3545,38 @@
   </si>
   <si>
     <t>Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 0]</t>
+  </si>
+  <si>
+    <t>{
+    "traceID": "690d9cc72f088b7f",
+    "spanID": "690d9cc72f088b7f",
+    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.a565d1ace74eb76a1589d3d00e4ee8f945009dfe3fecca23f334022d0ae0840c.e861092092^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
+}</t>
+  </si>
+  <si>
+    <t>2024-03-28T13:24:27Z</t>
+  </si>
+  <si>
+    <t>690d9cc72f088b7f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.a565d1ace74eb76a1589d3d00e4ee8f945009dfe3fecca23f334022d0ae0840c.e861092092^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>{
+    "traceID": "f7616140e6e63261",
+    "spanID": "f7616140e6e63261",
+    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.a565d1ace74eb76a1589d3d00e4ee8f945009dfe3fecca23f334022d0ae0840c.3542f05a2c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
+}</t>
+  </si>
+  <si>
+    <t>2024-03-28T13:30:57Z</t>
+  </si>
+  <si>
+    <t>f7616140e6e63261</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.a565d1ace74eb76a1589d3d00e4ee8f945009dfe3fecca23f334022d0ae0840c.3542f05a2c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3955,8 +3954,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="73">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4045,6 +4044,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4129,7 +4129,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -4443,14 +4443,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="130.109375" customWidth="1"/>
-    <col min="2" max="26" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="130.140625" customWidth="1"/>
+    <col min="2" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
@@ -4468,7 +4466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="189.6" customHeight="1">
+    <row r="4" spans="1:1" ht="152.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -5513,11 +5511,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="194.109375" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="194.140625" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
@@ -5533,7 +5531,7 @@
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" ht="14.4">
+    <row r="4" spans="1:2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -5541,7 +5539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8">
+    <row r="5" spans="1:2" ht="30">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -5549,7 +5547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.4">
+    <row r="6" spans="1:2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -5557,7 +5555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="72">
+    <row r="7" spans="1:2" ht="75">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -5565,7 +5563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4">
+    <row r="8" spans="1:2">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -5573,7 +5571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.4">
+    <row r="9" spans="1:2">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -5581,7 +5579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.4">
+    <row r="10" spans="1:2">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -5589,7 +5587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="43.2">
+    <row r="11" spans="1:2" ht="45">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -6611,26 +6609,26 @@
   <dimension ref="A1:T755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P67" sqref="P67"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" customWidth="1"/>
-    <col min="5" max="5" width="104.88671875" customWidth="1"/>
-    <col min="6" max="9" width="33.109375" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" customWidth="1"/>
-    <col min="11" max="15" width="36.44140625" customWidth="1"/>
-    <col min="16" max="16" width="27.109375" customWidth="1"/>
-    <col min="17" max="17" width="33.109375" customWidth="1"/>
-    <col min="18" max="18" width="36.44140625" customWidth="1"/>
-    <col min="19" max="20" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="5" max="5" width="104.85546875" customWidth="1"/>
+    <col min="6" max="9" width="33.140625" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" customWidth="1"/>
+    <col min="11" max="15" width="36.42578125" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" customWidth="1"/>
+    <col min="17" max="17" width="33.140625" customWidth="1"/>
+    <col min="18" max="18" width="36.42578125" customWidth="1"/>
+    <col min="19" max="20" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
@@ -6652,12 +6650,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="64"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -6675,14 +6673,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="71" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -6700,12 +6698,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="71" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -6724,12 +6722,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71" t="s">
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="64"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -6747,8 +6745,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -6865,145 +6863,145 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="144.6" thickBot="1">
-      <c r="A10" s="33">
+    <row r="10" spans="1:20" ht="165.75" thickBot="1">
+      <c r="A10" s="34">
         <v>1</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="38">
         <v>45370</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="48" t="s">
         <v>424</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="38" t="s">
         <v>425</v>
       </c>
-      <c r="J10" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="40" t="s">
+      <c r="J10" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="T10" s="41" t="s">
+      <c r="T10" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="144.6" thickBot="1">
-      <c r="A11" s="33">
+    <row r="11" spans="1:20" ht="165.75" thickBot="1">
+      <c r="A11" s="34">
         <v>2</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="38">
         <v>45370</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="50" t="s">
         <v>495</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="48" t="s">
         <v>432</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="J11" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="40" t="s">
+      <c r="J11" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="T11" s="41" t="s">
+      <c r="T11" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="144.6" thickBot="1">
-      <c r="A12" s="33">
+    <row r="12" spans="1:20" ht="165.75" thickBot="1">
+      <c r="A12" s="34">
         <v>3</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="38">
         <v>45374</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="48" t="s">
         <v>476</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="38" t="s">
         <v>477</v>
       </c>
-      <c r="J12" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="40" t="s">
+      <c r="J12" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="T12" s="41" t="s">
+      <c r="T12" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="144.6" thickBot="1">
+    <row r="13" spans="1:20" ht="165.75" thickBot="1">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -7020,14 +7018,14 @@
         <v>54</v>
       </c>
       <c r="F13" s="23"/>
-      <c r="G13" s="50"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="25" t="s">
         <v>363</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -7041,7 +7039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="144.6" thickBot="1">
+    <row r="14" spans="1:20" ht="165.75" thickBot="1">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -7058,14 +7056,14 @@
         <v>56</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="48"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="25" t="s">
         <v>363</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -7079,53 +7077,53 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="202.2" thickBot="1">
-      <c r="A15" s="33">
+    <row r="15" spans="1:20" ht="150.75" thickBot="1">
+      <c r="A15" s="34">
         <v>6</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="37">
-        <v>45376</v>
-      </c>
-      <c r="G15" s="59" t="s">
-        <v>661</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>528</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>529</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="43" t="s">
-        <v>530</v>
-      </c>
-      <c r="T15" s="41" t="s">
+      <c r="F15" s="38">
+        <v>45379</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>717</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>718</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>719</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="44" t="s">
+        <v>716</v>
+      </c>
+      <c r="T15" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="130.19999999999999" thickBot="1">
+    <row r="16" spans="1:20" ht="150.75" thickBot="1">
       <c r="A16" s="20">
         <v>7</v>
       </c>
@@ -7142,14 +7140,14 @@
         <v>61</v>
       </c>
       <c r="F16" s="23"/>
-      <c r="G16" s="50"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="25" t="s">
         <v>363</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
@@ -7163,7 +7161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="130.19999999999999" thickBot="1">
+    <row r="17" spans="1:20" ht="150.75" thickBot="1">
       <c r="A17" s="20">
         <v>8</v>
       </c>
@@ -7187,7 +7185,7 @@
         <v>363</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -7201,7 +7199,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="130.19999999999999" thickBot="1">
+    <row r="18" spans="1:20" ht="150.75" thickBot="1">
       <c r="A18" s="20">
         <v>9</v>
       </c>
@@ -7218,14 +7216,14 @@
         <v>65</v>
       </c>
       <c r="F18" s="23"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="25" t="s">
         <v>363</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -7240,98 +7238,98 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="153.75" customHeight="1" thickBot="1">
-      <c r="A19" s="33">
+      <c r="A19" s="34">
         <v>11</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="38">
         <v>45367</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="50" t="s">
         <v>479</v>
       </c>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="48" t="s">
         <v>367</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="J19" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="40" t="s">
+      <c r="J19" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="T19" s="41" t="s">
+      <c r="T19" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="164.25" customHeight="1" thickBot="1">
-      <c r="A20" s="33">
+      <c r="A20" s="34">
         <v>12</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="37">
         <v>45369</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="47" t="s">
         <v>480</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="38" t="s">
         <v>413</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="38" t="s">
         <v>414</v>
       </c>
-      <c r="J20" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="40" t="s">
+      <c r="J20" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="T20" s="41" t="s">
+      <c r="T20" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="130.19999999999999" thickBot="1">
+    <row r="21" spans="1:20" ht="135.75" thickBot="1">
       <c r="A21" s="20">
         <v>13</v>
       </c>
@@ -7351,11 +7349,11 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="46" t="s">
         <v>363</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -7371,7 +7369,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="130.19999999999999" thickBot="1">
+    <row r="22" spans="1:20" ht="135.75" thickBot="1">
       <c r="A22" s="20">
         <v>14</v>
       </c>
@@ -7391,11 +7389,11 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="46" t="s">
         <v>363</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -7409,53 +7407,53 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="144.6" thickBot="1">
-      <c r="A23" s="33">
+    <row r="23" spans="1:20" ht="150.75" thickBot="1">
+      <c r="A23" s="34">
         <v>24</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>662</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>567</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>568</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="43" t="s">
-        <v>569</v>
-      </c>
-      <c r="T23" s="41" t="s">
+      <c r="F23" s="37">
+        <v>45379</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>721</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>722</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>723</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="44" t="s">
+        <v>720</v>
+      </c>
+      <c r="T23" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="130.19999999999999" thickBot="1">
+    <row r="24" spans="1:20" ht="150.75" thickBot="1">
       <c r="A24" s="20">
         <v>25</v>
       </c>
@@ -7479,7 +7477,7 @@
         <v>363</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -7493,7 +7491,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="130.19999999999999" thickBot="1">
+    <row r="25" spans="1:20" ht="150.75" thickBot="1">
       <c r="A25" s="20">
         <v>26</v>
       </c>
@@ -7517,7 +7515,7 @@
         <v>363</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -7531,7 +7529,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="130.19999999999999" thickBot="1">
+    <row r="26" spans="1:20" ht="150.75" thickBot="1">
       <c r="A26" s="20">
         <v>27</v>
       </c>
@@ -7548,14 +7546,14 @@
         <v>85</v>
       </c>
       <c r="F26" s="23"/>
-      <c r="G26" s="48"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="25" t="s">
         <v>363</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
@@ -7569,1357 +7567,1357 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="202.2" thickBot="1">
-      <c r="A27" s="33">
+    <row r="27" spans="1:20" ht="225.75" thickBot="1">
+      <c r="A27" s="34">
         <v>28</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="38">
         <v>45370</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="50" t="s">
         <v>497</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="48" t="s">
         <v>427</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="J27" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M27" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N27" s="42" t="s">
+      <c r="J27" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="39"/>
+      <c r="L27" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M27" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N27" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="O27" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P27" s="42" t="s">
+      <c r="O27" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="40" t="s">
+      <c r="Q27" s="39"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="T27" s="41" t="s">
+      <c r="T27" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="202.2" thickBot="1">
-      <c r="A28" s="33">
+    <row r="28" spans="1:20" ht="225.75" thickBot="1">
+      <c r="A28" s="34">
         <v>29</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="38">
         <v>45374</v>
       </c>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="50" t="s">
         <v>511</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="48" t="s">
         <v>510</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="I28" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="J28" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M28" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N28" s="42" t="s">
+      <c r="J28" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="39"/>
+      <c r="L28" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M28" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N28" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="O28" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P28" s="42" t="s">
+      <c r="O28" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="40" t="s">
+      <c r="Q28" s="39"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="T28" s="41" t="s">
+      <c r="T28" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="202.2" thickBot="1">
-      <c r="A29" s="33">
+    <row r="29" spans="1:20" ht="225.75" thickBot="1">
+      <c r="A29" s="34">
         <v>31</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="38">
         <v>45367</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="50" t="s">
         <v>481</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="J29" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M29" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N29" s="42" t="s">
+      <c r="J29" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="39"/>
+      <c r="L29" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M29" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N29" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="O29" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P29" s="42" t="s">
+      <c r="O29" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="40" t="s">
+      <c r="Q29" s="39"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="T29" s="41" t="s">
+      <c r="T29" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="202.2" thickBot="1">
-      <c r="A30" s="33">
+    <row r="30" spans="1:20" ht="225.75" thickBot="1">
+      <c r="A30" s="34">
         <v>32</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="38">
         <v>45374</v>
       </c>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="48" t="s">
         <v>516</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="I30" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="J30" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M30" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N30" s="38" t="s">
+      <c r="J30" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="39"/>
+      <c r="L30" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M30" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N30" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="O30" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P30" s="38" t="s">
+      <c r="O30" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P30" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="40" t="s">
+      <c r="Q30" s="39"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="T30" s="41" t="s">
+      <c r="T30" s="42" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="150.75" customHeight="1" thickBot="1">
-      <c r="A31" s="33">
+      <c r="A31" s="34">
         <v>35</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="38">
         <v>45374</v>
       </c>
-      <c r="G31" s="54" t="s">
-        <v>663</v>
-      </c>
-      <c r="H31" s="47" t="s">
+      <c r="G31" s="55" t="s">
+        <v>655</v>
+      </c>
+      <c r="H31" s="48" t="s">
         <v>521</v>
       </c>
-      <c r="I31" s="37" t="s">
+      <c r="I31" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="J31" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M31" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N31" s="38" t="s">
+      <c r="J31" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" s="39"/>
+      <c r="L31" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M31" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N31" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="O31" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P31" s="38" t="s">
+      <c r="O31" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P31" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="40" t="s">
+      <c r="Q31" s="39"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="T31" s="41" t="s">
+      <c r="T31" s="42" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="210.75" customHeight="1" thickBot="1">
-      <c r="A32" s="33">
+      <c r="A32" s="34">
         <v>36</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="38">
         <v>45370</v>
       </c>
-      <c r="G32" s="49" t="s">
+      <c r="G32" s="50" t="s">
         <v>498</v>
       </c>
-      <c r="H32" s="47" t="s">
+      <c r="H32" s="48" t="s">
         <v>429</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="I32" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="J32" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M32" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N32" s="42" t="s">
+      <c r="J32" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" s="39"/>
+      <c r="L32" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M32" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N32" s="43" t="s">
         <v>430</v>
       </c>
-      <c r="O32" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P32" s="38" t="s">
+      <c r="O32" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="40" t="s">
+      <c r="Q32" s="39"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="T32" s="41" t="s">
+      <c r="T32" s="42" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="165.75" customHeight="1" thickBot="1">
-      <c r="A33" s="33">
+      <c r="A33" s="34">
         <v>37</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="37">
         <v>45374</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="I33" s="37" t="s">
+      <c r="I33" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="J33" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K33" s="38"/>
-      <c r="L33" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M33" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N33" s="42" t="s">
+      <c r="J33" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="39"/>
+      <c r="L33" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N33" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="O33" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P33" s="42" t="s">
+      <c r="O33" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P33" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="40" t="s">
+      <c r="Q33" s="39"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="T33" s="41" t="s">
+      <c r="T33" s="42" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="210.75" customHeight="1" thickBot="1">
-      <c r="A34" s="33">
+      <c r="A34" s="34">
         <v>39</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="37">
         <v>45367</v>
       </c>
-      <c r="G34" s="46" t="s">
+      <c r="G34" s="47" t="s">
         <v>482</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="I34" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="J34" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K34" s="38"/>
-      <c r="L34" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M34" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N34" s="42" t="s">
+      <c r="J34" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K34" s="39"/>
+      <c r="L34" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M34" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N34" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="O34" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P34" s="42" t="s">
+      <c r="O34" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="40" t="s">
+      <c r="Q34" s="39"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="T34" s="41" t="s">
+      <c r="T34" s="42" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="165.75" customHeight="1" thickBot="1">
-      <c r="A35" s="33">
+      <c r="A35" s="34">
         <v>40</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="37">
         <v>45374</v>
       </c>
-      <c r="G35" s="44" t="s">
-        <v>664</v>
-      </c>
-      <c r="H35" s="37" t="s">
+      <c r="G35" s="45" t="s">
+        <v>656</v>
+      </c>
+      <c r="H35" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="I35" s="37" t="s">
+      <c r="I35" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="J35" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K35" s="38"/>
-      <c r="L35" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M35" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N35" s="38" t="s">
+      <c r="J35" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K35" s="39"/>
+      <c r="L35" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M35" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N35" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="O35" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P35" s="38" t="s">
+      <c r="O35" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P35" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="40" t="s">
+      <c r="Q35" s="39"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="T35" s="41" t="s">
+      <c r="T35" s="42" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="165.75" customHeight="1" thickBot="1">
-      <c r="A36" s="33">
+      <c r="A36" s="34">
         <v>43</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="38">
         <v>45374</v>
       </c>
-      <c r="G36" s="54" t="s">
-        <v>665</v>
-      </c>
-      <c r="H36" s="47" t="s">
+      <c r="G36" s="55" t="s">
+        <v>657</v>
+      </c>
+      <c r="H36" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="I36" s="37" t="s">
+      <c r="I36" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="J36" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K36" s="38"/>
-      <c r="L36" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M36" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N36" s="38" t="s">
+      <c r="J36" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="39"/>
+      <c r="L36" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M36" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N36" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="O36" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P36" s="38" t="s">
+      <c r="O36" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P36" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="40" t="s">
+      <c r="Q36" s="39"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="T36" s="41" t="s">
+      <c r="T36" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="58.2" thickBot="1">
-      <c r="A37" s="33">
+    <row r="37" spans="1:20" ht="60.75" thickBot="1">
+      <c r="A37" s="34">
         <v>44</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M37" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N37" s="38" t="s">
+      <c r="F37" s="37"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N37" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="O37" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P37" s="38" t="s">
+      <c r="O37" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P37" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="S37" s="43"/>
-      <c r="T37" s="41" t="s">
+      <c r="Q37" s="39"/>
+      <c r="R37" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="S37" s="44"/>
+      <c r="T37" s="42" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A38" s="33">
+      <c r="A38" s="34">
         <v>45</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M38" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N38" s="42" t="s">
+      <c r="F38" s="37"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M38" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N38" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="O38" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P38" s="42" t="s">
+      <c r="O38" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P38" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="S38" s="43"/>
-      <c r="T38" s="41" t="s">
+      <c r="Q38" s="39"/>
+      <c r="R38" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="S38" s="44"/>
+      <c r="T38" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="58.2" thickBot="1">
-      <c r="A39" s="33">
+    <row r="39" spans="1:20" ht="60.75" thickBot="1">
+      <c r="A39" s="34">
         <v>47</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="36"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M39" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N39" s="42" t="s">
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M39" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N39" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="O39" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P39" s="42" t="s">
+      <c r="O39" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P39" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="S39" s="43"/>
-      <c r="T39" s="41" t="s">
+      <c r="Q39" s="39"/>
+      <c r="R39" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="S39" s="44"/>
+      <c r="T39" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="58.2" thickBot="1">
-      <c r="A40" s="33">
+    <row r="40" spans="1:20" ht="60.75" thickBot="1">
+      <c r="A40" s="34">
         <v>48</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M40" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N40" s="38" t="s">
+      <c r="F40" s="37"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M40" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N40" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="O40" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P40" s="38" t="s">
+      <c r="O40" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P40" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="S40" s="43"/>
-      <c r="T40" s="41" t="s">
+      <c r="Q40" s="39"/>
+      <c r="R40" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="S40" s="44"/>
+      <c r="T40" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="58.2" thickBot="1">
-      <c r="A41" s="33">
+    <row r="41" spans="1:20" ht="60.75" thickBot="1">
+      <c r="A41" s="34">
         <v>51</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M41" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N41" s="38" t="s">
+      <c r="F41" s="37"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M41" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N41" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="O41" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P41" s="38" t="s">
+      <c r="O41" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P41" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="S41" s="43"/>
-      <c r="T41" s="41" t="s">
+      <c r="Q41" s="39"/>
+      <c r="R41" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="S41" s="44"/>
+      <c r="T41" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="288.60000000000002" thickBot="1">
-      <c r="A42" s="33">
+    <row r="42" spans="1:20" ht="315.75" thickBot="1">
+      <c r="A42" s="34">
         <v>52</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="38">
         <v>45370</v>
       </c>
-      <c r="G42" s="49" t="s">
+      <c r="G42" s="50" t="s">
         <v>499</v>
       </c>
-      <c r="H42" s="47" t="s">
+      <c r="H42" s="48" t="s">
         <v>435</v>
       </c>
-      <c r="I42" s="37" t="s">
+      <c r="I42" s="38" t="s">
         <v>436</v>
       </c>
-      <c r="J42" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K42" s="38"/>
-      <c r="L42" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M42" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N42" s="42" t="s">
+      <c r="J42" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" s="39"/>
+      <c r="L42" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M42" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N42" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="O42" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P42" s="42" t="s">
+      <c r="O42" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P42" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="43" t="s">
+      <c r="Q42" s="39"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="44" t="s">
         <v>437</v>
       </c>
-      <c r="T42" s="41" t="s">
+      <c r="T42" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="274.2" thickBot="1">
-      <c r="A43" s="33">
+    <row r="43" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A43" s="34">
         <v>53</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="38">
         <v>45370</v>
       </c>
-      <c r="G43" s="49" t="s">
+      <c r="G43" s="50" t="s">
         <v>500</v>
       </c>
-      <c r="H43" s="47" t="s">
+      <c r="H43" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="I43" s="37" t="s">
+      <c r="I43" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="J43" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K43" s="38"/>
-      <c r="L43" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M43" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N43" s="42" t="s">
+      <c r="J43" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K43" s="39"/>
+      <c r="L43" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M43" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N43" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="O43" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P43" s="42" t="s">
+      <c r="O43" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P43" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="40" t="s">
+      <c r="Q43" s="39"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="41" t="s">
         <v>440</v>
       </c>
-      <c r="T43" s="41" t="s">
+      <c r="T43" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="288.60000000000002" thickBot="1">
-      <c r="A44" s="33">
+    <row r="44" spans="1:20" ht="300.75" thickBot="1">
+      <c r="A44" s="34">
         <v>54</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="38">
         <v>45370</v>
       </c>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="50" t="s">
         <v>501</v>
       </c>
-      <c r="H44" s="47" t="s">
+      <c r="H44" s="48" t="s">
         <v>441</v>
       </c>
-      <c r="I44" s="37" t="s">
+      <c r="I44" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="J44" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K44" s="38"/>
-      <c r="L44" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M44" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N44" s="42" t="s">
+      <c r="J44" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" s="39"/>
+      <c r="L44" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M44" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N44" s="43" t="s">
         <v>418</v>
       </c>
-      <c r="O44" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P44" s="42" t="s">
+      <c r="O44" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P44" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="40" t="s">
+      <c r="Q44" s="39"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="41" t="s">
         <v>443</v>
       </c>
-      <c r="T44" s="41" t="s">
+      <c r="T44" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="274.2" thickBot="1">
-      <c r="A45" s="33">
+    <row r="45" spans="1:20" ht="300.75" thickBot="1">
+      <c r="A45" s="34">
         <v>55</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E45" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="38">
         <v>45370</v>
       </c>
-      <c r="G45" s="49" t="s">
+      <c r="G45" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="H45" s="47" t="s">
+      <c r="H45" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="I45" s="37" t="s">
+      <c r="I45" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="J45" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K45" s="38"/>
-      <c r="L45" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M45" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N45" s="42" t="s">
+      <c r="J45" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K45" s="39"/>
+      <c r="L45" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M45" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N45" s="43" t="s">
         <v>446</v>
       </c>
-      <c r="O45" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P45" s="42" t="s">
+      <c r="O45" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P45" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="40" t="s">
+      <c r="Q45" s="39"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="41" t="s">
         <v>447</v>
       </c>
-      <c r="T45" s="41" t="s">
+      <c r="T45" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="259.8" thickBot="1">
-      <c r="A46" s="33">
+    <row r="46" spans="1:20" ht="300.75" thickBot="1">
+      <c r="A46" s="34">
         <v>56</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="38">
         <v>45370</v>
       </c>
-      <c r="G46" s="49" t="s">
+      <c r="G46" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="H46" s="47" t="s">
+      <c r="H46" s="48" t="s">
         <v>448</v>
       </c>
-      <c r="I46" s="37" t="s">
+      <c r="I46" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="J46" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K46" s="38"/>
-      <c r="L46" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M46" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N46" s="42" t="s">
+      <c r="J46" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K46" s="39"/>
+      <c r="L46" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M46" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N46" s="43" t="s">
         <v>450</v>
       </c>
-      <c r="O46" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P46" s="42" t="s">
+      <c r="O46" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P46" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="40" t="s">
+      <c r="Q46" s="39"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="T46" s="41" t="s">
+      <c r="T46" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="259.8" thickBot="1">
-      <c r="A47" s="33">
+    <row r="47" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A47" s="34">
         <v>57</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="38">
         <v>45370</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="H47" s="47" t="s">
+      <c r="H47" s="48" t="s">
         <v>452</v>
       </c>
-      <c r="I47" s="37" t="s">
+      <c r="I47" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="J47" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K47" s="38"/>
-      <c r="L47" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M47" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N47" s="42" t="s">
+      <c r="J47" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" s="39"/>
+      <c r="L47" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M47" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N47" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="O47" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P47" s="42" t="s">
+      <c r="O47" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P47" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="40" t="s">
+      <c r="Q47" s="39"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="T47" s="41" t="s">
+      <c r="T47" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="288.60000000000002" thickBot="1">
-      <c r="A48" s="33">
+    <row r="48" spans="1:20" ht="315.75" thickBot="1">
+      <c r="A48" s="34">
         <v>58</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="38">
         <v>45371</v>
       </c>
-      <c r="G48" s="49" t="s">
+      <c r="G48" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="H48" s="47" t="s">
+      <c r="H48" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="I48" s="37" t="s">
+      <c r="I48" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="J48" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K48" s="38"/>
-      <c r="L48" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M48" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N48" s="42" t="s">
+      <c r="J48" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K48" s="39"/>
+      <c r="L48" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M48" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N48" s="43" t="s">
         <v>457</v>
       </c>
-      <c r="O48" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P48" s="42" t="s">
+      <c r="O48" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P48" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="40" t="s">
+      <c r="Q48" s="39"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="41" t="s">
         <v>458</v>
       </c>
-      <c r="T48" s="41" t="s">
+      <c r="T48" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="317.39999999999998" thickBot="1">
-      <c r="A49" s="33">
+    <row r="49" spans="1:20" ht="345.75" thickBot="1">
+      <c r="A49" s="34">
         <v>59</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="38">
         <v>45371</v>
       </c>
-      <c r="G49" s="49" t="s">
+      <c r="G49" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="H49" s="52" t="s">
+      <c r="H49" s="53" t="s">
         <v>459</v>
       </c>
-      <c r="I49" s="37" t="s">
+      <c r="I49" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="J49" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K49" s="38"/>
-      <c r="L49" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M49" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N49" s="42" t="s">
+      <c r="J49" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K49" s="39"/>
+      <c r="L49" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M49" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N49" s="43" t="s">
         <v>403</v>
       </c>
-      <c r="O49" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P49" s="42" t="s">
+      <c r="O49" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P49" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="40" t="s">
+      <c r="Q49" s="39"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="T49" s="41" t="s">
+      <c r="T49" s="42" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="409.6" thickBot="1">
-      <c r="A50" s="33">
+      <c r="A50" s="34">
         <v>60</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="38">
         <v>45371</v>
       </c>
-      <c r="G50" s="49" t="s">
+      <c r="G50" s="50" t="s">
         <v>507</v>
       </c>
-      <c r="H50" s="47" t="s">
+      <c r="H50" s="48" t="s">
         <v>462</v>
       </c>
-      <c r="I50" s="37" t="s">
+      <c r="I50" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="J50" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K50" s="38"/>
-      <c r="L50" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M50" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N50" s="42" t="s">
+      <c r="J50" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K50" s="39"/>
+      <c r="L50" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M50" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N50" s="43" t="s">
         <v>464</v>
       </c>
-      <c r="O50" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P50" s="42" t="s">
+      <c r="O50" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P50" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="40" t="s">
+      <c r="Q50" s="39"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="T50" s="41" t="s">
+      <c r="T50" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="274.2" thickBot="1">
-      <c r="A51" s="33">
+    <row r="51" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A51" s="34">
         <v>61</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="38">
         <v>45371</v>
       </c>
-      <c r="G51" s="49" t="s">
+      <c r="G51" s="50" t="s">
         <v>508</v>
       </c>
-      <c r="H51" s="47" t="s">
+      <c r="H51" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="I51" s="37" t="s">
+      <c r="I51" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="J51" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K51" s="38"/>
-      <c r="L51" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M51" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N51" s="42" t="s">
+      <c r="J51" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" s="39"/>
+      <c r="L51" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M51" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N51" s="43" t="s">
         <v>468</v>
       </c>
-      <c r="O51" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P51" s="38" t="s">
+      <c r="O51" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P51" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="40" t="s">
+      <c r="Q51" s="39"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="T51" s="41" t="s">
+      <c r="T51" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="115.8" thickBot="1">
+    <row r="52" spans="1:20" ht="120.75" thickBot="1">
       <c r="A52" s="20">
         <v>62</v>
       </c>
@@ -8936,14 +8934,14 @@
         <v>137</v>
       </c>
       <c r="F52" s="23"/>
-      <c r="G52" s="50"/>
+      <c r="G52" s="51"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
-      <c r="J52" s="45" t="s">
+      <c r="J52" s="46" t="s">
         <v>363</v>
       </c>
       <c r="K52" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L52" s="25"/>
       <c r="M52" s="25"/>
@@ -8957,455 +8955,455 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="288.60000000000002" thickBot="1">
-      <c r="A53" s="33">
+    <row r="53" spans="1:20" ht="315.75" thickBot="1">
+      <c r="A53" s="34">
         <v>63</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="F53" s="36">
+      <c r="F53" s="37">
         <v>45376</v>
       </c>
-      <c r="G53" s="37" t="s">
-        <v>666</v>
-      </c>
-      <c r="H53" s="37" t="s">
+      <c r="G53" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="I53" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="J53" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M53" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N53" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="O53" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P53" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="T53" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A54" s="34">
+        <v>64</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="H54" s="38" t="s">
         <v>531</v>
       </c>
-      <c r="I53" s="37" t="s">
+      <c r="I54" s="38" t="s">
         <v>532</v>
       </c>
-      <c r="J53" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M53" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N53" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="O53" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P53" s="38" t="s">
+      <c r="J54" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M54" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N54" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="O54" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P54" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="43" t="s">
+      <c r="Q54" s="39"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="T53" s="41" t="s">
+      <c r="T54" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="274.2" thickBot="1">
-      <c r="A54" s="33">
-        <v>64</v>
-      </c>
-      <c r="B54" s="34" t="s">
+    <row r="55" spans="1:20" ht="360.75" thickBot="1">
+      <c r="A55" s="34">
+        <v>65</v>
+      </c>
+      <c r="B55" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C55" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="F54" s="36">
+      <c r="D55" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="37">
         <v>45376</v>
       </c>
-      <c r="G54" s="37" t="s">
-        <v>667</v>
-      </c>
-      <c r="H54" s="37" t="s">
+      <c r="G55" s="38" t="s">
+        <v>660</v>
+      </c>
+      <c r="H55" s="38" t="s">
         <v>534</v>
       </c>
-      <c r="I54" s="37" t="s">
+      <c r="I55" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="J54" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M54" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N54" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="O54" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P54" s="38" t="s">
+      <c r="J55" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M55" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N55" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="O55" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P55" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="43" t="s">
-        <v>536</v>
-      </c>
-      <c r="T54" s="41" t="s">
+      <c r="Q55" s="39"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="44" t="s">
+        <v>537</v>
+      </c>
+      <c r="T55" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="346.2" thickBot="1">
-      <c r="A55" s="33">
-        <v>65</v>
-      </c>
-      <c r="B55" s="34" t="s">
+    <row r="56" spans="1:20" ht="360.75" thickBot="1">
+      <c r="A56" s="34">
+        <v>66</v>
+      </c>
+      <c r="B56" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C56" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" s="36">
+      <c r="D56" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="37">
         <v>45376</v>
       </c>
-      <c r="G55" s="37" t="s">
-        <v>668</v>
-      </c>
-      <c r="H55" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="I55" s="37" t="s">
+      <c r="G56" s="38" t="s">
+        <v>661</v>
+      </c>
+      <c r="H56" s="38" t="s">
         <v>538</v>
       </c>
-      <c r="J55" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M55" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N55" s="38" t="s">
+      <c r="I56" s="38" t="s">
         <v>539</v>
       </c>
-      <c r="O55" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P55" s="38" t="s">
+      <c r="J56" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M56" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N56" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="O56" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P56" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="43" t="s">
-        <v>540</v>
-      </c>
-      <c r="T55" s="41" t="s">
+      <c r="Q56" s="39"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="44" t="s">
+        <v>541</v>
+      </c>
+      <c r="T56" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="317.39999999999998" thickBot="1">
-      <c r="A56" s="33">
-        <v>66</v>
-      </c>
-      <c r="B56" s="34" t="s">
+    <row r="57" spans="1:20" ht="360.75" thickBot="1">
+      <c r="A57" s="34">
+        <v>67</v>
+      </c>
+      <c r="B57" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C57" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="F56" s="36">
+      <c r="D57" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" s="37">
         <v>45376</v>
       </c>
-      <c r="G56" s="37" t="s">
-        <v>669</v>
-      </c>
-      <c r="H56" s="37" t="s">
-        <v>541</v>
-      </c>
-      <c r="I56" s="37" t="s">
+      <c r="G57" s="38" t="s">
+        <v>662</v>
+      </c>
+      <c r="H57" s="38" t="s">
         <v>542</v>
       </c>
-      <c r="J56" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M56" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N56" s="38" t="s">
+      <c r="I57" s="38" t="s">
         <v>543</v>
       </c>
-      <c r="O56" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P56" s="38" t="s">
+      <c r="J57" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M57" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N57" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="O57" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P57" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="43" t="s">
-        <v>544</v>
-      </c>
-      <c r="T56" s="41" t="s">
+      <c r="Q57" s="39"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="T57" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="303" thickBot="1">
-      <c r="A57" s="33">
-        <v>67</v>
-      </c>
-      <c r="B57" s="34" t="s">
+    <row r="58" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A58" s="34">
+        <v>68</v>
+      </c>
+      <c r="B58" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C58" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="F57" s="36">
+      <c r="D58" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="37">
         <v>45376</v>
       </c>
-      <c r="G57" s="37" t="s">
-        <v>670</v>
-      </c>
-      <c r="H57" s="37" t="s">
-        <v>545</v>
-      </c>
-      <c r="I57" s="37" t="s">
+      <c r="G58" s="38" t="s">
+        <v>663</v>
+      </c>
+      <c r="H58" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="J57" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M57" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N57" s="38" t="s">
+      <c r="I58" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="O57" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P57" s="38" t="s">
+      <c r="J58" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M58" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N58" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="O58" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P58" s="39" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="44" t="s">
+        <v>549</v>
+      </c>
+      <c r="T58" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="330.75" thickBot="1">
+      <c r="A59" s="34">
+        <v>69</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G59" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="I59" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="J59" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M59" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N59" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="O59" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P59" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="43" t="s">
-        <v>548</v>
-      </c>
-      <c r="T57" s="41" t="s">
+      <c r="Q59" s="39"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="T59" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="259.8" thickBot="1">
-      <c r="A58" s="33">
-        <v>68</v>
-      </c>
-      <c r="B58" s="34" t="s">
+    <row r="60" spans="1:20" ht="315.75" thickBot="1">
+      <c r="A60" s="34">
+        <v>70</v>
+      </c>
+      <c r="B60" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C60" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" s="36">
+      <c r="D60" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" s="37">
         <v>45376</v>
       </c>
-      <c r="G58" s="37" t="s">
-        <v>671</v>
-      </c>
-      <c r="H58" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="I58" s="37" t="s">
-        <v>550</v>
-      </c>
-      <c r="J58" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M58" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N58" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="O58" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P58" s="38" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="43" t="s">
-        <v>552</v>
-      </c>
-      <c r="T58" s="41" t="s">
+      <c r="G60" s="38" t="s">
+        <v>665</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="I60" s="38" t="s">
+        <v>554</v>
+      </c>
+      <c r="J60" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M60" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N60" s="39" t="s">
+        <v>555</v>
+      </c>
+      <c r="O60" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P60" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="T60" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="317.39999999999998" thickBot="1">
-      <c r="A59" s="33">
-        <v>69</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E59" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="F59" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G59" s="37" t="s">
-        <v>672</v>
-      </c>
-      <c r="H59" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="I59" s="37" t="s">
-        <v>554</v>
-      </c>
-      <c r="J59" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M59" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N59" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="O59" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P59" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="43" t="s">
-        <v>555</v>
-      </c>
-      <c r="T59" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="303" thickBot="1">
-      <c r="A60" s="33">
-        <v>70</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F60" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G60" s="37" t="s">
-        <v>673</v>
-      </c>
-      <c r="H60" s="37" t="s">
-        <v>556</v>
-      </c>
-      <c r="I60" s="37" t="s">
-        <v>557</v>
-      </c>
-      <c r="J60" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M60" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N60" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="O60" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P60" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="43" t="s">
-        <v>559</v>
-      </c>
-      <c r="T60" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="115.8" thickBot="1">
+    <row r="61" spans="1:20" ht="120.75" thickBot="1">
       <c r="A61" s="20">
         <v>71</v>
       </c>
@@ -9429,7 +9427,7 @@
         <v>363</v>
       </c>
       <c r="K61" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
@@ -9443,7 +9441,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="115.8" thickBot="1">
+    <row r="62" spans="1:20" ht="120.75" thickBot="1">
       <c r="A62" s="20">
         <v>72</v>
       </c>
@@ -9467,7 +9465,7 @@
         <v>363</v>
       </c>
       <c r="K62" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
@@ -9481,63 +9479,63 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="274.2" thickBot="1">
-      <c r="A63" s="33">
+    <row r="63" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A63" s="34">
         <v>73</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="E63" s="35" t="s">
+      <c r="E63" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="F63" s="36">
+      <c r="F63" s="37">
         <v>45376</v>
       </c>
-      <c r="G63" s="55" t="s">
-        <v>674</v>
-      </c>
-      <c r="H63" s="37" t="s">
+      <c r="G63" s="56" t="s">
+        <v>666</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="J63" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M63" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N63" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="O63" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P63" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="44" t="s">
         <v>560</v>
       </c>
-      <c r="I63" s="37" t="s">
-        <v>561</v>
-      </c>
-      <c r="J63" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M63" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N63" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="O63" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P63" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="43" t="s">
-        <v>563</v>
-      </c>
-      <c r="T63" s="41" t="s">
+      <c r="T63" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="115.8" thickBot="1">
+    <row r="64" spans="1:20" ht="120.75" thickBot="1">
       <c r="A64" s="20">
         <v>74</v>
       </c>
@@ -9554,14 +9552,14 @@
         <v>161</v>
       </c>
       <c r="F64" s="24"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="57"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="58"/>
       <c r="I64" s="24"/>
       <c r="J64" s="25" t="s">
         <v>363</v>
       </c>
       <c r="K64" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
@@ -9576,342 +9574,340 @@
       </c>
     </row>
     <row r="65" spans="1:20" ht="315" customHeight="1" thickBot="1">
-      <c r="A65" s="33">
+      <c r="A65" s="34">
         <v>75</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D65" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="F65" s="37">
+      <c r="F65" s="38">
         <v>45367</v>
       </c>
-      <c r="G65" s="49" t="s">
+      <c r="G65" s="50" t="s">
         <v>483</v>
       </c>
-      <c r="H65" s="47" t="s">
+      <c r="H65" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="I65" s="37" t="s">
+      <c r="I65" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="J65" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K65" s="38"/>
-      <c r="L65" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M65" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N65" s="42" t="s">
+      <c r="J65" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K65" s="39"/>
+      <c r="L65" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M65" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N65" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="O65" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P65" s="42" t="s">
+      <c r="O65" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P65" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="40" t="s">
+      <c r="Q65" s="39"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="T65" s="41" t="s">
+      <c r="T65" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="274.2" thickBot="1">
-      <c r="A66" s="33">
+    <row r="66" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A66" s="34">
         <v>76</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="34" t="s">
+      <c r="D66" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="E66" s="35" t="s">
+      <c r="E66" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="F66" s="37">
+      <c r="F66" s="38">
         <v>45367</v>
       </c>
-      <c r="G66" s="49" t="s">
+      <c r="G66" s="50" t="s">
         <v>484</v>
       </c>
-      <c r="H66" s="47" t="s">
+      <c r="H66" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="I66" s="37" t="s">
+      <c r="I66" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="J66" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K66" s="38"/>
-      <c r="L66" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M66" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N66" s="42" t="s">
+      <c r="J66" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K66" s="39"/>
+      <c r="L66" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M66" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N66" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="O66" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P66" s="42" t="s">
+      <c r="O66" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P66" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="40" t="s">
+      <c r="Q66" s="39"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="T66" s="41" t="s">
+      <c r="T66" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="288.60000000000002" thickBot="1">
-      <c r="A67" s="33">
+    <row r="67" spans="1:20" ht="300.75" thickBot="1">
+      <c r="A67" s="34">
         <v>77</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="34" t="s">
+      <c r="D67" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="E67" s="35" t="s">
+      <c r="E67" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="F67" s="37">
+      <c r="F67" s="38">
         <v>45369</v>
       </c>
-      <c r="G67" s="49" t="s">
+      <c r="G67" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="H67" s="47" t="s">
+      <c r="H67" s="48" t="s">
         <v>416</v>
       </c>
-      <c r="I67" s="37" t="s">
+      <c r="I67" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="J67" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K67" s="38"/>
-      <c r="L67" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M67" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N67" s="42" t="s">
+      <c r="J67" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K67" s="39"/>
+      <c r="L67" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M67" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N67" s="43" t="s">
         <v>418</v>
       </c>
-      <c r="O67" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P67" s="38" t="s">
+      <c r="O67" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P67" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="40" t="s">
+      <c r="Q67" s="39"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="T67" s="41" t="s">
+      <c r="T67" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="274.2" thickBot="1">
-      <c r="A68" s="33">
+    <row r="68" spans="1:20" ht="300.75" thickBot="1">
+      <c r="A68" s="34">
         <v>78</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="E68" s="35" t="s">
+      <c r="E68" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="F68" s="37">
+      <c r="F68" s="38">
         <v>45367</v>
       </c>
-      <c r="G68" s="49" t="s">
+      <c r="G68" s="50" t="s">
         <v>486</v>
       </c>
-      <c r="H68" s="47" t="s">
+      <c r="H68" s="48" t="s">
         <v>389</v>
       </c>
-      <c r="I68" s="37" t="s">
+      <c r="I68" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="J68" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K68" s="38"/>
-      <c r="L68" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M68" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N68" s="42" t="s">
+      <c r="J68" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K68" s="39"/>
+      <c r="L68" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M68" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N68" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="O68" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P68" s="38" t="s">
+      <c r="O68" s="39"/>
+      <c r="P68" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="40" t="s">
+      <c r="Q68" s="39"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="T68" s="41" t="s">
+      <c r="T68" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="259.8" thickBot="1">
-      <c r="A69" s="33">
+    <row r="69" spans="1:20" ht="300.75" thickBot="1">
+      <c r="A69" s="34">
         <v>79</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="34" t="s">
+      <c r="D69" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E69" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="F69" s="37">
+      <c r="F69" s="38">
         <v>45367</v>
       </c>
-      <c r="G69" s="49" t="s">
+      <c r="G69" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="H69" s="47" t="s">
+      <c r="H69" s="48" t="s">
         <v>393</v>
       </c>
-      <c r="I69" s="37" t="s">
+      <c r="I69" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="J69" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K69" s="38"/>
-      <c r="L69" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M69" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N69" s="42" t="s">
+      <c r="J69" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K69" s="39"/>
+      <c r="L69" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M69" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N69" s="43" t="s">
         <v>395</v>
       </c>
-      <c r="O69" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P69" s="42" t="s">
+      <c r="O69" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P69" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="40" t="s">
+      <c r="Q69" s="39"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="41" t="s">
         <v>396</v>
       </c>
-      <c r="T69" s="41" t="s">
+      <c r="T69" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="259.8" thickBot="1">
-      <c r="A70" s="33">
+    <row r="70" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A70" s="34">
         <v>80</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="34" t="s">
+      <c r="D70" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="E70" s="35" t="s">
+      <c r="E70" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="F70" s="37">
+      <c r="F70" s="38">
         <v>45367</v>
       </c>
-      <c r="G70" s="49" t="s">
+      <c r="G70" s="50" t="s">
         <v>488</v>
       </c>
-      <c r="H70" s="47" t="s">
+      <c r="H70" s="48" t="s">
         <v>397</v>
       </c>
-      <c r="I70" s="37" t="s">
+      <c r="I70" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="J70" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K70" s="38"/>
-      <c r="L70" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M70" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N70" s="42" t="s">
+      <c r="J70" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K70" s="39"/>
+      <c r="L70" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M70" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N70" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="O70" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P70" s="42" t="s">
+      <c r="O70" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P70" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="39"/>
-      <c r="S70" s="40" t="s">
+      <c r="Q70" s="39"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="T70" s="41" t="s">
+      <c r="T70" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="115.8" thickBot="1">
+    <row r="71" spans="1:20" ht="120.75" thickBot="1">
       <c r="A71" s="20">
         <v>81</v>
       </c>
@@ -9928,14 +9924,14 @@
         <v>175</v>
       </c>
       <c r="F71" s="23"/>
-      <c r="G71" s="51"/>
+      <c r="G71" s="52"/>
       <c r="H71" s="24"/>
       <c r="I71" s="24"/>
-      <c r="J71" s="45" t="s">
+      <c r="J71" s="46" t="s">
         <v>363</v>
       </c>
       <c r="K71" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
@@ -9949,231 +9945,231 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="288.60000000000002" thickBot="1">
-      <c r="A72" s="33">
+    <row r="72" spans="1:20" ht="315.75" thickBot="1">
+      <c r="A72" s="34">
         <v>82</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D72" s="34" t="s">
+      <c r="D72" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="E72" s="35" t="s">
+      <c r="E72" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="F72" s="37">
+      <c r="F72" s="38">
         <v>45369</v>
       </c>
-      <c r="G72" s="49" t="s">
+      <c r="G72" s="50" t="s">
         <v>489</v>
       </c>
-      <c r="H72" s="47" t="s">
+      <c r="H72" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="I72" s="37" t="s">
+      <c r="I72" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="J72" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K72" s="38"/>
-      <c r="L72" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M72" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N72" s="42" t="s">
+      <c r="J72" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K72" s="39"/>
+      <c r="L72" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M72" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N72" s="43" t="s">
         <v>422</v>
       </c>
-      <c r="O72" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P72" s="38" t="s">
+      <c r="O72" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P72" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="40" t="s">
+      <c r="Q72" s="39"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="41" t="s">
         <v>423</v>
       </c>
-      <c r="T72" s="41" t="s">
+      <c r="T72" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="317.39999999999998" thickBot="1">
-      <c r="A73" s="33">
+    <row r="73" spans="1:20" ht="345.75" thickBot="1">
+      <c r="A73" s="34">
         <v>83</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D73" s="34" t="s">
+      <c r="D73" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="E73" s="35" t="s">
+      <c r="E73" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="F73" s="37">
+      <c r="F73" s="38">
         <v>45367</v>
       </c>
-      <c r="G73" s="49" t="s">
+      <c r="G73" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="H73" s="47" t="s">
+      <c r="H73" s="48" t="s">
         <v>401</v>
       </c>
-      <c r="I73" s="37" t="s">
+      <c r="I73" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="J73" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K73" s="38"/>
-      <c r="L73" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M73" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N73" s="42" t="s">
+      <c r="J73" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K73" s="39"/>
+      <c r="L73" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M73" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N73" s="43" t="s">
         <v>403</v>
       </c>
-      <c r="O73" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P73" s="42" t="s">
+      <c r="O73" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P73" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="40" t="s">
+      <c r="Q73" s="39"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="T73" s="41" t="s">
+      <c r="T73" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="331.8" thickBot="1">
-      <c r="A74" s="33">
+    <row r="74" spans="1:20" ht="345.75" thickBot="1">
+      <c r="A74" s="34">
         <v>84</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="34" t="s">
+      <c r="D74" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="E74" s="35" t="s">
+      <c r="E74" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="F74" s="37">
+      <c r="F74" s="38">
         <v>45367</v>
       </c>
-      <c r="G74" s="49" t="s">
+      <c r="G74" s="50" t="s">
         <v>491</v>
       </c>
-      <c r="H74" s="47" t="s">
+      <c r="H74" s="48" t="s">
         <v>405</v>
       </c>
-      <c r="I74" s="37" t="s">
+      <c r="I74" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="J74" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K74" s="38"/>
-      <c r="L74" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M74" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N74" s="42" t="s">
+      <c r="J74" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K74" s="39"/>
+      <c r="L74" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M74" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N74" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="O74" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P74" s="42" t="s">
+      <c r="O74" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P74" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="Q74" s="38"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="40" t="s">
+      <c r="Q74" s="39"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="T74" s="41" t="s">
+      <c r="T74" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="317.39999999999998" thickBot="1">
-      <c r="A75" s="33">
+    <row r="75" spans="1:20" ht="330.75" thickBot="1">
+      <c r="A75" s="34">
         <v>85</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="34" t="s">
+      <c r="D75" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="E75" s="35" t="s">
+      <c r="E75" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="F75" s="37">
+      <c r="F75" s="38">
         <v>45367</v>
       </c>
-      <c r="G75" s="49" t="s">
+      <c r="G75" s="50" t="s">
         <v>492</v>
       </c>
-      <c r="H75" s="47" t="s">
+      <c r="H75" s="48" t="s">
         <v>409</v>
       </c>
-      <c r="I75" s="37" t="s">
+      <c r="I75" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="J75" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K75" s="38"/>
-      <c r="L75" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="M75" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N75" s="42" t="s">
+      <c r="J75" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K75" s="39"/>
+      <c r="L75" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M75" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N75" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="O75" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="P75" s="38" t="s">
+      <c r="O75" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P75" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q75" s="38"/>
-      <c r="R75" s="39"/>
-      <c r="S75" s="40" t="s">
+      <c r="Q75" s="39"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="41" t="s">
         <v>412</v>
       </c>
-      <c r="T75" s="41" t="s">
+      <c r="T75" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="115.8" thickBot="1">
+    <row r="76" spans="1:20" ht="120.75" thickBot="1">
       <c r="A76" s="20">
         <v>86</v>
       </c>
@@ -10190,14 +10186,14 @@
         <v>185</v>
       </c>
       <c r="F76" s="23"/>
-      <c r="G76" s="50"/>
+      <c r="G76" s="51"/>
       <c r="H76" s="24"/>
       <c r="I76" s="24"/>
-      <c r="J76" s="45" t="s">
+      <c r="J76" s="46" t="s">
         <v>363</v>
       </c>
       <c r="K76" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L76" s="25"/>
       <c r="M76" s="25"/>
@@ -10211,7 +10207,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="130.19999999999999" thickBot="1">
+    <row r="77" spans="1:20" ht="135.75" thickBot="1">
       <c r="A77" s="20">
         <v>87</v>
       </c>
@@ -10231,11 +10227,11 @@
       <c r="G77" s="24"/>
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
-      <c r="J77" s="45" t="s">
+      <c r="J77" s="46" t="s">
         <v>363</v>
       </c>
       <c r="K77" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L77" s="25"/>
       <c r="M77" s="25"/>
@@ -10249,7 +10245,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="115.8" thickBot="1">
+    <row r="78" spans="1:20" ht="120.75" thickBot="1">
       <c r="A78" s="20">
         <v>88</v>
       </c>
@@ -10269,11 +10265,11 @@
       <c r="G78" s="24"/>
       <c r="H78" s="24"/>
       <c r="I78" s="24"/>
-      <c r="J78" s="45" t="s">
+      <c r="J78" s="46" t="s">
         <v>363</v>
       </c>
       <c r="K78" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L78" s="25"/>
       <c r="M78" s="25"/>
@@ -10287,7 +10283,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="101.4" thickBot="1">
+    <row r="79" spans="1:20" ht="105.75" thickBot="1">
       <c r="A79" s="20">
         <v>89</v>
       </c>
@@ -10307,11 +10303,11 @@
       <c r="G79" s="24"/>
       <c r="H79" s="24"/>
       <c r="I79" s="24"/>
-      <c r="J79" s="45" t="s">
+      <c r="J79" s="46" t="s">
         <v>363</v>
       </c>
       <c r="K79" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L79" s="25"/>
       <c r="M79" s="25"/>
@@ -10325,7 +10321,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="101.4" thickBot="1">
+    <row r="80" spans="1:20" ht="105.75" thickBot="1">
       <c r="A80" s="20">
         <v>90</v>
       </c>
@@ -10345,11 +10341,11 @@
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
-      <c r="J80" s="45" t="s">
+      <c r="J80" s="46" t="s">
         <v>363</v>
       </c>
       <c r="K80" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L80" s="25"/>
       <c r="M80" s="25"/>
@@ -10363,7 +10359,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="115.8" thickBot="1">
+    <row r="81" spans="1:20" ht="120.75" thickBot="1">
       <c r="A81" s="20">
         <v>91</v>
       </c>
@@ -10383,11 +10379,11 @@
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
-      <c r="J81" s="45" t="s">
+      <c r="J81" s="46" t="s">
         <v>363</v>
       </c>
       <c r="K81" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L81" s="25"/>
       <c r="M81" s="25"/>
@@ -10401,7 +10397,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="115.8" thickBot="1">
+    <row r="82" spans="1:20" ht="120.75" thickBot="1">
       <c r="A82" s="20">
         <v>92</v>
       </c>
@@ -10421,11 +10417,11 @@
       <c r="G82" s="24"/>
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
-      <c r="J82" s="45" t="s">
+      <c r="J82" s="46" t="s">
         <v>363</v>
       </c>
       <c r="K82" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L82" s="25"/>
       <c r="M82" s="25"/>
@@ -10439,7 +10435,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="115.8" thickBot="1">
+    <row r="83" spans="1:20" ht="120.75" thickBot="1">
       <c r="A83" s="20">
         <v>93</v>
       </c>
@@ -10459,11 +10455,11 @@
       <c r="G83" s="24"/>
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
-      <c r="J83" s="45" t="s">
+      <c r="J83" s="46" t="s">
         <v>363</v>
       </c>
       <c r="K83" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L83" s="25"/>
       <c r="M83" s="25"/>
@@ -10477,679 +10473,679 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="288.60000000000002" thickBot="1">
-      <c r="A84" s="33">
+    <row r="84" spans="1:20" ht="315.75" thickBot="1">
+      <c r="A84" s="34">
         <v>122</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="34" t="s">
+      <c r="D84" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="E84" s="35" t="s">
+      <c r="E84" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="F84" s="36">
+      <c r="F84" s="37">
         <v>45376</v>
       </c>
-      <c r="G84" s="37" t="s">
+      <c r="G84" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="H84" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="I84" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="J84" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M84" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N84" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="O84" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P84" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="40"/>
+      <c r="S84" s="44" t="s">
+        <v>609</v>
+      </c>
+      <c r="T84" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A85" s="34">
+        <v>123</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F85" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G85" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="H85" s="38" t="s">
+        <v>613</v>
+      </c>
+      <c r="I85" s="38" t="s">
+        <v>614</v>
+      </c>
+      <c r="J85" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K85" s="39"/>
+      <c r="L85" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M85" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N85" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="O85" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P85" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="40"/>
+      <c r="S85" s="44" t="s">
+        <v>612</v>
+      </c>
+      <c r="T85" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="315.75" thickBot="1">
+      <c r="A86" s="34">
+        <v>124</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G86" s="38" t="s">
+        <v>669</v>
+      </c>
+      <c r="H86" s="38" t="s">
+        <v>616</v>
+      </c>
+      <c r="I86" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="J86" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M86" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N86" s="39" t="s">
+        <v>618</v>
+      </c>
+      <c r="O86" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P86" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q86" s="39"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="44" t="s">
+        <v>615</v>
+      </c>
+      <c r="T86" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="300.75" thickBot="1">
+      <c r="A87" s="34">
+        <v>125</v>
+      </c>
+      <c r="B87" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="F87" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>670</v>
+      </c>
+      <c r="H87" s="38" t="s">
+        <v>620</v>
+      </c>
+      <c r="I87" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="J87" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K87" s="39"/>
+      <c r="L87" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M87" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N87" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="O87" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P87" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q87" s="39"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="44" t="s">
+        <v>619</v>
+      </c>
+      <c r="T87" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="300.75" thickBot="1">
+      <c r="A88" s="34">
+        <v>126</v>
+      </c>
+      <c r="B88" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E88" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="F88" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G88" s="38" t="s">
+        <v>671</v>
+      </c>
+      <c r="H88" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="I88" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="J88" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M88" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N88" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="O88" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P88" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="44" t="s">
+        <v>622</v>
+      </c>
+      <c r="T88" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A89" s="34">
+        <v>127</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F89" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G89" s="38" t="s">
+        <v>672</v>
+      </c>
+      <c r="H89" s="38" t="s">
+        <v>626</v>
+      </c>
+      <c r="I89" s="38" t="s">
+        <v>627</v>
+      </c>
+      <c r="J89" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M89" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N89" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="O89" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P89" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="44" t="s">
+        <v>625</v>
+      </c>
+      <c r="T89" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="315.75" thickBot="1">
+      <c r="A90" s="34">
+        <v>128</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F90" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G90" s="38" t="s">
+        <v>673</v>
+      </c>
+      <c r="H90" s="38" t="s">
+        <v>629</v>
+      </c>
+      <c r="I90" s="38" t="s">
+        <v>630</v>
+      </c>
+      <c r="J90" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M90" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N90" s="39" t="s">
+        <v>631</v>
+      </c>
+      <c r="O90" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P90" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="40"/>
+      <c r="S90" s="44" t="s">
+        <v>628</v>
+      </c>
+      <c r="T90" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="345.75" thickBot="1">
+      <c r="A91" s="34">
+        <v>129</v>
+      </c>
+      <c r="B91" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="E91" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="F91" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G91" s="38" t="s">
+        <v>674</v>
+      </c>
+      <c r="H91" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="I91" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="J91" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M91" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N91" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="O91" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P91" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="40"/>
+      <c r="S91" s="44" t="s">
+        <v>632</v>
+      </c>
+      <c r="T91" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="330.75" thickBot="1">
+      <c r="A92" s="34">
+        <v>130</v>
+      </c>
+      <c r="B92" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="E92" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F92" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G92" s="38" t="s">
         <v>675</v>
       </c>
-      <c r="H84" s="37" t="s">
-        <v>616</v>
-      </c>
-      <c r="I84" s="37" t="s">
-        <v>617</v>
-      </c>
-      <c r="J84" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M84" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N84" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="O84" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P84" s="38" t="s">
+      <c r="H92" s="38" t="s">
+        <v>637</v>
+      </c>
+      <c r="I92" s="38" t="s">
+        <v>638</v>
+      </c>
+      <c r="J92" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K92" s="39"/>
+      <c r="L92" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M92" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N92" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="O92" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P92" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="39"/>
-      <c r="S84" s="43" t="s">
-        <v>615</v>
-      </c>
-      <c r="T84" s="41" t="s">
+      <c r="Q92" s="39"/>
+      <c r="R92" s="40"/>
+      <c r="S92" s="44" t="s">
+        <v>636</v>
+      </c>
+      <c r="T92" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="274.2" thickBot="1">
-      <c r="A85" s="33">
-        <v>123</v>
-      </c>
-      <c r="B85" s="34" t="s">
+    <row r="93" spans="1:20" ht="270.75" thickBot="1">
+      <c r="A93" s="34">
+        <v>131</v>
+      </c>
+      <c r="B93" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C93" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="F85" s="36">
+      <c r="D93" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="F93" s="37">
         <v>45376</v>
       </c>
-      <c r="G85" s="37" t="s">
+      <c r="G93" s="38" t="s">
         <v>676</v>
       </c>
-      <c r="H85" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="I85" s="37" t="s">
-        <v>620</v>
-      </c>
-      <c r="J85" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M85" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N85" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="O85" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P85" s="38" t="s">
+      <c r="H93" s="38" t="s">
+        <v>640</v>
+      </c>
+      <c r="I93" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="J93" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M93" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N93" s="39" t="s">
+        <v>642</v>
+      </c>
+      <c r="O93" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P93" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="39"/>
-      <c r="S85" s="43" t="s">
-        <v>618</v>
-      </c>
-      <c r="T85" s="41" t="s">
+      <c r="Q93" s="39"/>
+      <c r="R93" s="40"/>
+      <c r="S93" s="44" t="s">
+        <v>639</v>
+      </c>
+      <c r="T93" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="303" thickBot="1">
-      <c r="A86" s="33">
-        <v>124</v>
-      </c>
-      <c r="B86" s="34" t="s">
+    <row r="94" spans="1:20" ht="315.75" thickBot="1">
+      <c r="A94" s="34">
+        <v>132</v>
+      </c>
+      <c r="B94" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C94" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="E86" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="F86" s="36">
+      <c r="D94" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E94" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="F94" s="37">
         <v>45376</v>
       </c>
-      <c r="G86" s="37" t="s">
+      <c r="G94" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="H86" s="37" t="s">
-        <v>622</v>
-      </c>
-      <c r="I86" s="37" t="s">
-        <v>623</v>
-      </c>
-      <c r="J86" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M86" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N86" s="38" t="s">
-        <v>624</v>
-      </c>
-      <c r="O86" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P86" s="38" t="s">
+      <c r="H94" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="I94" s="38" t="s">
+        <v>645</v>
+      </c>
+      <c r="J94" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M94" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N94" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="O94" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P94" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q86" s="38"/>
-      <c r="R86" s="39"/>
-      <c r="S86" s="43" t="s">
-        <v>621</v>
-      </c>
-      <c r="T86" s="41" t="s">
+      <c r="Q94" s="39"/>
+      <c r="R94" s="40"/>
+      <c r="S94" s="44" t="s">
+        <v>643</v>
+      </c>
+      <c r="T94" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="274.2" thickBot="1">
-      <c r="A87" s="33">
-        <v>125</v>
-      </c>
-      <c r="B87" s="34" t="s">
+    <row r="95" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A95" s="34">
+        <v>133</v>
+      </c>
+      <c r="B95" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="C95" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D87" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="E87" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="F87" s="36">
+      <c r="D95" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="E95" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F95" s="37">
         <v>45376</v>
       </c>
-      <c r="G87" s="37" t="s">
+      <c r="G95" s="38" t="s">
         <v>678</v>
       </c>
-      <c r="H87" s="37" t="s">
-        <v>626</v>
-      </c>
-      <c r="I87" s="37" t="s">
-        <v>627</v>
-      </c>
-      <c r="J87" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M87" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N87" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="O87" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P87" s="38" t="s">
+      <c r="H95" s="38" t="s">
+        <v>648</v>
+      </c>
+      <c r="I95" s="38" t="s">
+        <v>649</v>
+      </c>
+      <c r="J95" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K95" s="39"/>
+      <c r="L95" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M95" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N95" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="O95" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P95" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q87" s="38"/>
-      <c r="R87" s="39"/>
-      <c r="S87" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="T87" s="41" t="s">
+      <c r="Q95" s="39"/>
+      <c r="R95" s="40"/>
+      <c r="S95" s="44" t="s">
+        <v>647</v>
+      </c>
+      <c r="T95" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="259.8" thickBot="1">
-      <c r="A88" s="33">
-        <v>126</v>
-      </c>
-      <c r="B88" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C88" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D88" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="E88" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="F88" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G88" s="37" t="s">
-        <v>679</v>
-      </c>
-      <c r="H88" s="37" t="s">
-        <v>629</v>
-      </c>
-      <c r="I88" s="37" t="s">
-        <v>630</v>
-      </c>
-      <c r="J88" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M88" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N88" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="O88" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P88" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q88" s="38"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="T88" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="259.8" thickBot="1">
-      <c r="A89" s="33">
-        <v>127</v>
-      </c>
-      <c r="B89" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C89" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D89" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="E89" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="F89" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G89" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="H89" s="37" t="s">
-        <v>632</v>
-      </c>
-      <c r="I89" s="37" t="s">
-        <v>633</v>
-      </c>
-      <c r="J89" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M89" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N89" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="O89" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P89" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q89" s="38"/>
-      <c r="R89" s="39"/>
-      <c r="S89" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="T89" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="303" thickBot="1">
-      <c r="A90" s="33">
-        <v>128</v>
-      </c>
-      <c r="B90" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D90" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E90" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="F90" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G90" s="37" t="s">
-        <v>681</v>
-      </c>
-      <c r="H90" s="37" t="s">
-        <v>635</v>
-      </c>
-      <c r="I90" s="37" t="s">
-        <v>636</v>
-      </c>
-      <c r="J90" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M90" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N90" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="O90" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P90" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q90" s="38"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="T90" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="317.39999999999998" thickBot="1">
-      <c r="A91" s="33">
-        <v>129</v>
-      </c>
-      <c r="B91" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C91" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D91" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="E91" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="F91" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G91" s="37" t="s">
-        <v>682</v>
-      </c>
-      <c r="H91" s="37" t="s">
-        <v>639</v>
-      </c>
-      <c r="I91" s="37" t="s">
-        <v>640</v>
-      </c>
-      <c r="J91" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K91" s="38"/>
-      <c r="L91" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M91" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N91" s="38" t="s">
-        <v>641</v>
-      </c>
-      <c r="O91" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P91" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q91" s="38"/>
-      <c r="R91" s="39"/>
-      <c r="S91" s="43" t="s">
-        <v>638</v>
-      </c>
-      <c r="T91" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="317.39999999999998" thickBot="1">
-      <c r="A92" s="33">
-        <v>130</v>
-      </c>
-      <c r="B92" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C92" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D92" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="E92" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="F92" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G92" s="37" t="s">
-        <v>683</v>
-      </c>
-      <c r="H92" s="37" t="s">
-        <v>643</v>
-      </c>
-      <c r="I92" s="37" t="s">
-        <v>644</v>
-      </c>
-      <c r="J92" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K92" s="38"/>
-      <c r="L92" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M92" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N92" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="O92" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P92" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q92" s="38"/>
-      <c r="R92" s="39"/>
-      <c r="S92" s="43" t="s">
-        <v>642</v>
-      </c>
-      <c r="T92" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="245.4" thickBot="1">
-      <c r="A93" s="33">
-        <v>131</v>
-      </c>
-      <c r="B93" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C93" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D93" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="E93" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="F93" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G93" s="37" t="s">
-        <v>684</v>
-      </c>
-      <c r="H93" s="37" t="s">
-        <v>646</v>
-      </c>
-      <c r="I93" s="37" t="s">
-        <v>647</v>
-      </c>
-      <c r="J93" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K93" s="38"/>
-      <c r="L93" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M93" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N93" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="O93" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P93" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q93" s="38"/>
-      <c r="R93" s="39"/>
-      <c r="S93" s="43" t="s">
-        <v>645</v>
-      </c>
-      <c r="T93" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" ht="288.60000000000002" thickBot="1">
-      <c r="A94" s="33">
-        <v>132</v>
-      </c>
-      <c r="B94" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C94" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D94" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="E94" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="F94" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G94" s="37" t="s">
-        <v>685</v>
-      </c>
-      <c r="H94" s="37" t="s">
-        <v>650</v>
-      </c>
-      <c r="I94" s="37" t="s">
-        <v>651</v>
-      </c>
-      <c r="J94" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M94" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N94" s="38" t="s">
-        <v>652</v>
-      </c>
-      <c r="O94" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P94" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q94" s="38"/>
-      <c r="R94" s="39"/>
-      <c r="S94" s="43" t="s">
-        <v>649</v>
-      </c>
-      <c r="T94" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="274.2" thickBot="1">
-      <c r="A95" s="33">
-        <v>133</v>
-      </c>
-      <c r="B95" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D95" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="E95" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="F95" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G95" s="37" t="s">
-        <v>686</v>
-      </c>
-      <c r="H95" s="37" t="s">
-        <v>654</v>
-      </c>
-      <c r="I95" s="37" t="s">
-        <v>655</v>
-      </c>
-      <c r="J95" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M95" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N95" s="38" t="s">
-        <v>656</v>
-      </c>
-      <c r="O95" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P95" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q95" s="38"/>
-      <c r="R95" s="39"/>
-      <c r="S95" s="43" t="s">
-        <v>653</v>
-      </c>
-      <c r="T95" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="101.4" thickBot="1">
+    <row r="96" spans="1:20" ht="105.75" thickBot="1">
       <c r="A96" s="20">
         <v>134</v>
       </c>
@@ -11173,7 +11169,7 @@
         <v>363</v>
       </c>
       <c r="K96" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L96" s="25"/>
       <c r="M96" s="25"/>
@@ -11187,7 +11183,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="101.4" thickBot="1">
+    <row r="97" spans="1:20" ht="105.75" thickBot="1">
       <c r="A97" s="20">
         <v>135</v>
       </c>
@@ -11211,7 +11207,7 @@
         <v>363</v>
       </c>
       <c r="K97" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L97" s="25"/>
       <c r="M97" s="25"/>
@@ -11225,7 +11221,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="101.4" thickBot="1">
+    <row r="98" spans="1:20" ht="105.75" thickBot="1">
       <c r="A98" s="20">
         <v>136</v>
       </c>
@@ -11249,7 +11245,7 @@
         <v>363</v>
       </c>
       <c r="K98" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L98" s="25"/>
       <c r="M98" s="25"/>
@@ -11263,7 +11259,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="115.8" thickBot="1">
+    <row r="99" spans="1:20" ht="120.75" thickBot="1">
       <c r="A99" s="20">
         <v>137</v>
       </c>
@@ -11287,7 +11283,7 @@
         <v>363</v>
       </c>
       <c r="K99" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L99" s="25"/>
       <c r="M99" s="25"/>
@@ -11301,7 +11297,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="101.4" thickBot="1">
+    <row r="100" spans="1:20" ht="105.75" thickBot="1">
       <c r="A100" s="20">
         <v>138</v>
       </c>
@@ -11325,7 +11321,7 @@
         <v>363</v>
       </c>
       <c r="K100" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L100" s="25"/>
       <c r="M100" s="25"/>
@@ -11339,119 +11335,119 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="288.60000000000002" thickBot="1">
-      <c r="A101" s="33">
+    <row r="101" spans="1:20" ht="300.75" thickBot="1">
+      <c r="A101" s="34">
         <v>139</v>
       </c>
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C101" s="34" t="s">
+      <c r="C101" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D101" s="34" t="s">
+      <c r="D101" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="E101" s="35" t="s">
+      <c r="E101" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="F101" s="36">
+      <c r="F101" s="37">
         <v>45376</v>
       </c>
-      <c r="G101" s="37" t="s">
-        <v>687</v>
-      </c>
-      <c r="H101" s="37" t="s">
-        <v>658</v>
-      </c>
-      <c r="I101" s="37" t="s">
-        <v>659</v>
-      </c>
-      <c r="J101" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K101" s="38"/>
-      <c r="L101" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M101" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N101" s="38" t="s">
-        <v>660</v>
-      </c>
-      <c r="O101" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P101" s="38" t="s">
+      <c r="G101" s="38" t="s">
+        <v>679</v>
+      </c>
+      <c r="H101" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="I101" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="J101" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K101" s="39"/>
+      <c r="L101" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M101" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N101" s="39" t="s">
+        <v>654</v>
+      </c>
+      <c r="O101" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P101" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q101" s="38"/>
-      <c r="R101" s="39"/>
-      <c r="S101" s="43" t="s">
-        <v>657</v>
-      </c>
-      <c r="T101" s="41" t="s">
+      <c r="Q101" s="39"/>
+      <c r="R101" s="40"/>
+      <c r="S101" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="T101" s="42" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="409.6" thickBot="1">
-      <c r="A102" s="33">
+      <c r="A102" s="34">
         <v>140</v>
       </c>
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C102" s="34" t="s">
+      <c r="C102" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D102" s="34" t="s">
+      <c r="D102" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="E102" s="35" t="s">
+      <c r="E102" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="F102" s="36">
+      <c r="F102" s="37">
         <v>45377</v>
       </c>
-      <c r="G102" s="37" t="s">
-        <v>706</v>
-      </c>
-      <c r="H102" s="37" t="s">
-        <v>705</v>
-      </c>
-      <c r="I102" s="37" t="s">
-        <v>707</v>
-      </c>
-      <c r="J102" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K102" s="38"/>
-      <c r="L102" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M102" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N102" s="38" t="s">
-        <v>708</v>
-      </c>
-      <c r="O102" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P102" s="38" t="s">
+      <c r="G102" s="38" t="s">
+        <v>698</v>
+      </c>
+      <c r="H102" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="I102" s="38" t="s">
+        <v>699</v>
+      </c>
+      <c r="J102" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K102" s="39"/>
+      <c r="L102" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M102" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N102" s="39" t="s">
+        <v>700</v>
+      </c>
+      <c r="O102" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P102" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q102" s="38"/>
-      <c r="R102" s="39"/>
-      <c r="S102" s="43" t="s">
-        <v>704</v>
-      </c>
-      <c r="T102" s="41" t="s">
+      <c r="Q102" s="39"/>
+      <c r="R102" s="40"/>
+      <c r="S102" s="44" t="s">
+        <v>696</v>
+      </c>
+      <c r="T102" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="115.8" thickBot="1">
+    <row r="103" spans="1:20" ht="120.75" thickBot="1">
       <c r="A103" s="20">
         <v>141</v>
       </c>
@@ -11475,7 +11471,7 @@
         <v>363</v>
       </c>
       <c r="K103" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L103" s="25"/>
       <c r="M103" s="25"/>
@@ -11489,175 +11485,175 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="274.2" thickBot="1">
-      <c r="A104" s="33">
+    <row r="104" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A104" s="34">
         <v>142</v>
       </c>
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C104" s="34" t="s">
+      <c r="C104" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D104" s="34" t="s">
+      <c r="D104" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="E104" s="35" t="s">
+      <c r="E104" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F104" s="36">
+      <c r="F104" s="37">
         <v>45377</v>
       </c>
-      <c r="G104" s="37" t="s">
+      <c r="G104" s="38" t="s">
+        <v>702</v>
+      </c>
+      <c r="H104" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="I104" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="J104" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K104" s="39"/>
+      <c r="L104" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M104" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N104" s="39" t="s">
+        <v>705</v>
+      </c>
+      <c r="O104" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P104" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q104" s="39"/>
+      <c r="R104" s="40"/>
+      <c r="S104" s="44" t="s">
+        <v>701</v>
+      </c>
+      <c r="T104" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A105" s="34">
+        <v>143</v>
+      </c>
+      <c r="B105" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E105" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="F105" s="37">
+        <v>45377</v>
+      </c>
+      <c r="G105" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="H105" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="I105" s="38" t="s">
+        <v>709</v>
+      </c>
+      <c r="J105" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K105" s="39"/>
+      <c r="L105" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M105" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N105" s="39" t="s">
         <v>710</v>
       </c>
-      <c r="H104" s="37" t="s">
+      <c r="O105" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P105" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q105" s="39"/>
+      <c r="R105" s="40"/>
+      <c r="S105" s="44" t="s">
+        <v>706</v>
+      </c>
+      <c r="T105" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A106" s="34">
+        <v>144</v>
+      </c>
+      <c r="B106" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D106" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E106" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="F106" s="37">
+        <v>45377</v>
+      </c>
+      <c r="G106" s="38" t="s">
+        <v>712</v>
+      </c>
+      <c r="H106" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="I106" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="J106" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K106" s="39"/>
+      <c r="L106" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M106" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N106" s="39" t="s">
+        <v>715</v>
+      </c>
+      <c r="O106" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P106" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q106" s="39"/>
+      <c r="R106" s="40"/>
+      <c r="S106" s="44" t="s">
         <v>711</v>
       </c>
-      <c r="I104" s="37" t="s">
-        <v>712</v>
-      </c>
-      <c r="J104" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K104" s="38"/>
-      <c r="L104" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M104" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N104" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="O104" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P104" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q104" s="38"/>
-      <c r="R104" s="39"/>
-      <c r="S104" s="43" t="s">
-        <v>709</v>
-      </c>
-      <c r="T104" s="41" t="s">
+      <c r="T106" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="274.2" thickBot="1">
-      <c r="A105" s="33">
-        <v>143</v>
-      </c>
-      <c r="B105" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C105" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D105" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="E105" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="F105" s="36">
-        <v>45377</v>
-      </c>
-      <c r="G105" s="37" t="s">
-        <v>715</v>
-      </c>
-      <c r="H105" s="37" t="s">
-        <v>716</v>
-      </c>
-      <c r="I105" s="37" t="s">
-        <v>717</v>
-      </c>
-      <c r="J105" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K105" s="38"/>
-      <c r="L105" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M105" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N105" s="38" t="s">
-        <v>718</v>
-      </c>
-      <c r="O105" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P105" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q105" s="38"/>
-      <c r="R105" s="39"/>
-      <c r="S105" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="T105" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" ht="259.8" thickBot="1">
-      <c r="A106" s="33">
-        <v>144</v>
-      </c>
-      <c r="B106" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C106" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D106" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E106" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="F106" s="36">
-        <v>45377</v>
-      </c>
-      <c r="G106" s="37" t="s">
-        <v>720</v>
-      </c>
-      <c r="H106" s="37" t="s">
-        <v>721</v>
-      </c>
-      <c r="I106" s="37" t="s">
-        <v>722</v>
-      </c>
-      <c r="J106" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K106" s="38"/>
-      <c r="L106" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M106" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N106" s="38" t="s">
-        <v>723</v>
-      </c>
-      <c r="O106" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P106" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q106" s="38"/>
-      <c r="R106" s="39"/>
-      <c r="S106" s="43" t="s">
-        <v>719</v>
-      </c>
-      <c r="T106" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" ht="115.8" thickBot="1">
+    <row r="107" spans="1:20" ht="120.75" thickBot="1">
       <c r="A107" s="20">
         <v>145</v>
       </c>
@@ -11681,7 +11677,7 @@
         <v>363</v>
       </c>
       <c r="K107" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L107" s="25"/>
       <c r="M107" s="25"/>
@@ -11695,7 +11691,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="115.8" thickBot="1">
+    <row r="108" spans="1:20" ht="120.75" thickBot="1">
       <c r="A108" s="20">
         <v>146</v>
       </c>
@@ -11719,7 +11715,7 @@
         <v>363</v>
       </c>
       <c r="K108" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L108" s="25"/>
       <c r="M108" s="25"/>
@@ -11733,53 +11729,53 @@
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="159" thickBot="1">
-      <c r="A109" s="33">
+    <row r="109" spans="1:20" ht="165.75" thickBot="1">
+      <c r="A109" s="34">
         <v>147</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C109" s="34" t="s">
+      <c r="C109" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D109" s="34" t="s">
+      <c r="D109" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="E109" s="35" t="s">
+      <c r="E109" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="F109" s="36">
+      <c r="F109" s="37">
         <v>45376</v>
       </c>
-      <c r="G109" s="37" t="s">
-        <v>688</v>
-      </c>
-      <c r="H109" s="37" t="s">
-        <v>573</v>
-      </c>
-      <c r="I109" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="J109" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K109" s="38"/>
-      <c r="L109" s="38"/>
-      <c r="M109" s="38"/>
-      <c r="N109" s="38"/>
-      <c r="O109" s="38"/>
-      <c r="P109" s="38"/>
-      <c r="Q109" s="38"/>
-      <c r="R109" s="39"/>
-      <c r="S109" s="43" t="s">
-        <v>575</v>
-      </c>
-      <c r="T109" s="41" t="s">
+      <c r="G109" s="38" t="s">
+        <v>680</v>
+      </c>
+      <c r="H109" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="I109" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="J109" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K109" s="39"/>
+      <c r="L109" s="39"/>
+      <c r="M109" s="39"/>
+      <c r="N109" s="39"/>
+      <c r="O109" s="39"/>
+      <c r="P109" s="39"/>
+      <c r="Q109" s="39"/>
+      <c r="R109" s="40"/>
+      <c r="S109" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="T109" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="159" thickBot="1">
+    <row r="110" spans="1:20" ht="165.75" thickBot="1">
       <c r="A110" s="20">
         <v>148</v>
       </c>
@@ -11803,7 +11799,7 @@
         <v>363</v>
       </c>
       <c r="K110" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L110" s="25"/>
       <c r="M110" s="25"/>
@@ -11817,7 +11813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="159" thickBot="1">
+    <row r="111" spans="1:20" ht="165.75" thickBot="1">
       <c r="A111" s="20">
         <v>149</v>
       </c>
@@ -11841,7 +11837,7 @@
         <v>363</v>
       </c>
       <c r="K111" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L111" s="25"/>
       <c r="M111" s="25"/>
@@ -11855,7 +11851,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="159" thickBot="1">
+    <row r="112" spans="1:20" ht="165.75" thickBot="1">
       <c r="A112" s="20">
         <v>150</v>
       </c>
@@ -11879,7 +11875,7 @@
         <v>363</v>
       </c>
       <c r="K112" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L112" s="25"/>
       <c r="M112" s="25"/>
@@ -11893,343 +11889,343 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="288.60000000000002" thickBot="1">
-      <c r="A113" s="33">
+    <row r="113" spans="1:20" ht="315.75" thickBot="1">
+      <c r="A113" s="34">
         <v>151</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C113" s="34" t="s">
+      <c r="C113" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D113" s="34" t="s">
+      <c r="D113" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="E113" s="35" t="s">
+      <c r="E113" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="F113" s="36">
+      <c r="F113" s="37">
         <v>45376</v>
       </c>
-      <c r="G113" s="37" t="s">
-        <v>689</v>
-      </c>
-      <c r="H113" s="37" t="s">
+      <c r="G113" s="38" t="s">
+        <v>681</v>
+      </c>
+      <c r="H113" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="I113" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="J113" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K113" s="39"/>
+      <c r="L113" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M113" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N113" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="O113" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P113" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q113" s="39"/>
+      <c r="R113" s="40"/>
+      <c r="S113" s="44" t="s">
+        <v>572</v>
+      </c>
+      <c r="T113" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A114" s="34">
+        <v>152</v>
+      </c>
+      <c r="B114" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E114" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="F114" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G114" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="H114" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="I114" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="J114" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K114" s="39"/>
+      <c r="L114" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M114" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N114" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="O114" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P114" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q114" s="39"/>
+      <c r="R114" s="40"/>
+      <c r="S114" s="44" t="s">
+        <v>573</v>
+      </c>
+      <c r="T114" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="330.75" thickBot="1">
+      <c r="A115" s="34">
+        <v>153</v>
+      </c>
+      <c r="B115" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D115" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E115" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="F115" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G115" s="38" t="s">
+        <v>683</v>
+      </c>
+      <c r="H115" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="I115" s="38" t="s">
+        <v>578</v>
+      </c>
+      <c r="J115" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K115" s="39"/>
+      <c r="L115" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M115" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N115" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="O115" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P115" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q115" s="39"/>
+      <c r="R115" s="40"/>
+      <c r="S115" s="44" t="s">
         <v>576</v>
       </c>
-      <c r="I113" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="J113" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K113" s="38"/>
-      <c r="L113" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M113" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N113" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="O113" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P113" s="38" t="s">
+      <c r="T115" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" ht="300.75" thickBot="1">
+      <c r="A116" s="34">
+        <v>154</v>
+      </c>
+      <c r="B116" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="E116" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="F116" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G116" s="38" t="s">
+        <v>684</v>
+      </c>
+      <c r="H116" s="38" t="s">
+        <v>581</v>
+      </c>
+      <c r="I116" s="38" t="s">
+        <v>582</v>
+      </c>
+      <c r="J116" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K116" s="39"/>
+      <c r="L116" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M116" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N116" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="O116" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P116" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q113" s="38"/>
-      <c r="R113" s="39"/>
-      <c r="S113" s="43" t="s">
-        <v>578</v>
-      </c>
-      <c r="T113" s="41" t="s">
+      <c r="Q116" s="39"/>
+      <c r="R116" s="40"/>
+      <c r="S116" s="44" t="s">
+        <v>580</v>
+      </c>
+      <c r="T116" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="274.2" thickBot="1">
-      <c r="A114" s="33">
-        <v>152</v>
-      </c>
-      <c r="B114" s="34" t="s">
+    <row r="117" spans="1:20" ht="300.75" thickBot="1">
+      <c r="A117" s="34">
+        <v>155</v>
+      </c>
+      <c r="B117" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C114" s="34" t="s">
+      <c r="C117" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D114" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="E114" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F114" s="36">
+      <c r="D117" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="E117" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="F117" s="37">
         <v>45376</v>
       </c>
-      <c r="G114" s="37" t="s">
-        <v>690</v>
-      </c>
-      <c r="H114" s="37" t="s">
-        <v>580</v>
-      </c>
-      <c r="I114" s="37" t="s">
-        <v>581</v>
-      </c>
-      <c r="J114" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K114" s="38"/>
-      <c r="L114" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M114" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N114" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="O114" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P114" s="38" t="s">
+      <c r="G117" s="38" t="s">
+        <v>685</v>
+      </c>
+      <c r="H117" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="I117" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="J117" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K117" s="39"/>
+      <c r="L117" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M117" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N117" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="O117" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P117" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q114" s="38"/>
-      <c r="R114" s="39"/>
-      <c r="S114" s="43" t="s">
-        <v>579</v>
-      </c>
-      <c r="T114" s="41" t="s">
+      <c r="Q117" s="39"/>
+      <c r="R117" s="40"/>
+      <c r="S117" s="44" t="s">
+        <v>584</v>
+      </c>
+      <c r="T117" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="288.60000000000002" thickBot="1">
-      <c r="A115" s="33">
-        <v>153</v>
-      </c>
-      <c r="B115" s="34" t="s">
+    <row r="118" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A118" s="34">
+        <v>156</v>
+      </c>
+      <c r="B118" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C115" s="34" t="s">
+      <c r="C118" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D115" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="E115" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="F115" s="36">
+      <c r="D118" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="E118" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="F118" s="37">
         <v>45376</v>
       </c>
-      <c r="G115" s="37" t="s">
-        <v>691</v>
-      </c>
-      <c r="H115" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="I115" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="J115" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K115" s="38"/>
-      <c r="L115" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M115" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N115" s="38" t="s">
-        <v>585</v>
-      </c>
-      <c r="O115" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P115" s="38" t="s">
+      <c r="G118" s="38" t="s">
+        <v>686</v>
+      </c>
+      <c r="H118" s="38" t="s">
+        <v>589</v>
+      </c>
+      <c r="I118" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="J118" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K118" s="39"/>
+      <c r="L118" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M118" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N118" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="O118" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P118" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q115" s="38"/>
-      <c r="R115" s="39"/>
-      <c r="S115" s="43" t="s">
-        <v>582</v>
-      </c>
-      <c r="T115" s="41" t="s">
+      <c r="Q118" s="39"/>
+      <c r="R118" s="40"/>
+      <c r="S118" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="T118" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="274.2" thickBot="1">
-      <c r="A116" s="33">
-        <v>154</v>
-      </c>
-      <c r="B116" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C116" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D116" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="E116" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F116" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G116" s="37" t="s">
-        <v>692</v>
-      </c>
-      <c r="H116" s="37" t="s">
-        <v>587</v>
-      </c>
-      <c r="I116" s="37" t="s">
-        <v>588</v>
-      </c>
-      <c r="J116" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K116" s="38"/>
-      <c r="L116" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M116" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N116" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="O116" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P116" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q116" s="38"/>
-      <c r="R116" s="39"/>
-      <c r="S116" s="43" t="s">
-        <v>586</v>
-      </c>
-      <c r="T116" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" ht="259.8" thickBot="1">
-      <c r="A117" s="33">
-        <v>155</v>
-      </c>
-      <c r="B117" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C117" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D117" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="E117" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="F117" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G117" s="37" t="s">
-        <v>693</v>
-      </c>
-      <c r="H117" s="37" t="s">
-        <v>591</v>
-      </c>
-      <c r="I117" s="37" t="s">
-        <v>592</v>
-      </c>
-      <c r="J117" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K117" s="38"/>
-      <c r="L117" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M117" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N117" s="38" t="s">
-        <v>593</v>
-      </c>
-      <c r="O117" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P117" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q117" s="38"/>
-      <c r="R117" s="39"/>
-      <c r="S117" s="43" t="s">
-        <v>590</v>
-      </c>
-      <c r="T117" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" ht="259.8" thickBot="1">
-      <c r="A118" s="33">
-        <v>156</v>
-      </c>
-      <c r="B118" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C118" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D118" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="E118" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="F118" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G118" s="37" t="s">
-        <v>694</v>
-      </c>
-      <c r="H118" s="37" t="s">
-        <v>595</v>
-      </c>
-      <c r="I118" s="37" t="s">
-        <v>596</v>
-      </c>
-      <c r="J118" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K118" s="38"/>
-      <c r="L118" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M118" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N118" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="O118" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P118" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q118" s="38"/>
-      <c r="R118" s="39"/>
-      <c r="S118" s="43" t="s">
-        <v>594</v>
-      </c>
-      <c r="T118" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" ht="115.8" thickBot="1">
+    <row r="119" spans="1:20" ht="135.75" thickBot="1">
       <c r="A119" s="20">
         <v>157</v>
       </c>
@@ -12253,7 +12249,7 @@
         <v>363</v>
       </c>
       <c r="K119" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L119" s="25"/>
       <c r="M119" s="25"/>
@@ -12267,231 +12263,231 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="288.60000000000002" thickBot="1">
-      <c r="A120" s="33">
+    <row r="120" spans="1:20" ht="315.75" thickBot="1">
+      <c r="A120" s="34">
         <v>158</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C120" s="34" t="s">
+      <c r="C120" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D120" s="34" t="s">
+      <c r="D120" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="E120" s="35" t="s">
+      <c r="E120" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="F120" s="36">
+      <c r="F120" s="37">
         <v>45376</v>
       </c>
-      <c r="G120" s="37" t="s">
-        <v>695</v>
-      </c>
-      <c r="H120" s="37" t="s">
+      <c r="G120" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="H120" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="I120" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="J120" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K120" s="39"/>
+      <c r="L120" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M120" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N120" s="39" t="s">
+        <v>594</v>
+      </c>
+      <c r="O120" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P120" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q120" s="39"/>
+      <c r="R120" s="40"/>
+      <c r="S120" s="44" t="s">
+        <v>591</v>
+      </c>
+      <c r="T120" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" ht="345.75" thickBot="1">
+      <c r="A121" s="34">
+        <v>159</v>
+      </c>
+      <c r="B121" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D121" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="E121" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="F121" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G121" s="38" t="s">
+        <v>688</v>
+      </c>
+      <c r="H121" s="38" t="s">
+        <v>596</v>
+      </c>
+      <c r="I121" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="J121" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K121" s="39"/>
+      <c r="L121" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M121" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N121" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="O121" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P121" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q121" s="39"/>
+      <c r="R121" s="40"/>
+      <c r="S121" s="44" t="s">
+        <v>595</v>
+      </c>
+      <c r="T121" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="345.75" thickBot="1">
+      <c r="A122" s="34">
+        <v>160</v>
+      </c>
+      <c r="B122" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D122" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E122" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="F122" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G122" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="H122" s="38" t="s">
+        <v>599</v>
+      </c>
+      <c r="I122" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="J122" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K122" s="39"/>
+      <c r="L122" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M122" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N122" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="O122" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P122" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q122" s="39"/>
+      <c r="R122" s="40"/>
+      <c r="S122" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="I120" s="37" t="s">
-        <v>599</v>
-      </c>
-      <c r="J120" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K120" s="38"/>
-      <c r="L120" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M120" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N120" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="O120" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P120" s="38" t="s">
+      <c r="T122" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" ht="330.75" thickBot="1">
+      <c r="A123" s="34">
+        <v>161</v>
+      </c>
+      <c r="B123" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D123" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E123" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="F123" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G123" s="38" t="s">
+        <v>690</v>
+      </c>
+      <c r="H123" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="I123" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="J123" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K123" s="39"/>
+      <c r="L123" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M123" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N123" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="O123" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P123" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q120" s="38"/>
-      <c r="R120" s="39"/>
-      <c r="S120" s="43" t="s">
-        <v>597</v>
-      </c>
-      <c r="T120" s="41" t="s">
+      <c r="Q123" s="39"/>
+      <c r="R123" s="40"/>
+      <c r="S123" s="44" t="s">
+        <v>602</v>
+      </c>
+      <c r="T123" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="317.39999999999998" thickBot="1">
-      <c r="A121" s="33">
-        <v>159</v>
-      </c>
-      <c r="B121" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C121" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D121" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="E121" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="F121" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G121" s="37" t="s">
-        <v>696</v>
-      </c>
-      <c r="H121" s="37" t="s">
-        <v>602</v>
-      </c>
-      <c r="I121" s="37" t="s">
-        <v>603</v>
-      </c>
-      <c r="J121" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K121" s="38"/>
-      <c r="L121" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M121" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N121" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="O121" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P121" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q121" s="38"/>
-      <c r="R121" s="39"/>
-      <c r="S121" s="43" t="s">
-        <v>601</v>
-      </c>
-      <c r="T121" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" ht="331.8" thickBot="1">
-      <c r="A122" s="33">
-        <v>160</v>
-      </c>
-      <c r="B122" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C122" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D122" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="E122" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="F122" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G122" s="37" t="s">
-        <v>697</v>
-      </c>
-      <c r="H122" s="37" t="s">
-        <v>605</v>
-      </c>
-      <c r="I122" s="37" t="s">
-        <v>606</v>
-      </c>
-      <c r="J122" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K122" s="38"/>
-      <c r="L122" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M122" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N122" s="38" t="s">
-        <v>607</v>
-      </c>
-      <c r="O122" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P122" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q122" s="38"/>
-      <c r="R122" s="39"/>
-      <c r="S122" s="43" t="s">
-        <v>604</v>
-      </c>
-      <c r="T122" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" ht="317.39999999999998" thickBot="1">
-      <c r="A123" s="33">
-        <v>161</v>
-      </c>
-      <c r="B123" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C123" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D123" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="E123" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="F123" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G123" s="37" t="s">
-        <v>698</v>
-      </c>
-      <c r="H123" s="37" t="s">
-        <v>609</v>
-      </c>
-      <c r="I123" s="37" t="s">
-        <v>610</v>
-      </c>
-      <c r="J123" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K123" s="38"/>
-      <c r="L123" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M123" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N123" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="O123" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P123" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q123" s="38"/>
-      <c r="R123" s="39"/>
-      <c r="S123" s="43" t="s">
-        <v>608</v>
-      </c>
-      <c r="T123" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" ht="115.8" thickBot="1">
+    <row r="124" spans="1:20" ht="135.75" thickBot="1">
       <c r="A124" s="20">
         <v>162</v>
       </c>
@@ -12515,7 +12511,7 @@
         <v>363</v>
       </c>
       <c r="K124" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L124" s="25"/>
       <c r="M124" s="25"/>
@@ -12529,7 +12525,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="115.8" thickBot="1">
+    <row r="125" spans="1:20" ht="135.75" thickBot="1">
       <c r="A125" s="20">
         <v>163</v>
       </c>
@@ -12553,7 +12549,7 @@
         <v>363</v>
       </c>
       <c r="K125" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L125" s="25"/>
       <c r="M125" s="25"/>
@@ -12567,7 +12563,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="115.8" thickBot="1">
+    <row r="126" spans="1:20" ht="135.75" thickBot="1">
       <c r="A126" s="20">
         <v>164</v>
       </c>
@@ -12591,7 +12587,7 @@
         <v>363</v>
       </c>
       <c r="K126" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L126" s="25"/>
       <c r="M126" s="25"/>
@@ -12605,7 +12601,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="115.8" thickBot="1">
+    <row r="127" spans="1:20" ht="135.75" thickBot="1">
       <c r="A127" s="20">
         <v>165</v>
       </c>
@@ -12629,7 +12625,7 @@
         <v>363</v>
       </c>
       <c r="K127" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L127" s="25"/>
       <c r="M127" s="25"/>
@@ -12643,7 +12639,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="115.8" thickBot="1">
+    <row r="128" spans="1:20" ht="135.75" thickBot="1">
       <c r="A128" s="20">
         <v>166</v>
       </c>
@@ -12667,7 +12663,7 @@
         <v>363</v>
       </c>
       <c r="K128" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L128" s="25"/>
       <c r="M128" s="25"/>
@@ -12681,7 +12677,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="115.8" thickBot="1">
+    <row r="129" spans="1:20" ht="135.75" thickBot="1">
       <c r="A129" s="20">
         <v>167</v>
       </c>
@@ -12705,7 +12701,7 @@
         <v>363</v>
       </c>
       <c r="K129" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L129" s="25"/>
       <c r="M129" s="25"/>
@@ -12719,7 +12715,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="115.8" thickBot="1">
+    <row r="130" spans="1:20" ht="135.75" thickBot="1">
       <c r="A130" s="20">
         <v>168</v>
       </c>
@@ -12743,7 +12739,7 @@
         <v>363</v>
       </c>
       <c r="K130" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L130" s="25"/>
       <c r="M130" s="25"/>
@@ -12757,63 +12753,63 @@
         <v>88</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="259.8" thickBot="1">
-      <c r="A131" s="33">
+    <row r="131" spans="1:20" ht="285.75" thickBot="1">
+      <c r="A131" s="34">
         <v>169</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C131" s="34" t="s">
+      <c r="C131" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D131" s="34" t="s">
+      <c r="D131" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="E131" s="35" t="s">
+      <c r="E131" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="F131" s="36">
+      <c r="F131" s="37">
         <v>45376</v>
       </c>
-      <c r="G131" s="37" t="s">
-        <v>699</v>
-      </c>
-      <c r="H131" s="37" t="s">
-        <v>612</v>
-      </c>
-      <c r="I131" s="37" t="s">
-        <v>613</v>
-      </c>
-      <c r="J131" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K131" s="38"/>
-      <c r="L131" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="M131" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="N131" s="38" t="s">
-        <v>614</v>
-      </c>
-      <c r="O131" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P131" s="38" t="s">
+      <c r="G131" s="38" t="s">
+        <v>691</v>
+      </c>
+      <c r="H131" s="38" t="s">
+        <v>606</v>
+      </c>
+      <c r="I131" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="J131" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K131" s="39"/>
+      <c r="L131" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M131" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N131" s="39" t="s">
+        <v>608</v>
+      </c>
+      <c r="O131" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P131" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="Q131" s="38"/>
-      <c r="R131" s="39"/>
-      <c r="S131" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="T131" s="41" t="s">
+      <c r="Q131" s="39"/>
+      <c r="R131" s="40"/>
+      <c r="S131" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="T131" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="144.6" thickBot="1">
+    <row r="132" spans="1:20" ht="150.75" thickBot="1">
       <c r="A132" s="20">
         <v>191</v>
       </c>
@@ -12833,11 +12829,11 @@
       <c r="G132" s="24"/>
       <c r="H132" s="24"/>
       <c r="I132" s="24"/>
-      <c r="J132" s="45" t="s">
+      <c r="J132" s="46" t="s">
         <v>363</v>
       </c>
       <c r="K132" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L132" s="25"/>
       <c r="M132" s="25"/>
@@ -12851,237 +12847,237 @@
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="144.6" thickBot="1">
-      <c r="A133" s="33">
+    <row r="133" spans="1:20" ht="165.75" thickBot="1">
+      <c r="A133" s="34">
         <v>368</v>
       </c>
-      <c r="B133" s="34" t="s">
+      <c r="B133" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C133" s="34" t="s">
+      <c r="C133" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D133" s="34" t="s">
+      <c r="D133" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="E133" s="35" t="s">
+      <c r="E133" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="F133" s="37">
+      <c r="F133" s="38">
         <v>45374</v>
       </c>
-      <c r="G133" s="49" t="s">
+      <c r="G133" s="50" t="s">
         <v>509</v>
       </c>
-      <c r="H133" s="47" t="s">
+      <c r="H133" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="I133" s="37" t="s">
+      <c r="I133" s="38" t="s">
         <v>474</v>
       </c>
-      <c r="J133" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K133" s="38"/>
-      <c r="L133" s="38"/>
-      <c r="M133" s="38"/>
-      <c r="N133" s="38"/>
-      <c r="O133" s="38"/>
-      <c r="P133" s="38"/>
-      <c r="Q133" s="38"/>
-      <c r="R133" s="39"/>
-      <c r="S133" s="40" t="s">
+      <c r="J133" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K133" s="39"/>
+      <c r="L133" s="39"/>
+      <c r="M133" s="39"/>
+      <c r="N133" s="39"/>
+      <c r="O133" s="39"/>
+      <c r="P133" s="39"/>
+      <c r="Q133" s="39"/>
+      <c r="R133" s="40"/>
+      <c r="S133" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="T133" s="41" t="s">
+      <c r="T133" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="202.2" thickBot="1">
-      <c r="A134" s="33">
+    <row r="134" spans="1:20" ht="225.75" thickBot="1">
+      <c r="A134" s="34">
         <v>369</v>
       </c>
-      <c r="B134" s="34" t="s">
+      <c r="B134" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C134" s="34" t="s">
+      <c r="C134" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D134" s="34" t="s">
+      <c r="D134" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="E134" s="35" t="s">
+      <c r="E134" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="F134" s="37">
+      <c r="F134" s="38">
         <v>45376</v>
       </c>
-      <c r="G134" s="59" t="s">
-        <v>700</v>
-      </c>
-      <c r="H134" s="47" t="s">
+      <c r="G134" s="60" t="s">
+        <v>692</v>
+      </c>
+      <c r="H134" s="48" t="s">
         <v>525</v>
       </c>
-      <c r="I134" s="37" t="s">
+      <c r="I134" s="38" t="s">
         <v>526</v>
       </c>
-      <c r="J134" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K134" s="38"/>
-      <c r="L134" s="38"/>
-      <c r="M134" s="38"/>
-      <c r="N134" s="38"/>
-      <c r="O134" s="38"/>
-      <c r="P134" s="38"/>
-      <c r="Q134" s="38"/>
-      <c r="R134" s="39"/>
-      <c r="S134" s="43" t="s">
+      <c r="J134" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K134" s="39"/>
+      <c r="L134" s="39"/>
+      <c r="M134" s="39"/>
+      <c r="N134" s="39"/>
+      <c r="O134" s="39"/>
+      <c r="P134" s="39"/>
+      <c r="Q134" s="39"/>
+      <c r="R134" s="40"/>
+      <c r="S134" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="T134" s="41" t="s">
+      <c r="T134" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="187.8" thickBot="1">
-      <c r="A135" s="33">
+    <row r="135" spans="1:20" ht="195.75" thickBot="1">
+      <c r="A135" s="34">
         <v>370</v>
       </c>
-      <c r="B135" s="34" t="s">
+      <c r="B135" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C135" s="34" t="s">
+      <c r="C135" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D135" s="34" t="s">
+      <c r="D135" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="E135" s="35" t="s">
+      <c r="E135" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="F135" s="37">
+      <c r="F135" s="38">
         <v>45374</v>
       </c>
-      <c r="G135" s="49" t="s">
+      <c r="G135" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="H135" s="47" t="s">
+      <c r="H135" s="48" t="s">
         <v>470</v>
       </c>
-      <c r="I135" s="37" t="s">
+      <c r="I135" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="J135" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K135" s="38"/>
-      <c r="L135" s="38"/>
-      <c r="M135" s="38"/>
-      <c r="N135" s="38"/>
-      <c r="O135" s="38"/>
-      <c r="P135" s="38"/>
-      <c r="Q135" s="38"/>
-      <c r="R135" s="39"/>
-      <c r="S135" s="40" t="s">
+      <c r="J135" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K135" s="39"/>
+      <c r="L135" s="39"/>
+      <c r="M135" s="39"/>
+      <c r="N135" s="39"/>
+      <c r="O135" s="39"/>
+      <c r="P135" s="39"/>
+      <c r="Q135" s="39"/>
+      <c r="R135" s="40"/>
+      <c r="S135" s="41" t="s">
         <v>472</v>
       </c>
-      <c r="T135" s="41" t="s">
+      <c r="T135" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="144.6" thickBot="1">
-      <c r="A136" s="33">
+    <row r="136" spans="1:20" ht="150.75" thickBot="1">
+      <c r="A136" s="34">
         <v>373</v>
       </c>
-      <c r="B136" s="34" t="s">
+      <c r="B136" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C136" s="34" t="s">
+      <c r="C136" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D136" s="34" t="s">
+      <c r="D136" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="E136" s="35" t="s">
+      <c r="E136" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="F136" s="36">
+      <c r="F136" s="37">
         <v>45376</v>
       </c>
-      <c r="G136" s="37" t="s">
-        <v>701</v>
-      </c>
-      <c r="H136" s="37" t="s">
+      <c r="G136" s="38" t="s">
+        <v>693</v>
+      </c>
+      <c r="H136" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="I136" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="J136" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K136" s="39"/>
+      <c r="L136" s="39"/>
+      <c r="M136" s="39"/>
+      <c r="N136" s="39"/>
+      <c r="O136" s="39"/>
+      <c r="P136" s="39"/>
+      <c r="Q136" s="39"/>
+      <c r="R136" s="40"/>
+      <c r="S136" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="T136" s="42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="165.75" thickBot="1">
+      <c r="A137" s="34">
+        <v>374</v>
+      </c>
+      <c r="B137" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D137" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="E137" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="F137" s="37">
+        <v>45376</v>
+      </c>
+      <c r="G137" s="38" t="s">
+        <v>694</v>
+      </c>
+      <c r="H137" s="38" t="s">
         <v>564</v>
       </c>
-      <c r="I136" s="37" t="s">
+      <c r="I137" s="38" t="s">
         <v>565</v>
       </c>
-      <c r="J136" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K136" s="38"/>
-      <c r="L136" s="38"/>
-      <c r="M136" s="38"/>
-      <c r="N136" s="38"/>
-      <c r="O136" s="38"/>
-      <c r="P136" s="38"/>
-      <c r="Q136" s="38"/>
-      <c r="R136" s="39"/>
-      <c r="S136" s="43" t="s">
+      <c r="J137" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K137" s="39"/>
+      <c r="L137" s="39"/>
+      <c r="M137" s="39"/>
+      <c r="N137" s="39"/>
+      <c r="O137" s="39"/>
+      <c r="P137" s="39"/>
+      <c r="Q137" s="39"/>
+      <c r="R137" s="40"/>
+      <c r="S137" s="44" t="s">
         <v>566</v>
       </c>
-      <c r="T136" s="41" t="s">
+      <c r="T137" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="159" thickBot="1">
-      <c r="A137" s="33">
-        <v>374</v>
-      </c>
-      <c r="B137" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C137" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D137" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="E137" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="F137" s="36">
-        <v>45376</v>
-      </c>
-      <c r="G137" s="37" t="s">
-        <v>702</v>
-      </c>
-      <c r="H137" s="37" t="s">
-        <v>570</v>
-      </c>
-      <c r="I137" s="37" t="s">
-        <v>571</v>
-      </c>
-      <c r="J137" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K137" s="38"/>
-      <c r="L137" s="38"/>
-      <c r="M137" s="38"/>
-      <c r="N137" s="38"/>
-      <c r="O137" s="38"/>
-      <c r="P137" s="38"/>
-      <c r="Q137" s="38"/>
-      <c r="R137" s="39"/>
-      <c r="S137" s="43" t="s">
-        <v>572</v>
-      </c>
-      <c r="T137" s="41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" ht="144">
+    <row r="138" spans="1:20" ht="165">
       <c r="A138" s="20">
         <v>376</v>
       </c>
@@ -13105,7 +13101,7 @@
         <v>363</v>
       </c>
       <c r="K138" s="25" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L138" s="25"/>
       <c r="M138" s="25"/>
@@ -17814,13 +17810,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="102" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
@@ -17907,7 +17903,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.4">
+    <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
         <v>77</v>
       </c>
@@ -17921,7 +17917,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4">
+    <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
         <v>94</v>
       </c>
@@ -17935,7 +17931,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.4">
+    <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
         <v>91</v>
       </c>
@@ -17949,7 +17945,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2">
+    <row r="10" spans="1:4" ht="45">
       <c r="A10" s="11" t="s">
         <v>329</v>
       </c>
@@ -19485,34 +19481,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="33" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="33" t="s">
         <v>363</v>
       </c>
     </row>

--- a/GATEWAY/A1#111GARASOFTWAREXX/Gara_Software/AnaSanPlus/V1/report-checklist.xlsx
+++ b/GATEWAY/A1#111GARASOFTWAREXX/Gara_Software/AnaSanPlus/V1/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Massimo\Desktop\Lavoro\FSE\Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\AnaSan\FSE\FSE 2\Accreditamento\V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C948627-2F3D-4EB9-8A82-DC67C38CED43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7162DD-3484-448C-BEA5-7B0F43E5878A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="724">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3954,8 +3954,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="72">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4044,7 +4044,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4129,7 +4128,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -4445,10 +4444,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="130.140625" customWidth="1"/>
-    <col min="2" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="130.109375" customWidth="1"/>
+    <col min="2" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
@@ -5511,11 +5510,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="194.140625" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="194.109375" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
@@ -5531,7 +5530,7 @@
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="14.4">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -5539,7 +5538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
+    <row r="5" spans="1:2" ht="28.8">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -5547,7 +5546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="14.4">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75">
+    <row r="7" spans="1:2" ht="72">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -5563,7 +5562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="14.4">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -5571,7 +5570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="14.4">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="14.4">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -5587,7 +5586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
+    <row r="11" spans="1:2" ht="43.2">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -6609,26 +6608,26 @@
   <dimension ref="A1:T755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="104.85546875" customWidth="1"/>
-    <col min="6" max="9" width="33.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" customWidth="1"/>
-    <col min="17" max="17" width="33.140625" customWidth="1"/>
-    <col min="18" max="18" width="36.42578125" customWidth="1"/>
-    <col min="19" max="20" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="5" max="5" width="104.88671875" customWidth="1"/>
+    <col min="6" max="9" width="33.109375" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" customWidth="1"/>
+    <col min="11" max="15" width="36.44140625" customWidth="1"/>
+    <col min="16" max="16" width="27.109375" customWidth="1"/>
+    <col min="17" max="17" width="33.109375" customWidth="1"/>
+    <col min="18" max="18" width="36.44140625" customWidth="1"/>
+    <col min="19" max="20" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
@@ -6650,12 +6649,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="63"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -6673,14 +6672,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="71" t="s">
         <v>364</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="63"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -6698,12 +6697,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="72" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="71" t="s">
         <v>365</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -6722,12 +6721,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="64"/>
+      <c r="D5" s="63"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -6745,8 +6744,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -6863,145 +6862,145 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="165.75" thickBot="1">
-      <c r="A10" s="34">
+    <row r="10" spans="1:20" ht="144.6" thickBot="1">
+      <c r="A10" s="33">
         <v>1</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>45370</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>494</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="37" t="s">
         <v>425</v>
       </c>
-      <c r="J10" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="41" t="s">
+      <c r="J10" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="40" t="s">
         <v>426</v>
       </c>
-      <c r="T10" s="42" t="s">
+      <c r="T10" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="165.75" thickBot="1">
-      <c r="A11" s="34">
+    <row r="11" spans="1:20" ht="144.6" thickBot="1">
+      <c r="A11" s="33">
         <v>2</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="37">
         <v>45370</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="49" t="s">
         <v>495</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="J11" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="41" t="s">
+      <c r="J11" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="40" t="s">
         <v>434</v>
       </c>
-      <c r="T11" s="42" t="s">
+      <c r="T11" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="165.75" thickBot="1">
-      <c r="A12" s="34">
+    <row r="12" spans="1:20" ht="144.6" thickBot="1">
+      <c r="A12" s="33">
         <v>3</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>45374</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="49" t="s">
         <v>496</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="47" t="s">
         <v>476</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="37" t="s">
         <v>477</v>
       </c>
-      <c r="J12" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="41" t="s">
+      <c r="J12" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="T12" s="42" t="s">
+      <c r="T12" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="165.75" thickBot="1">
+    <row r="13" spans="1:20" ht="144.6" thickBot="1">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -7018,7 +7017,7 @@
         <v>54</v>
       </c>
       <c r="F13" s="23"/>
-      <c r="G13" s="51"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="25" t="s">
@@ -7039,7 +7038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="165.75" thickBot="1">
+    <row r="14" spans="1:20" ht="144.6" thickBot="1">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -7056,7 +7055,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="49"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="25" t="s">
@@ -7077,53 +7076,53 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="150.75" thickBot="1">
-      <c r="A15" s="34">
+    <row r="15" spans="1:20" ht="144.6" thickBot="1">
+      <c r="A15" s="33">
         <v>6</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="37">
         <v>45379</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="59" t="s">
         <v>717</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="47" t="s">
         <v>718</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="37" t="s">
         <v>719</v>
       </c>
-      <c r="J15" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="44" t="s">
+      <c r="J15" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="43" t="s">
         <v>716</v>
       </c>
-      <c r="T15" s="42" t="s">
+      <c r="T15" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="150.75" thickBot="1">
+    <row r="16" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A16" s="20">
         <v>7</v>
       </c>
@@ -7140,7 +7139,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="23"/>
-      <c r="G16" s="51"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="25" t="s">
@@ -7161,7 +7160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="150.75" thickBot="1">
+    <row r="17" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A17" s="20">
         <v>8</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="150.75" thickBot="1">
+    <row r="18" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A18" s="20">
         <v>9</v>
       </c>
@@ -7216,7 +7215,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="23"/>
-      <c r="G18" s="49"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="25" t="s">
@@ -7238,98 +7237,98 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="153.75" customHeight="1" thickBot="1">
-      <c r="A19" s="34">
+      <c r="A19" s="33">
         <v>11</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <v>45367</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="J19" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="41" t="s">
+      <c r="J19" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="T19" s="42" t="s">
+      <c r="T19" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="164.25" customHeight="1" thickBot="1">
-      <c r="A20" s="34">
+      <c r="A20" s="33">
         <v>12</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="36">
         <v>45369</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="J20" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="41" t="s">
+      <c r="J20" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="40" t="s">
         <v>415</v>
       </c>
-      <c r="T20" s="42" t="s">
+      <c r="T20" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="135.75" thickBot="1">
+    <row r="21" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A21" s="20">
         <v>13</v>
       </c>
@@ -7349,7 +7348,7 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K21" s="25" t="s">
@@ -7369,7 +7368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="135.75" thickBot="1">
+    <row r="22" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A22" s="20">
         <v>14</v>
       </c>
@@ -7389,7 +7388,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="46" t="s">
+      <c r="J22" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K22" s="25" t="s">
@@ -7407,53 +7406,53 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="150.75" thickBot="1">
-      <c r="A23" s="34">
+    <row r="23" spans="1:20" ht="144.6" thickBot="1">
+      <c r="A23" s="33">
         <v>24</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="36">
         <v>45379</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="37" t="s">
         <v>721</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="37" t="s">
         <v>722</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="37" t="s">
         <v>723</v>
       </c>
-      <c r="J23" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="44" t="s">
+      <c r="J23" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="43" t="s">
         <v>720</v>
       </c>
-      <c r="T23" s="42" t="s">
+      <c r="T23" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="150.75" thickBot="1">
+    <row r="24" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A24" s="20">
         <v>25</v>
       </c>
@@ -7491,7 +7490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="150.75" thickBot="1">
+    <row r="25" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A25" s="20">
         <v>26</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="150.75" thickBot="1">
+    <row r="26" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A26" s="20">
         <v>27</v>
       </c>
@@ -7546,7 +7545,7 @@
         <v>85</v>
       </c>
       <c r="F26" s="23"/>
-      <c r="G26" s="49"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="25" t="s">
@@ -7567,1357 +7566,1357 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="225.75" thickBot="1">
-      <c r="A27" s="34">
+    <row r="27" spans="1:20" ht="202.2" thickBot="1">
+      <c r="A27" s="33">
         <v>28</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="37">
         <v>45370</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="49" t="s">
         <v>497</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J27" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M27" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N27" s="43" t="s">
+      <c r="J27" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="38"/>
+      <c r="L27" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M27" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N27" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="O27" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P27" s="43" t="s">
+      <c r="O27" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="41" t="s">
+      <c r="Q27" s="38"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="40" t="s">
         <v>428</v>
       </c>
-      <c r="T27" s="42" t="s">
+      <c r="T27" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="225.75" thickBot="1">
-      <c r="A28" s="34">
+    <row r="28" spans="1:20" ht="202.2" thickBot="1">
+      <c r="A28" s="33">
         <v>29</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="37">
         <v>45374</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="49" t="s">
         <v>511</v>
       </c>
-      <c r="H28" s="48" t="s">
+      <c r="H28" s="47" t="s">
         <v>510</v>
       </c>
-      <c r="I28" s="38" t="s">
+      <c r="I28" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J28" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K28" s="39"/>
-      <c r="L28" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M28" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N28" s="43" t="s">
+      <c r="J28" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="38"/>
+      <c r="L28" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M28" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N28" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="O28" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P28" s="43" t="s">
+      <c r="O28" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="41" t="s">
+      <c r="Q28" s="38"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="40" t="s">
         <v>512</v>
       </c>
-      <c r="T28" s="42" t="s">
+      <c r="T28" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="225.75" thickBot="1">
-      <c r="A29" s="34">
+    <row r="29" spans="1:20" ht="202.2" thickBot="1">
+      <c r="A29" s="33">
         <v>31</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="37">
         <v>45367</v>
       </c>
-      <c r="G29" s="50" t="s">
+      <c r="G29" s="49" t="s">
         <v>481</v>
       </c>
-      <c r="H29" s="48" t="s">
+      <c r="H29" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="I29" s="38" t="s">
+      <c r="I29" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J29" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K29" s="39"/>
-      <c r="L29" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M29" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N29" s="43" t="s">
+      <c r="J29" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="38"/>
+      <c r="L29" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M29" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N29" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="O29" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P29" s="43" t="s">
+      <c r="O29" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="41" t="s">
+      <c r="Q29" s="38"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="T29" s="42" t="s">
+      <c r="T29" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="225.75" thickBot="1">
-      <c r="A30" s="34">
+    <row r="30" spans="1:20" ht="202.2" thickBot="1">
+      <c r="A30" s="33">
         <v>32</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="37">
         <v>45374</v>
       </c>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="49" t="s">
         <v>517</v>
       </c>
-      <c r="H30" s="48" t="s">
+      <c r="H30" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="I30" s="38" t="s">
+      <c r="I30" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J30" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K30" s="39"/>
-      <c r="L30" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M30" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N30" s="39" t="s">
+      <c r="J30" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="38"/>
+      <c r="L30" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M30" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N30" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="O30" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P30" s="39" t="s">
+      <c r="O30" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P30" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="41" t="s">
+      <c r="Q30" s="38"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="40" t="s">
         <v>518</v>
       </c>
-      <c r="T30" s="42" t="s">
+      <c r="T30" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="150.75" customHeight="1" thickBot="1">
-      <c r="A31" s="34">
+      <c r="A31" s="33">
         <v>35</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="37">
         <v>45374</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="54" t="s">
         <v>655</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="47" t="s">
         <v>521</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J31" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K31" s="39"/>
-      <c r="L31" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M31" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N31" s="39" t="s">
+      <c r="J31" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" s="38"/>
+      <c r="L31" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M31" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N31" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="O31" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P31" s="39" t="s">
+      <c r="O31" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P31" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="41" t="s">
+      <c r="Q31" s="38"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="T31" s="42" t="s">
+      <c r="T31" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="210.75" customHeight="1" thickBot="1">
-      <c r="A32" s="34">
+      <c r="A32" s="33">
         <v>36</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="37">
         <v>45370</v>
       </c>
-      <c r="G32" s="50" t="s">
+      <c r="G32" s="49" t="s">
         <v>498</v>
       </c>
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="47" t="s">
         <v>429</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J32" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K32" s="39"/>
-      <c r="L32" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M32" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N32" s="43" t="s">
+      <c r="J32" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" s="38"/>
+      <c r="L32" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M32" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N32" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="O32" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P32" s="39" t="s">
+      <c r="O32" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="41" t="s">
+      <c r="Q32" s="38"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="40" t="s">
         <v>431</v>
       </c>
-      <c r="T32" s="42" t="s">
+      <c r="T32" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="165.75" customHeight="1" thickBot="1">
-      <c r="A33" s="34">
+      <c r="A33" s="33">
         <v>37</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="36">
         <v>45374</v>
       </c>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="53" t="s">
         <v>514</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="37" t="s">
         <v>513</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="I33" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J33" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K33" s="39"/>
-      <c r="L33" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M33" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N33" s="43" t="s">
+      <c r="J33" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="38"/>
+      <c r="L33" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N33" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="O33" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P33" s="43" t="s">
+      <c r="O33" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P33" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="41" t="s">
+      <c r="Q33" s="38"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="T33" s="42" t="s">
+      <c r="T33" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="210.75" customHeight="1" thickBot="1">
-      <c r="A34" s="34">
+      <c r="A34" s="33">
         <v>39</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="36">
         <v>45367</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="46" t="s">
         <v>482</v>
       </c>
-      <c r="H34" s="38" t="s">
+      <c r="H34" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="I34" s="38" t="s">
+      <c r="I34" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J34" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K34" s="39"/>
-      <c r="L34" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M34" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N34" s="43" t="s">
+      <c r="J34" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K34" s="38"/>
+      <c r="L34" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M34" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N34" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="O34" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P34" s="43" t="s">
+      <c r="O34" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="41" t="s">
+      <c r="Q34" s="38"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="T34" s="42" t="s">
+      <c r="T34" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="165.75" customHeight="1" thickBot="1">
-      <c r="A35" s="34">
+      <c r="A35" s="33">
         <v>40</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="36">
         <v>45374</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="44" t="s">
         <v>656</v>
       </c>
-      <c r="H35" s="38" t="s">
+      <c r="H35" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="I35" s="38" t="s">
+      <c r="I35" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J35" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K35" s="39"/>
-      <c r="L35" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M35" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N35" s="39" t="s">
+      <c r="J35" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K35" s="38"/>
+      <c r="L35" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M35" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N35" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="O35" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P35" s="39" t="s">
+      <c r="O35" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P35" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="41" t="s">
+      <c r="Q35" s="38"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="40" t="s">
         <v>520</v>
       </c>
-      <c r="T35" s="42" t="s">
+      <c r="T35" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="165.75" customHeight="1" thickBot="1">
-      <c r="A36" s="34">
+      <c r="A36" s="33">
         <v>43</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="37">
         <v>45374</v>
       </c>
-      <c r="G36" s="55" t="s">
+      <c r="G36" s="54" t="s">
         <v>657</v>
       </c>
-      <c r="H36" s="48" t="s">
+      <c r="H36" s="47" t="s">
         <v>523</v>
       </c>
-      <c r="I36" s="38" t="s">
+      <c r="I36" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="J36" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K36" s="39"/>
-      <c r="L36" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M36" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N36" s="39" t="s">
+      <c r="J36" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="38"/>
+      <c r="L36" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M36" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N36" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="O36" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P36" s="39" t="s">
+      <c r="O36" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P36" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="41" t="s">
+      <c r="Q36" s="38"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="T36" s="42" t="s">
+      <c r="T36" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="60.75" thickBot="1">
-      <c r="A37" s="34">
+    <row r="37" spans="1:20" ht="58.2" thickBot="1">
+      <c r="A37" s="33">
         <v>44</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M37" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N37" s="39" t="s">
+      <c r="F37" s="36"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M37" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N37" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="O37" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P37" s="39" t="s">
+      <c r="O37" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P37" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="S37" s="44"/>
-      <c r="T37" s="42" t="s">
+      <c r="Q37" s="38"/>
+      <c r="R37" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="S37" s="43"/>
+      <c r="T37" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A38" s="34">
+      <c r="A38" s="33">
         <v>45</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M38" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N38" s="43" t="s">
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M38" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N38" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="O38" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P38" s="43" t="s">
+      <c r="O38" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P38" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="S38" s="44"/>
-      <c r="T38" s="42" t="s">
+      <c r="Q38" s="38"/>
+      <c r="R38" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="S38" s="43"/>
+      <c r="T38" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="60.75" thickBot="1">
-      <c r="A39" s="34">
+    <row r="39" spans="1:20" ht="58.2" thickBot="1">
+      <c r="A39" s="33">
         <v>47</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M39" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N39" s="43" t="s">
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M39" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N39" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="O39" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P39" s="43" t="s">
+      <c r="O39" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P39" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="S39" s="44"/>
-      <c r="T39" s="42" t="s">
+      <c r="Q39" s="38"/>
+      <c r="R39" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="S39" s="43"/>
+      <c r="T39" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="60.75" thickBot="1">
-      <c r="A40" s="34">
+    <row r="40" spans="1:20" ht="58.2" thickBot="1">
+      <c r="A40" s="33">
         <v>48</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M40" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N40" s="39" t="s">
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M40" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N40" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="O40" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P40" s="39" t="s">
+      <c r="O40" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P40" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="S40" s="44"/>
-      <c r="T40" s="42" t="s">
+      <c r="Q40" s="38"/>
+      <c r="R40" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="S40" s="43"/>
+      <c r="T40" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="60.75" thickBot="1">
-      <c r="A41" s="34">
+    <row r="41" spans="1:20" ht="58.2" thickBot="1">
+      <c r="A41" s="33">
         <v>51</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M41" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N41" s="39" t="s">
+      <c r="F41" s="36"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M41" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N41" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="O41" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P41" s="39" t="s">
+      <c r="O41" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P41" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="S41" s="44"/>
-      <c r="T41" s="42" t="s">
+      <c r="Q41" s="38"/>
+      <c r="R41" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="S41" s="43"/>
+      <c r="T41" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A42" s="34">
+    <row r="42" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A42" s="33">
         <v>52</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="37">
         <v>45370</v>
       </c>
-      <c r="G42" s="50" t="s">
+      <c r="G42" s="49" t="s">
         <v>499</v>
       </c>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="I42" s="38" t="s">
+      <c r="I42" s="37" t="s">
         <v>436</v>
       </c>
-      <c r="J42" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K42" s="39"/>
-      <c r="L42" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M42" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N42" s="43" t="s">
+      <c r="J42" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" s="38"/>
+      <c r="L42" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M42" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N42" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="O42" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P42" s="43" t="s">
+      <c r="O42" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P42" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="44" t="s">
+      <c r="Q42" s="38"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="43" t="s">
         <v>437</v>
       </c>
-      <c r="T42" s="42" t="s">
+      <c r="T42" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A43" s="34">
+    <row r="43" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A43" s="33">
         <v>53</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="37">
         <v>45370</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="H43" s="48" t="s">
+      <c r="H43" s="47" t="s">
         <v>438</v>
       </c>
-      <c r="I43" s="38" t="s">
+      <c r="I43" s="37" t="s">
         <v>439</v>
       </c>
-      <c r="J43" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K43" s="39"/>
-      <c r="L43" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M43" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N43" s="43" t="s">
+      <c r="J43" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K43" s="38"/>
+      <c r="L43" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M43" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N43" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="O43" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P43" s="43" t="s">
+      <c r="O43" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P43" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="41" t="s">
+      <c r="Q43" s="38"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="40" t="s">
         <v>440</v>
       </c>
-      <c r="T43" s="42" t="s">
+      <c r="T43" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A44" s="34">
+    <row r="44" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A44" s="33">
         <v>54</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="37">
         <v>45370</v>
       </c>
-      <c r="G44" s="50" t="s">
+      <c r="G44" s="49" t="s">
         <v>501</v>
       </c>
-      <c r="H44" s="48" t="s">
+      <c r="H44" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="I44" s="38" t="s">
+      <c r="I44" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="J44" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K44" s="39"/>
-      <c r="L44" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M44" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N44" s="43" t="s">
+      <c r="J44" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" s="38"/>
+      <c r="L44" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M44" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N44" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="O44" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P44" s="43" t="s">
+      <c r="O44" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P44" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="41" t="s">
+      <c r="Q44" s="38"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="T44" s="42" t="s">
+      <c r="T44" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A45" s="34">
+    <row r="45" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A45" s="33">
         <v>55</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="37">
         <v>45370</v>
       </c>
-      <c r="G45" s="50" t="s">
+      <c r="G45" s="49" t="s">
         <v>502</v>
       </c>
-      <c r="H45" s="48" t="s">
+      <c r="H45" s="47" t="s">
         <v>444</v>
       </c>
-      <c r="I45" s="38" t="s">
+      <c r="I45" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="J45" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K45" s="39"/>
-      <c r="L45" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M45" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N45" s="43" t="s">
+      <c r="J45" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K45" s="38"/>
+      <c r="L45" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M45" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N45" s="42" t="s">
         <v>446</v>
       </c>
-      <c r="O45" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P45" s="43" t="s">
+      <c r="O45" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P45" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="41" t="s">
+      <c r="Q45" s="38"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="T45" s="42" t="s">
+      <c r="T45" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A46" s="34">
+    <row r="46" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A46" s="33">
         <v>56</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="37">
         <v>45370</v>
       </c>
-      <c r="G46" s="50" t="s">
+      <c r="G46" s="49" t="s">
         <v>503</v>
       </c>
-      <c r="H46" s="48" t="s">
+      <c r="H46" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="I46" s="38" t="s">
+      <c r="I46" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="J46" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K46" s="39"/>
-      <c r="L46" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M46" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N46" s="43" t="s">
+      <c r="J46" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K46" s="38"/>
+      <c r="L46" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M46" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N46" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="O46" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P46" s="43" t="s">
+      <c r="O46" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P46" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="41" t="s">
+      <c r="Q46" s="38"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="T46" s="42" t="s">
+      <c r="T46" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A47" s="34">
+    <row r="47" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A47" s="33">
         <v>57</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="37">
         <v>45370</v>
       </c>
-      <c r="G47" s="50" t="s">
+      <c r="G47" s="49" t="s">
         <v>504</v>
       </c>
-      <c r="H47" s="48" t="s">
+      <c r="H47" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="I47" s="38" t="s">
+      <c r="I47" s="37" t="s">
         <v>453</v>
       </c>
-      <c r="J47" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K47" s="39"/>
-      <c r="L47" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M47" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N47" s="43" t="s">
+      <c r="J47" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" s="38"/>
+      <c r="L47" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M47" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N47" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="O47" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P47" s="43" t="s">
+      <c r="O47" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P47" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="41" t="s">
+      <c r="Q47" s="38"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="40" t="s">
         <v>454</v>
       </c>
-      <c r="T47" s="42" t="s">
+      <c r="T47" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A48" s="34">
+    <row r="48" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A48" s="33">
         <v>58</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="37">
         <v>45371</v>
       </c>
-      <c r="G48" s="50" t="s">
+      <c r="G48" s="49" t="s">
         <v>505</v>
       </c>
-      <c r="H48" s="48" t="s">
+      <c r="H48" s="47" t="s">
         <v>455</v>
       </c>
-      <c r="I48" s="38" t="s">
+      <c r="I48" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="J48" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K48" s="39"/>
-      <c r="L48" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M48" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N48" s="43" t="s">
+      <c r="J48" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K48" s="38"/>
+      <c r="L48" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M48" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N48" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="O48" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P48" s="43" t="s">
+      <c r="O48" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P48" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="41" t="s">
+      <c r="Q48" s="38"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="40" t="s">
         <v>458</v>
       </c>
-      <c r="T48" s="42" t="s">
+      <c r="T48" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="345.75" thickBot="1">
-      <c r="A49" s="34">
+    <row r="49" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A49" s="33">
         <v>59</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="37">
         <v>45371</v>
       </c>
-      <c r="G49" s="50" t="s">
+      <c r="G49" s="49" t="s">
         <v>506</v>
       </c>
-      <c r="H49" s="53" t="s">
+      <c r="H49" s="52" t="s">
         <v>459</v>
       </c>
-      <c r="I49" s="38" t="s">
+      <c r="I49" s="37" t="s">
         <v>460</v>
       </c>
-      <c r="J49" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K49" s="39"/>
-      <c r="L49" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M49" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N49" s="43" t="s">
+      <c r="J49" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K49" s="38"/>
+      <c r="L49" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M49" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N49" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="O49" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P49" s="43" t="s">
+      <c r="O49" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P49" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="41" t="s">
+      <c r="Q49" s="38"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="T49" s="42" t="s">
+      <c r="T49" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="409.6" thickBot="1">
-      <c r="A50" s="34">
+      <c r="A50" s="33">
         <v>60</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50" s="37">
         <v>45371</v>
       </c>
-      <c r="G50" s="50" t="s">
+      <c r="G50" s="49" t="s">
         <v>507</v>
       </c>
-      <c r="H50" s="48" t="s">
+      <c r="H50" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="I50" s="38" t="s">
+      <c r="I50" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="J50" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K50" s="39"/>
-      <c r="L50" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M50" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N50" s="43" t="s">
+      <c r="J50" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K50" s="38"/>
+      <c r="L50" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M50" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N50" s="42" t="s">
         <v>464</v>
       </c>
-      <c r="O50" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P50" s="43" t="s">
+      <c r="O50" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P50" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="41" t="s">
+      <c r="Q50" s="38"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="T50" s="42" t="s">
+      <c r="T50" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A51" s="34">
+    <row r="51" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A51" s="33">
         <v>61</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="36" t="s">
+      <c r="E51" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="37">
         <v>45371</v>
       </c>
-      <c r="G51" s="50" t="s">
+      <c r="G51" s="49" t="s">
         <v>508</v>
       </c>
-      <c r="H51" s="48" t="s">
+      <c r="H51" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="I51" s="38" t="s">
+      <c r="I51" s="37" t="s">
         <v>467</v>
       </c>
-      <c r="J51" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K51" s="39"/>
-      <c r="L51" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M51" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N51" s="43" t="s">
+      <c r="J51" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" s="38"/>
+      <c r="L51" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M51" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N51" s="42" t="s">
         <v>468</v>
       </c>
-      <c r="O51" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P51" s="39" t="s">
+      <c r="O51" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P51" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="41" t="s">
+      <c r="Q51" s="38"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="T51" s="42" t="s">
+      <c r="T51" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="120.75" thickBot="1">
+    <row r="52" spans="1:20" ht="115.8" thickBot="1">
       <c r="A52" s="20">
         <v>62</v>
       </c>
@@ -8934,10 +8933,10 @@
         <v>137</v>
       </c>
       <c r="F52" s="23"/>
-      <c r="G52" s="51"/>
+      <c r="G52" s="50"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
-      <c r="J52" s="46" t="s">
+      <c r="J52" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K52" s="25" t="s">
@@ -8955,455 +8954,455 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A53" s="34">
+    <row r="53" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A53" s="33">
         <v>63</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="36">
         <v>45376</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="G53" s="37" t="s">
         <v>658</v>
       </c>
-      <c r="H53" s="38" t="s">
+      <c r="H53" s="37" t="s">
         <v>528</v>
       </c>
-      <c r="I53" s="38" t="s">
+      <c r="I53" s="37" t="s">
         <v>529</v>
       </c>
-      <c r="J53" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M53" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N53" s="39" t="s">
+      <c r="J53" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M53" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N53" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="O53" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P53" s="39" t="s">
+      <c r="O53" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P53" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="44" t="s">
+      <c r="Q53" s="38"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="T53" s="42" t="s">
+      <c r="T53" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A54" s="34">
+    <row r="54" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A54" s="33">
         <v>64</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="36">
         <v>45376</v>
       </c>
-      <c r="G54" s="38" t="s">
+      <c r="G54" s="37" t="s">
         <v>659</v>
       </c>
-      <c r="H54" s="38" t="s">
+      <c r="H54" s="37" t="s">
         <v>531</v>
       </c>
-      <c r="I54" s="38" t="s">
+      <c r="I54" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="J54" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M54" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N54" s="39" t="s">
+      <c r="J54" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M54" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N54" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="O54" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P54" s="39" t="s">
+      <c r="O54" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P54" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="44" t="s">
+      <c r="Q54" s="38"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="43" t="s">
         <v>533</v>
       </c>
-      <c r="T54" s="42" t="s">
+      <c r="T54" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="360.75" thickBot="1">
-      <c r="A55" s="34">
+    <row r="55" spans="1:20" ht="346.2" thickBot="1">
+      <c r="A55" s="33">
         <v>65</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="E55" s="36" t="s">
+      <c r="E55" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="36">
         <v>45376</v>
       </c>
-      <c r="G55" s="38" t="s">
+      <c r="G55" s="37" t="s">
         <v>660</v>
       </c>
-      <c r="H55" s="38" t="s">
+      <c r="H55" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="I55" s="38" t="s">
+      <c r="I55" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="J55" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M55" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N55" s="39" t="s">
+      <c r="J55" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M55" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N55" s="38" t="s">
         <v>536</v>
       </c>
-      <c r="O55" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P55" s="39" t="s">
+      <c r="O55" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P55" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="44" t="s">
+      <c r="Q55" s="38"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="43" t="s">
         <v>537</v>
       </c>
-      <c r="T55" s="42" t="s">
+      <c r="T55" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="360.75" thickBot="1">
-      <c r="A56" s="34">
+    <row r="56" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A56" s="33">
         <v>66</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="36">
         <v>45376</v>
       </c>
-      <c r="G56" s="38" t="s">
+      <c r="G56" s="37" t="s">
         <v>661</v>
       </c>
-      <c r="H56" s="38" t="s">
+      <c r="H56" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="I56" s="38" t="s">
+      <c r="I56" s="37" t="s">
         <v>539</v>
       </c>
-      <c r="J56" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M56" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N56" s="39" t="s">
+      <c r="J56" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M56" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N56" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="O56" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P56" s="39" t="s">
+      <c r="O56" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P56" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="44" t="s">
+      <c r="Q56" s="38"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="43" t="s">
         <v>541</v>
       </c>
-      <c r="T56" s="42" t="s">
+      <c r="T56" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="360.75" thickBot="1">
-      <c r="A57" s="34">
+    <row r="57" spans="1:20" ht="303" thickBot="1">
+      <c r="A57" s="33">
         <v>67</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="E57" s="36" t="s">
+      <c r="E57" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="36">
         <v>45376</v>
       </c>
-      <c r="G57" s="38" t="s">
+      <c r="G57" s="37" t="s">
         <v>662</v>
       </c>
-      <c r="H57" s="38" t="s">
+      <c r="H57" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="I57" s="38" t="s">
+      <c r="I57" s="37" t="s">
         <v>543</v>
       </c>
-      <c r="J57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N57" s="39" t="s">
+      <c r="J57" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M57" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N57" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="O57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P57" s="39" t="s">
+      <c r="O57" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P57" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="44" t="s">
+      <c r="Q57" s="38"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="43" t="s">
         <v>545</v>
       </c>
-      <c r="T57" s="42" t="s">
+      <c r="T57" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A58" s="34">
+    <row r="58" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A58" s="33">
         <v>68</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="36">
         <v>45376</v>
       </c>
-      <c r="G58" s="38" t="s">
+      <c r="G58" s="37" t="s">
         <v>663</v>
       </c>
-      <c r="H58" s="38" t="s">
+      <c r="H58" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="I58" s="38" t="s">
+      <c r="I58" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="J58" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M58" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N58" s="39" t="s">
+      <c r="J58" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M58" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N58" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="O58" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P58" s="39" t="s">
+      <c r="O58" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P58" s="38" t="s">
         <v>548</v>
       </c>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="44" t="s">
+      <c r="Q58" s="38"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="43" t="s">
         <v>549</v>
       </c>
-      <c r="T58" s="42" t="s">
+      <c r="T58" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="330.75" thickBot="1">
-      <c r="A59" s="34">
+    <row r="59" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A59" s="33">
         <v>69</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="36" t="s">
+      <c r="E59" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="F59" s="37">
+      <c r="F59" s="36">
         <v>45376</v>
       </c>
-      <c r="G59" s="38" t="s">
+      <c r="G59" s="37" t="s">
         <v>664</v>
       </c>
-      <c r="H59" s="38" t="s">
+      <c r="H59" s="37" t="s">
         <v>550</v>
       </c>
-      <c r="I59" s="38" t="s">
+      <c r="I59" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="J59" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M59" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N59" s="39" t="s">
+      <c r="J59" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M59" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N59" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="O59" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P59" s="39" t="s">
+      <c r="O59" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P59" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="44" t="s">
+      <c r="Q59" s="38"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="43" t="s">
         <v>552</v>
       </c>
-      <c r="T59" s="42" t="s">
+      <c r="T59" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A60" s="34">
+    <row r="60" spans="1:20" ht="303" thickBot="1">
+      <c r="A60" s="33">
         <v>70</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="F60" s="37">
+      <c r="F60" s="36">
         <v>45376</v>
       </c>
-      <c r="G60" s="38" t="s">
+      <c r="G60" s="37" t="s">
         <v>665</v>
       </c>
-      <c r="H60" s="38" t="s">
+      <c r="H60" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="I60" s="38" t="s">
+      <c r="I60" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="J60" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M60" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N60" s="39" t="s">
+      <c r="J60" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M60" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N60" s="38" t="s">
         <v>555</v>
       </c>
-      <c r="O60" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P60" s="39" t="s">
+      <c r="O60" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P60" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="44" t="s">
+      <c r="Q60" s="38"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="43" t="s">
         <v>556</v>
       </c>
-      <c r="T60" s="42" t="s">
+      <c r="T60" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="120.75" thickBot="1">
+    <row r="61" spans="1:20" ht="115.8" thickBot="1">
       <c r="A61" s="20">
         <v>71</v>
       </c>
@@ -9441,7 +9440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="120.75" thickBot="1">
+    <row r="62" spans="1:20" ht="115.8" thickBot="1">
       <c r="A62" s="20">
         <v>72</v>
       </c>
@@ -9479,63 +9478,63 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A63" s="34">
+    <row r="63" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A63" s="33">
         <v>73</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="E63" s="36" t="s">
+      <c r="E63" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F63" s="37">
+      <c r="F63" s="36">
         <v>45376</v>
       </c>
-      <c r="G63" s="56" t="s">
+      <c r="G63" s="55" t="s">
         <v>666</v>
       </c>
-      <c r="H63" s="38" t="s">
+      <c r="H63" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="I63" s="38" t="s">
+      <c r="I63" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="J63" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M63" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N63" s="39" t="s">
+      <c r="J63" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M63" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N63" s="38" t="s">
         <v>559</v>
       </c>
-      <c r="O63" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P63" s="39" t="s">
+      <c r="O63" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P63" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="44" t="s">
+      <c r="Q63" s="38"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="43" t="s">
         <v>560</v>
       </c>
-      <c r="T63" s="42" t="s">
+      <c r="T63" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="120.75" thickBot="1">
+    <row r="64" spans="1:20" ht="115.8" thickBot="1">
       <c r="A64" s="20">
         <v>74</v>
       </c>
@@ -9552,8 +9551,8 @@
         <v>161</v>
       </c>
       <c r="F64" s="24"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="57"/>
       <c r="I64" s="24"/>
       <c r="J64" s="25" t="s">
         <v>363</v>
@@ -9574,340 +9573,342 @@
       </c>
     </row>
     <row r="65" spans="1:20" ht="315" customHeight="1" thickBot="1">
-      <c r="A65" s="34">
+      <c r="A65" s="33">
         <v>75</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="E65" s="36" t="s">
+      <c r="E65" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F65" s="37">
         <v>45367</v>
       </c>
-      <c r="G65" s="50" t="s">
+      <c r="G65" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="H65" s="48" t="s">
+      <c r="H65" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="I65" s="38" t="s">
+      <c r="I65" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="J65" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K65" s="39"/>
-      <c r="L65" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M65" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N65" s="43" t="s">
+      <c r="J65" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K65" s="38"/>
+      <c r="L65" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M65" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N65" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="O65" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P65" s="43" t="s">
+      <c r="O65" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P65" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="41" t="s">
+      <c r="Q65" s="38"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="T65" s="42" t="s">
+      <c r="T65" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A66" s="34">
+    <row r="66" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A66" s="33">
         <v>76</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="F66" s="38">
+      <c r="F66" s="37">
         <v>45367</v>
       </c>
-      <c r="G66" s="50" t="s">
+      <c r="G66" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="H66" s="48" t="s">
+      <c r="H66" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="I66" s="38" t="s">
+      <c r="I66" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="J66" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K66" s="39"/>
-      <c r="L66" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M66" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N66" s="43" t="s">
+      <c r="J66" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K66" s="38"/>
+      <c r="L66" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M66" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N66" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="O66" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P66" s="43" t="s">
+      <c r="O66" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P66" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="41" t="s">
+      <c r="Q66" s="38"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="T66" s="42" t="s">
+      <c r="T66" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A67" s="34">
+    <row r="67" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A67" s="33">
         <v>77</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="37">
         <v>45369</v>
       </c>
-      <c r="G67" s="50" t="s">
+      <c r="G67" s="49" t="s">
         <v>485</v>
       </c>
-      <c r="H67" s="48" t="s">
+      <c r="H67" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="I67" s="38" t="s">
+      <c r="I67" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="J67" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K67" s="39"/>
-      <c r="L67" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M67" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N67" s="43" t="s">
+      <c r="J67" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K67" s="38"/>
+      <c r="L67" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M67" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N67" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="O67" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P67" s="39" t="s">
+      <c r="O67" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P67" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="41" t="s">
+      <c r="Q67" s="38"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="40" t="s">
         <v>419</v>
       </c>
-      <c r="T67" s="42" t="s">
+      <c r="T67" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A68" s="34">
+    <row r="68" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A68" s="33">
         <v>78</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="E68" s="36" t="s">
+      <c r="E68" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="37">
         <v>45367</v>
       </c>
-      <c r="G68" s="50" t="s">
+      <c r="G68" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="H68" s="48" t="s">
+      <c r="H68" s="47" t="s">
         <v>389</v>
       </c>
-      <c r="I68" s="38" t="s">
+      <c r="I68" s="37" t="s">
         <v>390</v>
       </c>
-      <c r="J68" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K68" s="39"/>
-      <c r="L68" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M68" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N68" s="43" t="s">
+      <c r="J68" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K68" s="38"/>
+      <c r="L68" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M68" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N68" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39" t="s">
+      <c r="O68" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P68" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="41" t="s">
+      <c r="Q68" s="38"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="T68" s="42" t="s">
+      <c r="T68" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A69" s="34">
+    <row r="69" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A69" s="33">
         <v>79</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="E69" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F69" s="38">
+      <c r="F69" s="37">
         <v>45367</v>
       </c>
-      <c r="G69" s="50" t="s">
+      <c r="G69" s="49" t="s">
         <v>487</v>
       </c>
-      <c r="H69" s="48" t="s">
+      <c r="H69" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="I69" s="38" t="s">
+      <c r="I69" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="J69" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K69" s="39"/>
-      <c r="L69" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M69" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N69" s="43" t="s">
+      <c r="J69" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K69" s="38"/>
+      <c r="L69" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M69" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N69" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="O69" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P69" s="43" t="s">
+      <c r="O69" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P69" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="41" t="s">
+      <c r="Q69" s="38"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="40" t="s">
         <v>396</v>
       </c>
-      <c r="T69" s="42" t="s">
+      <c r="T69" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A70" s="34">
+    <row r="70" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A70" s="33">
         <v>80</v>
       </c>
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="E70" s="36" t="s">
+      <c r="E70" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="F70" s="38">
+      <c r="F70" s="37">
         <v>45367</v>
       </c>
-      <c r="G70" s="50" t="s">
+      <c r="G70" s="49" t="s">
         <v>488</v>
       </c>
-      <c r="H70" s="48" t="s">
+      <c r="H70" s="47" t="s">
         <v>397</v>
       </c>
-      <c r="I70" s="38" t="s">
+      <c r="I70" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="J70" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K70" s="39"/>
-      <c r="L70" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M70" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N70" s="43" t="s">
+      <c r="J70" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K70" s="38"/>
+      <c r="L70" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M70" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N70" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="O70" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P70" s="43" t="s">
+      <c r="O70" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P70" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="41" t="s">
+      <c r="Q70" s="38"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="40" t="s">
         <v>400</v>
       </c>
-      <c r="T70" s="42" t="s">
+      <c r="T70" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="120.75" thickBot="1">
+    <row r="71" spans="1:20" ht="115.8" thickBot="1">
       <c r="A71" s="20">
         <v>81</v>
       </c>
@@ -9924,10 +9925,10 @@
         <v>175</v>
       </c>
       <c r="F71" s="23"/>
-      <c r="G71" s="52"/>
+      <c r="G71" s="51"/>
       <c r="H71" s="24"/>
       <c r="I71" s="24"/>
-      <c r="J71" s="46" t="s">
+      <c r="J71" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K71" s="25" t="s">
@@ -9945,231 +9946,231 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A72" s="34">
+    <row r="72" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A72" s="33">
         <v>82</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="E72" s="36" t="s">
+      <c r="E72" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="37">
         <v>45369</v>
       </c>
-      <c r="G72" s="50" t="s">
+      <c r="G72" s="49" t="s">
         <v>489</v>
       </c>
-      <c r="H72" s="48" t="s">
+      <c r="H72" s="47" t="s">
         <v>420</v>
       </c>
-      <c r="I72" s="38" t="s">
+      <c r="I72" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="J72" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K72" s="39"/>
-      <c r="L72" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M72" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N72" s="43" t="s">
+      <c r="J72" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K72" s="38"/>
+      <c r="L72" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M72" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N72" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="O72" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P72" s="39" t="s">
+      <c r="O72" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P72" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="41" t="s">
+      <c r="Q72" s="38"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="40" t="s">
         <v>423</v>
       </c>
-      <c r="T72" s="42" t="s">
+      <c r="T72" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="345.75" thickBot="1">
-      <c r="A73" s="34">
+    <row r="73" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A73" s="33">
         <v>83</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="E73" s="36" t="s">
+      <c r="E73" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="37">
         <v>45367</v>
       </c>
-      <c r="G73" s="50" t="s">
+      <c r="G73" s="49" t="s">
         <v>490</v>
       </c>
-      <c r="H73" s="48" t="s">
+      <c r="H73" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="I73" s="38" t="s">
+      <c r="I73" s="37" t="s">
         <v>402</v>
       </c>
-      <c r="J73" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K73" s="39"/>
-      <c r="L73" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M73" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N73" s="43" t="s">
+      <c r="J73" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K73" s="38"/>
+      <c r="L73" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M73" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N73" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="O73" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P73" s="43" t="s">
+      <c r="O73" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P73" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="41" t="s">
+      <c r="Q73" s="38"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="T73" s="42" t="s">
+      <c r="T73" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="345.75" thickBot="1">
-      <c r="A74" s="34">
+    <row r="74" spans="1:20" ht="331.8" thickBot="1">
+      <c r="A74" s="33">
         <v>84</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="E74" s="36" t="s">
+      <c r="E74" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74" s="37">
         <v>45367</v>
       </c>
-      <c r="G74" s="50" t="s">
+      <c r="G74" s="49" t="s">
         <v>491</v>
       </c>
-      <c r="H74" s="48" t="s">
+      <c r="H74" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="I74" s="38" t="s">
+      <c r="I74" s="37" t="s">
         <v>406</v>
       </c>
-      <c r="J74" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K74" s="39"/>
-      <c r="L74" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M74" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N74" s="43" t="s">
+      <c r="J74" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K74" s="38"/>
+      <c r="L74" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M74" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N74" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="O74" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P74" s="43" t="s">
+      <c r="O74" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P74" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="41" t="s">
+      <c r="Q74" s="38"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="40" t="s">
         <v>408</v>
       </c>
-      <c r="T74" s="42" t="s">
+      <c r="T74" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="330.75" thickBot="1">
-      <c r="A75" s="34">
+    <row r="75" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A75" s="33">
         <v>85</v>
       </c>
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="E75" s="36" t="s">
+      <c r="E75" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="37">
         <v>45367</v>
       </c>
-      <c r="G75" s="50" t="s">
+      <c r="G75" s="49" t="s">
         <v>492</v>
       </c>
-      <c r="H75" s="48" t="s">
+      <c r="H75" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="I75" s="38" t="s">
+      <c r="I75" s="37" t="s">
         <v>410</v>
       </c>
-      <c r="J75" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K75" s="39"/>
-      <c r="L75" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M75" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N75" s="43" t="s">
+      <c r="J75" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K75" s="38"/>
+      <c r="L75" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M75" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N75" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="O75" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P75" s="39" t="s">
+      <c r="O75" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P75" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="41" t="s">
+      <c r="Q75" s="38"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="40" t="s">
         <v>412</v>
       </c>
-      <c r="T75" s="42" t="s">
+      <c r="T75" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="120.75" thickBot="1">
+    <row r="76" spans="1:20" ht="115.8" thickBot="1">
       <c r="A76" s="20">
         <v>86</v>
       </c>
@@ -10186,10 +10187,10 @@
         <v>185</v>
       </c>
       <c r="F76" s="23"/>
-      <c r="G76" s="51"/>
+      <c r="G76" s="50"/>
       <c r="H76" s="24"/>
       <c r="I76" s="24"/>
-      <c r="J76" s="46" t="s">
+      <c r="J76" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K76" s="25" t="s">
@@ -10207,7 +10208,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="135.75" thickBot="1">
+    <row r="77" spans="1:20" ht="130.19999999999999" thickBot="1">
       <c r="A77" s="20">
         <v>87</v>
       </c>
@@ -10227,7 +10228,7 @@
       <c r="G77" s="24"/>
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
-      <c r="J77" s="46" t="s">
+      <c r="J77" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K77" s="25" t="s">
@@ -10245,7 +10246,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="120.75" thickBot="1">
+    <row r="78" spans="1:20" ht="115.8" thickBot="1">
       <c r="A78" s="20">
         <v>88</v>
       </c>
@@ -10265,7 +10266,7 @@
       <c r="G78" s="24"/>
       <c r="H78" s="24"/>
       <c r="I78" s="24"/>
-      <c r="J78" s="46" t="s">
+      <c r="J78" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K78" s="25" t="s">
@@ -10283,7 +10284,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="105.75" thickBot="1">
+    <row r="79" spans="1:20" ht="101.4" thickBot="1">
       <c r="A79" s="20">
         <v>89</v>
       </c>
@@ -10303,7 +10304,7 @@
       <c r="G79" s="24"/>
       <c r="H79" s="24"/>
       <c r="I79" s="24"/>
-      <c r="J79" s="46" t="s">
+      <c r="J79" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K79" s="25" t="s">
@@ -10321,7 +10322,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="105.75" thickBot="1">
+    <row r="80" spans="1:20" ht="101.4" thickBot="1">
       <c r="A80" s="20">
         <v>90</v>
       </c>
@@ -10341,7 +10342,7 @@
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
-      <c r="J80" s="46" t="s">
+      <c r="J80" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K80" s="25" t="s">
@@ -10359,7 +10360,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="120.75" thickBot="1">
+    <row r="81" spans="1:20" ht="115.8" thickBot="1">
       <c r="A81" s="20">
         <v>91</v>
       </c>
@@ -10379,7 +10380,7 @@
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
-      <c r="J81" s="46" t="s">
+      <c r="J81" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K81" s="25" t="s">
@@ -10397,7 +10398,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="120.75" thickBot="1">
+    <row r="82" spans="1:20" ht="115.8" thickBot="1">
       <c r="A82" s="20">
         <v>92</v>
       </c>
@@ -10417,7 +10418,7 @@
       <c r="G82" s="24"/>
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
-      <c r="J82" s="46" t="s">
+      <c r="J82" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K82" s="25" t="s">
@@ -10435,7 +10436,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="120.75" thickBot="1">
+    <row r="83" spans="1:20" ht="115.8" thickBot="1">
       <c r="A83" s="20">
         <v>93</v>
       </c>
@@ -10455,7 +10456,7 @@
       <c r="G83" s="24"/>
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
-      <c r="J83" s="46" t="s">
+      <c r="J83" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K83" s="25" t="s">
@@ -10473,679 +10474,679 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A84" s="34">
+    <row r="84" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A84" s="33">
         <v>122</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="E84" s="36" t="s">
+      <c r="E84" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="F84" s="37">
+      <c r="F84" s="36">
         <v>45376</v>
       </c>
-      <c r="G84" s="38" t="s">
+      <c r="G84" s="37" t="s">
         <v>667</v>
       </c>
-      <c r="H84" s="38" t="s">
+      <c r="H84" s="37" t="s">
         <v>610</v>
       </c>
-      <c r="I84" s="38" t="s">
+      <c r="I84" s="37" t="s">
         <v>611</v>
       </c>
-      <c r="J84" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K84" s="39"/>
-      <c r="L84" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M84" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N84" s="39" t="s">
+      <c r="J84" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M84" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N84" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="O84" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P84" s="39" t="s">
+      <c r="O84" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P84" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="40"/>
-      <c r="S84" s="44" t="s">
+      <c r="Q84" s="38"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="43" t="s">
         <v>609</v>
       </c>
-      <c r="T84" s="42" t="s">
+      <c r="T84" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A85" s="34">
+    <row r="85" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A85" s="33">
         <v>123</v>
       </c>
-      <c r="B85" s="35" t="s">
+      <c r="B85" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="D85" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="E85" s="36" t="s">
+      <c r="E85" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F85" s="37">
+      <c r="F85" s="36">
         <v>45376</v>
       </c>
-      <c r="G85" s="38" t="s">
+      <c r="G85" s="37" t="s">
         <v>668</v>
       </c>
-      <c r="H85" s="38" t="s">
+      <c r="H85" s="37" t="s">
         <v>613</v>
       </c>
-      <c r="I85" s="38" t="s">
+      <c r="I85" s="37" t="s">
         <v>614</v>
       </c>
-      <c r="J85" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K85" s="39"/>
-      <c r="L85" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M85" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N85" s="39" t="s">
+      <c r="J85" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M85" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N85" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="O85" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P85" s="39" t="s">
+      <c r="O85" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P85" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q85" s="39"/>
-      <c r="R85" s="40"/>
-      <c r="S85" s="44" t="s">
+      <c r="Q85" s="38"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="43" t="s">
         <v>612</v>
       </c>
-      <c r="T85" s="42" t="s">
+      <c r="T85" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A86" s="34">
+    <row r="86" spans="1:20" ht="303" thickBot="1">
+      <c r="A86" s="33">
         <v>124</v>
       </c>
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="35" t="s">
+      <c r="D86" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E86" s="36" t="s">
+      <c r="E86" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="F86" s="37">
+      <c r="F86" s="36">
         <v>45376</v>
       </c>
-      <c r="G86" s="38" t="s">
+      <c r="G86" s="37" t="s">
         <v>669</v>
       </c>
-      <c r="H86" s="38" t="s">
+      <c r="H86" s="37" t="s">
         <v>616</v>
       </c>
-      <c r="I86" s="38" t="s">
+      <c r="I86" s="37" t="s">
         <v>617</v>
       </c>
-      <c r="J86" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K86" s="39"/>
-      <c r="L86" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M86" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N86" s="39" t="s">
+      <c r="J86" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M86" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N86" s="38" t="s">
         <v>618</v>
       </c>
-      <c r="O86" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P86" s="39" t="s">
+      <c r="O86" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P86" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q86" s="39"/>
-      <c r="R86" s="40"/>
-      <c r="S86" s="44" t="s">
+      <c r="Q86" s="38"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="43" t="s">
         <v>615</v>
       </c>
-      <c r="T86" s="42" t="s">
+      <c r="T86" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A87" s="34">
+    <row r="87" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A87" s="33">
         <v>125</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="E87" s="36" t="s">
+      <c r="E87" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="F87" s="37">
+      <c r="F87" s="36">
         <v>45376</v>
       </c>
-      <c r="G87" s="38" t="s">
+      <c r="G87" s="37" t="s">
         <v>670</v>
       </c>
-      <c r="H87" s="38" t="s">
+      <c r="H87" s="37" t="s">
         <v>620</v>
       </c>
-      <c r="I87" s="38" t="s">
+      <c r="I87" s="37" t="s">
         <v>621</v>
       </c>
-      <c r="J87" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K87" s="39"/>
-      <c r="L87" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M87" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N87" s="39" t="s">
+      <c r="J87" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M87" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N87" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="O87" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P87" s="39" t="s">
+      <c r="O87" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P87" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="40"/>
-      <c r="S87" s="44" t="s">
+      <c r="Q87" s="38"/>
+      <c r="R87" s="39"/>
+      <c r="S87" s="43" t="s">
         <v>619</v>
       </c>
-      <c r="T87" s="42" t="s">
+      <c r="T87" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A88" s="34">
+    <row r="88" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A88" s="33">
         <v>126</v>
       </c>
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="35" t="s">
+      <c r="D88" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="E88" s="36" t="s">
+      <c r="E88" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="F88" s="37">
+      <c r="F88" s="36">
         <v>45376</v>
       </c>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="37" t="s">
         <v>671</v>
       </c>
-      <c r="H88" s="38" t="s">
+      <c r="H88" s="37" t="s">
         <v>623</v>
       </c>
-      <c r="I88" s="38" t="s">
+      <c r="I88" s="37" t="s">
         <v>624</v>
       </c>
-      <c r="J88" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K88" s="39"/>
-      <c r="L88" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M88" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N88" s="39" t="s">
+      <c r="J88" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M88" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N88" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="O88" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P88" s="39" t="s">
+      <c r="O88" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P88" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="40"/>
-      <c r="S88" s="44" t="s">
+      <c r="Q88" s="38"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="43" t="s">
         <v>622</v>
       </c>
-      <c r="T88" s="42" t="s">
+      <c r="T88" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A89" s="34">
+    <row r="89" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A89" s="33">
         <v>127</v>
       </c>
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D89" s="35" t="s">
+      <c r="D89" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="E89" s="36" t="s">
+      <c r="E89" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="F89" s="37">
+      <c r="F89" s="36">
         <v>45376</v>
       </c>
-      <c r="G89" s="38" t="s">
+      <c r="G89" s="37" t="s">
         <v>672</v>
       </c>
-      <c r="H89" s="38" t="s">
+      <c r="H89" s="37" t="s">
         <v>626</v>
       </c>
-      <c r="I89" s="38" t="s">
+      <c r="I89" s="37" t="s">
         <v>627</v>
       </c>
-      <c r="J89" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K89" s="39"/>
-      <c r="L89" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M89" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N89" s="39" t="s">
+      <c r="J89" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M89" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N89" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="O89" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P89" s="39" t="s">
+      <c r="O89" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P89" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q89" s="39"/>
-      <c r="R89" s="40"/>
-      <c r="S89" s="44" t="s">
+      <c r="Q89" s="38"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="T89" s="42" t="s">
+      <c r="T89" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A90" s="34">
+    <row r="90" spans="1:20" ht="303" thickBot="1">
+      <c r="A90" s="33">
         <v>128</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="E90" s="36" t="s">
+      <c r="E90" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="F90" s="37">
+      <c r="F90" s="36">
         <v>45376</v>
       </c>
-      <c r="G90" s="38" t="s">
+      <c r="G90" s="37" t="s">
         <v>673</v>
       </c>
-      <c r="H90" s="38" t="s">
+      <c r="H90" s="37" t="s">
         <v>629</v>
       </c>
-      <c r="I90" s="38" t="s">
+      <c r="I90" s="37" t="s">
         <v>630</v>
       </c>
-      <c r="J90" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K90" s="39"/>
-      <c r="L90" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M90" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N90" s="39" t="s">
+      <c r="J90" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M90" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N90" s="38" t="s">
         <v>631</v>
       </c>
-      <c r="O90" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P90" s="39" t="s">
+      <c r="O90" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P90" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="40"/>
-      <c r="S90" s="44" t="s">
+      <c r="Q90" s="38"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="43" t="s">
         <v>628</v>
       </c>
-      <c r="T90" s="42" t="s">
+      <c r="T90" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="345.75" thickBot="1">
-      <c r="A91" s="34">
+    <row r="91" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A91" s="33">
         <v>129</v>
       </c>
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C91" s="35" t="s">
+      <c r="C91" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D91" s="35" t="s">
+      <c r="D91" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="E91" s="36" t="s">
+      <c r="E91" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="F91" s="37">
+      <c r="F91" s="36">
         <v>45376</v>
       </c>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="37" t="s">
         <v>674</v>
       </c>
-      <c r="H91" s="38" t="s">
+      <c r="H91" s="37" t="s">
         <v>633</v>
       </c>
-      <c r="I91" s="38" t="s">
+      <c r="I91" s="37" t="s">
         <v>634</v>
       </c>
-      <c r="J91" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K91" s="39"/>
-      <c r="L91" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M91" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N91" s="39" t="s">
+      <c r="J91" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K91" s="38"/>
+      <c r="L91" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M91" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N91" s="38" t="s">
         <v>635</v>
       </c>
-      <c r="O91" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P91" s="39" t="s">
+      <c r="O91" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P91" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="40"/>
-      <c r="S91" s="44" t="s">
+      <c r="Q91" s="38"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="43" t="s">
         <v>632</v>
       </c>
-      <c r="T91" s="42" t="s">
+      <c r="T91" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="330.75" thickBot="1">
-      <c r="A92" s="34">
+    <row r="92" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A92" s="33">
         <v>130</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C92" s="35" t="s">
+      <c r="C92" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D92" s="35" t="s">
+      <c r="D92" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="E92" s="36" t="s">
+      <c r="E92" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="F92" s="37">
+      <c r="F92" s="36">
         <v>45376</v>
       </c>
-      <c r="G92" s="38" t="s">
+      <c r="G92" s="37" t="s">
         <v>675</v>
       </c>
-      <c r="H92" s="38" t="s">
+      <c r="H92" s="37" t="s">
         <v>637</v>
       </c>
-      <c r="I92" s="38" t="s">
+      <c r="I92" s="37" t="s">
         <v>638</v>
       </c>
-      <c r="J92" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K92" s="39"/>
-      <c r="L92" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M92" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N92" s="39" t="s">
+      <c r="J92" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M92" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N92" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="O92" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P92" s="39" t="s">
+      <c r="O92" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P92" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="40"/>
-      <c r="S92" s="44" t="s">
+      <c r="Q92" s="38"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="43" t="s">
         <v>636</v>
       </c>
-      <c r="T92" s="42" t="s">
+      <c r="T92" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="270.75" thickBot="1">
-      <c r="A93" s="34">
+    <row r="93" spans="1:20" ht="245.4" thickBot="1">
+      <c r="A93" s="33">
         <v>131</v>
       </c>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C93" s="35" t="s">
+      <c r="C93" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D93" s="35" t="s">
+      <c r="D93" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="E93" s="36" t="s">
+      <c r="E93" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="F93" s="37">
+      <c r="F93" s="36">
         <v>45376</v>
       </c>
-      <c r="G93" s="38" t="s">
+      <c r="G93" s="37" t="s">
         <v>676</v>
       </c>
-      <c r="H93" s="38" t="s">
+      <c r="H93" s="37" t="s">
         <v>640</v>
       </c>
-      <c r="I93" s="38" t="s">
+      <c r="I93" s="37" t="s">
         <v>641</v>
       </c>
-      <c r="J93" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K93" s="39"/>
-      <c r="L93" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M93" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N93" s="39" t="s">
+      <c r="J93" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K93" s="38"/>
+      <c r="L93" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M93" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N93" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="O93" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P93" s="39" t="s">
+      <c r="O93" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P93" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="40"/>
-      <c r="S93" s="44" t="s">
+      <c r="Q93" s="38"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="43" t="s">
         <v>639</v>
       </c>
-      <c r="T93" s="42" t="s">
+      <c r="T93" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A94" s="34">
+    <row r="94" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A94" s="33">
         <v>132</v>
       </c>
-      <c r="B94" s="35" t="s">
+      <c r="B94" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="35" t="s">
+      <c r="D94" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="E94" s="36" t="s">
+      <c r="E94" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="F94" s="37">
+      <c r="F94" s="36">
         <v>45376</v>
       </c>
-      <c r="G94" s="38" t="s">
+      <c r="G94" s="37" t="s">
         <v>677</v>
       </c>
-      <c r="H94" s="38" t="s">
+      <c r="H94" s="37" t="s">
         <v>644</v>
       </c>
-      <c r="I94" s="38" t="s">
+      <c r="I94" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="J94" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K94" s="39"/>
-      <c r="L94" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M94" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N94" s="39" t="s">
+      <c r="J94" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M94" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N94" s="38" t="s">
         <v>646</v>
       </c>
-      <c r="O94" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P94" s="39" t="s">
+      <c r="O94" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P94" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="40"/>
-      <c r="S94" s="44" t="s">
+      <c r="Q94" s="38"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="43" t="s">
         <v>643</v>
       </c>
-      <c r="T94" s="42" t="s">
+      <c r="T94" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A95" s="34">
+    <row r="95" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A95" s="33">
         <v>133</v>
       </c>
-      <c r="B95" s="35" t="s">
+      <c r="B95" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C95" s="35" t="s">
+      <c r="C95" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D95" s="35" t="s">
+      <c r="D95" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="E95" s="36" t="s">
+      <c r="E95" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="F95" s="37">
+      <c r="F95" s="36">
         <v>45376</v>
       </c>
-      <c r="G95" s="38" t="s">
+      <c r="G95" s="37" t="s">
         <v>678</v>
       </c>
-      <c r="H95" s="38" t="s">
+      <c r="H95" s="37" t="s">
         <v>648</v>
       </c>
-      <c r="I95" s="38" t="s">
+      <c r="I95" s="37" t="s">
         <v>649</v>
       </c>
-      <c r="J95" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K95" s="39"/>
-      <c r="L95" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M95" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N95" s="39" t="s">
+      <c r="J95" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K95" s="38"/>
+      <c r="L95" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M95" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N95" s="38" t="s">
         <v>650</v>
       </c>
-      <c r="O95" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P95" s="39" t="s">
+      <c r="O95" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P95" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="40"/>
-      <c r="S95" s="44" t="s">
+      <c r="Q95" s="38"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="43" t="s">
         <v>647</v>
       </c>
-      <c r="T95" s="42" t="s">
+      <c r="T95" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="105.75" thickBot="1">
+    <row r="96" spans="1:20" ht="101.4" thickBot="1">
       <c r="A96" s="20">
         <v>134</v>
       </c>
@@ -11183,7 +11184,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="105.75" thickBot="1">
+    <row r="97" spans="1:20" ht="101.4" thickBot="1">
       <c r="A97" s="20">
         <v>135</v>
       </c>
@@ -11221,7 +11222,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="105.75" thickBot="1">
+    <row r="98" spans="1:20" ht="101.4" thickBot="1">
       <c r="A98" s="20">
         <v>136</v>
       </c>
@@ -11259,7 +11260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="120.75" thickBot="1">
+    <row r="99" spans="1:20" ht="115.8" thickBot="1">
       <c r="A99" s="20">
         <v>137</v>
       </c>
@@ -11297,7 +11298,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="105.75" thickBot="1">
+    <row r="100" spans="1:20" ht="101.4" thickBot="1">
       <c r="A100" s="20">
         <v>138</v>
       </c>
@@ -11335,119 +11336,119 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A101" s="34">
+    <row r="101" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A101" s="33">
         <v>139</v>
       </c>
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D101" s="35" t="s">
+      <c r="D101" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="E101" s="36" t="s">
+      <c r="E101" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="F101" s="37">
+      <c r="F101" s="36">
         <v>45376</v>
       </c>
-      <c r="G101" s="38" t="s">
+      <c r="G101" s="37" t="s">
         <v>679</v>
       </c>
-      <c r="H101" s="38" t="s">
+      <c r="H101" s="37" t="s">
         <v>652</v>
       </c>
-      <c r="I101" s="38" t="s">
+      <c r="I101" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="J101" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K101" s="39"/>
-      <c r="L101" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M101" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N101" s="39" t="s">
+      <c r="J101" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K101" s="38"/>
+      <c r="L101" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M101" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N101" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="O101" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P101" s="39" t="s">
+      <c r="O101" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P101" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q101" s="39"/>
-      <c r="R101" s="40"/>
-      <c r="S101" s="44" t="s">
+      <c r="Q101" s="38"/>
+      <c r="R101" s="39"/>
+      <c r="S101" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="T101" s="42" t="s">
+      <c r="T101" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="409.6" thickBot="1">
-      <c r="A102" s="34">
+      <c r="A102" s="33">
         <v>140</v>
       </c>
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D102" s="35" t="s">
+      <c r="D102" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="E102" s="36" t="s">
+      <c r="E102" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="F102" s="37">
+      <c r="F102" s="36">
         <v>45377</v>
       </c>
-      <c r="G102" s="38" t="s">
+      <c r="G102" s="37" t="s">
         <v>698</v>
       </c>
-      <c r="H102" s="38" t="s">
+      <c r="H102" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="I102" s="38" t="s">
+      <c r="I102" s="37" t="s">
         <v>699</v>
       </c>
-      <c r="J102" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K102" s="39"/>
-      <c r="L102" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M102" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N102" s="39" t="s">
+      <c r="J102" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K102" s="38"/>
+      <c r="L102" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M102" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N102" s="38" t="s">
         <v>700</v>
       </c>
-      <c r="O102" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P102" s="39" t="s">
+      <c r="O102" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P102" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q102" s="39"/>
-      <c r="R102" s="40"/>
-      <c r="S102" s="44" t="s">
+      <c r="Q102" s="38"/>
+      <c r="R102" s="39"/>
+      <c r="S102" s="43" t="s">
         <v>696</v>
       </c>
-      <c r="T102" s="42" t="s">
+      <c r="T102" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="120.75" thickBot="1">
+    <row r="103" spans="1:20" ht="115.8" thickBot="1">
       <c r="A103" s="20">
         <v>141</v>
       </c>
@@ -11485,175 +11486,175 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A104" s="34">
+    <row r="104" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A104" s="33">
         <v>142</v>
       </c>
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D104" s="35" t="s">
+      <c r="D104" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="E104" s="36" t="s">
+      <c r="E104" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="F104" s="37">
+      <c r="F104" s="36">
         <v>45377</v>
       </c>
-      <c r="G104" s="38" t="s">
+      <c r="G104" s="37" t="s">
         <v>702</v>
       </c>
-      <c r="H104" s="38" t="s">
+      <c r="H104" s="37" t="s">
         <v>703</v>
       </c>
-      <c r="I104" s="38" t="s">
+      <c r="I104" s="37" t="s">
         <v>704</v>
       </c>
-      <c r="J104" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K104" s="39"/>
-      <c r="L104" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M104" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N104" s="39" t="s">
+      <c r="J104" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K104" s="38"/>
+      <c r="L104" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M104" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N104" s="38" t="s">
         <v>705</v>
       </c>
-      <c r="O104" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P104" s="39" t="s">
+      <c r="O104" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P104" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q104" s="39"/>
-      <c r="R104" s="40"/>
-      <c r="S104" s="44" t="s">
+      <c r="Q104" s="38"/>
+      <c r="R104" s="39"/>
+      <c r="S104" s="43" t="s">
         <v>701</v>
       </c>
-      <c r="T104" s="42" t="s">
+      <c r="T104" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A105" s="34">
+    <row r="105" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A105" s="33">
         <v>143</v>
       </c>
-      <c r="B105" s="35" t="s">
+      <c r="B105" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D105" s="35" t="s">
+      <c r="D105" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="E105" s="36" t="s">
+      <c r="E105" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="F105" s="37">
+      <c r="F105" s="36">
         <v>45377</v>
       </c>
-      <c r="G105" s="38" t="s">
+      <c r="G105" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="H105" s="38" t="s">
+      <c r="H105" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="I105" s="38" t="s">
+      <c r="I105" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="J105" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K105" s="39"/>
-      <c r="L105" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M105" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N105" s="39" t="s">
+      <c r="J105" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K105" s="38"/>
+      <c r="L105" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M105" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N105" s="38" t="s">
         <v>710</v>
       </c>
-      <c r="O105" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P105" s="39" t="s">
+      <c r="O105" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P105" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q105" s="39"/>
-      <c r="R105" s="40"/>
-      <c r="S105" s="44" t="s">
+      <c r="Q105" s="38"/>
+      <c r="R105" s="39"/>
+      <c r="S105" s="43" t="s">
         <v>706</v>
       </c>
-      <c r="T105" s="42" t="s">
+      <c r="T105" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A106" s="34">
+    <row r="106" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A106" s="33">
         <v>144</v>
       </c>
-      <c r="B106" s="35" t="s">
+      <c r="B106" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C106" s="35" t="s">
+      <c r="C106" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D106" s="35" t="s">
+      <c r="D106" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E106" s="36" t="s">
+      <c r="E106" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="F106" s="37">
+      <c r="F106" s="36">
         <v>45377</v>
       </c>
-      <c r="G106" s="38" t="s">
+      <c r="G106" s="37" t="s">
         <v>712</v>
       </c>
-      <c r="H106" s="38" t="s">
+      <c r="H106" s="37" t="s">
         <v>713</v>
       </c>
-      <c r="I106" s="38" t="s">
+      <c r="I106" s="37" t="s">
         <v>714</v>
       </c>
-      <c r="J106" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K106" s="39"/>
-      <c r="L106" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M106" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N106" s="39" t="s">
+      <c r="J106" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K106" s="38"/>
+      <c r="L106" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M106" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N106" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="O106" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P106" s="39" t="s">
+      <c r="O106" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P106" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q106" s="39"/>
-      <c r="R106" s="40"/>
-      <c r="S106" s="44" t="s">
+      <c r="Q106" s="38"/>
+      <c r="R106" s="39"/>
+      <c r="S106" s="43" t="s">
         <v>711</v>
       </c>
-      <c r="T106" s="42" t="s">
+      <c r="T106" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="120.75" thickBot="1">
+    <row r="107" spans="1:20" ht="115.8" thickBot="1">
       <c r="A107" s="20">
         <v>145</v>
       </c>
@@ -11691,7 +11692,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="120.75" thickBot="1">
+    <row r="108" spans="1:20" ht="115.8" thickBot="1">
       <c r="A108" s="20">
         <v>146</v>
       </c>
@@ -11729,53 +11730,53 @@
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="165.75" thickBot="1">
-      <c r="A109" s="34">
+    <row r="109" spans="1:20" ht="159" thickBot="1">
+      <c r="A109" s="33">
         <v>147</v>
       </c>
-      <c r="B109" s="35" t="s">
+      <c r="B109" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D109" s="35" t="s">
+      <c r="D109" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="E109" s="36" t="s">
+      <c r="E109" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="F109" s="37">
+      <c r="F109" s="36">
         <v>45376</v>
       </c>
-      <c r="G109" s="38" t="s">
+      <c r="G109" s="37" t="s">
         <v>680</v>
       </c>
-      <c r="H109" s="38" t="s">
+      <c r="H109" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="I109" s="38" t="s">
+      <c r="I109" s="37" t="s">
         <v>568</v>
       </c>
-      <c r="J109" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K109" s="39"/>
-      <c r="L109" s="39"/>
-      <c r="M109" s="39"/>
-      <c r="N109" s="39"/>
-      <c r="O109" s="39"/>
-      <c r="P109" s="39"/>
-      <c r="Q109" s="39"/>
-      <c r="R109" s="40"/>
-      <c r="S109" s="44" t="s">
+      <c r="J109" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K109" s="38"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="38"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
+      <c r="Q109" s="38"/>
+      <c r="R109" s="39"/>
+      <c r="S109" s="43" t="s">
         <v>569</v>
       </c>
-      <c r="T109" s="42" t="s">
+      <c r="T109" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="165.75" thickBot="1">
+    <row r="110" spans="1:20" ht="159" thickBot="1">
       <c r="A110" s="20">
         <v>148</v>
       </c>
@@ -11813,7 +11814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="165.75" thickBot="1">
+    <row r="111" spans="1:20" ht="159" thickBot="1">
       <c r="A111" s="20">
         <v>149</v>
       </c>
@@ -11851,7 +11852,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="165.75" thickBot="1">
+    <row r="112" spans="1:20" ht="159" thickBot="1">
       <c r="A112" s="20">
         <v>150</v>
       </c>
@@ -11889,343 +11890,343 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A113" s="34">
+    <row r="113" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A113" s="33">
         <v>151</v>
       </c>
-      <c r="B113" s="35" t="s">
+      <c r="B113" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D113" s="35" t="s">
+      <c r="D113" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="E113" s="36" t="s">
+      <c r="E113" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="F113" s="37">
+      <c r="F113" s="36">
         <v>45376</v>
       </c>
-      <c r="G113" s="38" t="s">
+      <c r="G113" s="37" t="s">
         <v>681</v>
       </c>
-      <c r="H113" s="38" t="s">
+      <c r="H113" s="37" t="s">
         <v>570</v>
       </c>
-      <c r="I113" s="38" t="s">
+      <c r="I113" s="37" t="s">
         <v>571</v>
       </c>
-      <c r="J113" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K113" s="39"/>
-      <c r="L113" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M113" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N113" s="39" t="s">
+      <c r="J113" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K113" s="38"/>
+      <c r="L113" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M113" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N113" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="O113" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P113" s="39" t="s">
+      <c r="O113" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P113" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q113" s="39"/>
-      <c r="R113" s="40"/>
-      <c r="S113" s="44" t="s">
+      <c r="Q113" s="38"/>
+      <c r="R113" s="39"/>
+      <c r="S113" s="43" t="s">
         <v>572</v>
       </c>
-      <c r="T113" s="42" t="s">
+      <c r="T113" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A114" s="34">
+    <row r="114" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A114" s="33">
         <v>152</v>
       </c>
-      <c r="B114" s="35" t="s">
+      <c r="B114" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C114" s="35" t="s">
+      <c r="C114" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D114" s="35" t="s">
+      <c r="D114" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="E114" s="36" t="s">
+      <c r="E114" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="F114" s="37">
+      <c r="F114" s="36">
         <v>45376</v>
       </c>
-      <c r="G114" s="38" t="s">
+      <c r="G114" s="37" t="s">
         <v>682</v>
       </c>
-      <c r="H114" s="38" t="s">
+      <c r="H114" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="I114" s="38" t="s">
+      <c r="I114" s="37" t="s">
         <v>575</v>
       </c>
-      <c r="J114" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K114" s="39"/>
-      <c r="L114" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M114" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N114" s="39" t="s">
+      <c r="J114" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K114" s="38"/>
+      <c r="L114" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M114" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N114" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="O114" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P114" s="39" t="s">
+      <c r="O114" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P114" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q114" s="39"/>
-      <c r="R114" s="40"/>
-      <c r="S114" s="44" t="s">
+      <c r="Q114" s="38"/>
+      <c r="R114" s="39"/>
+      <c r="S114" s="43" t="s">
         <v>573</v>
       </c>
-      <c r="T114" s="42" t="s">
+      <c r="T114" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="330.75" thickBot="1">
-      <c r="A115" s="34">
+    <row r="115" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A115" s="33">
         <v>153</v>
       </c>
-      <c r="B115" s="35" t="s">
+      <c r="B115" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C115" s="35" t="s">
+      <c r="C115" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D115" s="35" t="s">
+      <c r="D115" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="E115" s="36" t="s">
+      <c r="E115" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="F115" s="37">
+      <c r="F115" s="36">
         <v>45376</v>
       </c>
-      <c r="G115" s="38" t="s">
+      <c r="G115" s="37" t="s">
         <v>683</v>
       </c>
-      <c r="H115" s="38" t="s">
+      <c r="H115" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="I115" s="38" t="s">
+      <c r="I115" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="J115" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K115" s="39"/>
-      <c r="L115" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M115" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N115" s="39" t="s">
+      <c r="J115" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K115" s="38"/>
+      <c r="L115" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M115" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N115" s="38" t="s">
         <v>579</v>
       </c>
-      <c r="O115" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P115" s="39" t="s">
+      <c r="O115" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P115" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q115" s="39"/>
-      <c r="R115" s="40"/>
-      <c r="S115" s="44" t="s">
+      <c r="Q115" s="38"/>
+      <c r="R115" s="39"/>
+      <c r="S115" s="43" t="s">
         <v>576</v>
       </c>
-      <c r="T115" s="42" t="s">
+      <c r="T115" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A116" s="34">
+    <row r="116" spans="1:20" ht="274.2" thickBot="1">
+      <c r="A116" s="33">
         <v>154</v>
       </c>
-      <c r="B116" s="35" t="s">
+      <c r="B116" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C116" s="35" t="s">
+      <c r="C116" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D116" s="35" t="s">
+      <c r="D116" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="E116" s="36" t="s">
+      <c r="E116" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="F116" s="37">
+      <c r="F116" s="36">
         <v>45376</v>
       </c>
-      <c r="G116" s="38" t="s">
+      <c r="G116" s="37" t="s">
         <v>684</v>
       </c>
-      <c r="H116" s="38" t="s">
+      <c r="H116" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="I116" s="38" t="s">
+      <c r="I116" s="37" t="s">
         <v>582</v>
       </c>
-      <c r="J116" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K116" s="39"/>
-      <c r="L116" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M116" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N116" s="39" t="s">
+      <c r="J116" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K116" s="38"/>
+      <c r="L116" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M116" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N116" s="38" t="s">
         <v>583</v>
       </c>
-      <c r="O116" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P116" s="39" t="s">
+      <c r="O116" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P116" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q116" s="39"/>
-      <c r="R116" s="40"/>
-      <c r="S116" s="44" t="s">
+      <c r="Q116" s="38"/>
+      <c r="R116" s="39"/>
+      <c r="S116" s="43" t="s">
         <v>580</v>
       </c>
-      <c r="T116" s="42" t="s">
+      <c r="T116" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="300.75" thickBot="1">
-      <c r="A117" s="34">
+    <row r="117" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A117" s="33">
         <v>155</v>
       </c>
-      <c r="B117" s="35" t="s">
+      <c r="B117" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="35" t="s">
+      <c r="C117" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D117" s="35" t="s">
+      <c r="D117" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="E117" s="36" t="s">
+      <c r="E117" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="F117" s="37">
+      <c r="F117" s="36">
         <v>45376</v>
       </c>
-      <c r="G117" s="38" t="s">
+      <c r="G117" s="37" t="s">
         <v>685</v>
       </c>
-      <c r="H117" s="38" t="s">
+      <c r="H117" s="37" t="s">
         <v>585</v>
       </c>
-      <c r="I117" s="38" t="s">
+      <c r="I117" s="37" t="s">
         <v>586</v>
       </c>
-      <c r="J117" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K117" s="39"/>
-      <c r="L117" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M117" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N117" s="39" t="s">
+      <c r="J117" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K117" s="38"/>
+      <c r="L117" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M117" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N117" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="O117" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P117" s="39" t="s">
+      <c r="O117" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P117" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q117" s="39"/>
-      <c r="R117" s="40"/>
-      <c r="S117" s="44" t="s">
+      <c r="Q117" s="38"/>
+      <c r="R117" s="39"/>
+      <c r="S117" s="43" t="s">
         <v>584</v>
       </c>
-      <c r="T117" s="42" t="s">
+      <c r="T117" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A118" s="34">
+    <row r="118" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A118" s="33">
         <v>156</v>
       </c>
-      <c r="B118" s="35" t="s">
+      <c r="B118" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C118" s="35" t="s">
+      <c r="C118" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D118" s="35" t="s">
+      <c r="D118" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="E118" s="36" t="s">
+      <c r="E118" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="F118" s="37">
+      <c r="F118" s="36">
         <v>45376</v>
       </c>
-      <c r="G118" s="38" t="s">
+      <c r="G118" s="37" t="s">
         <v>686</v>
       </c>
-      <c r="H118" s="38" t="s">
+      <c r="H118" s="37" t="s">
         <v>589</v>
       </c>
-      <c r="I118" s="38" t="s">
+      <c r="I118" s="37" t="s">
         <v>590</v>
       </c>
-      <c r="J118" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K118" s="39"/>
-      <c r="L118" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M118" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N118" s="39" t="s">
+      <c r="J118" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K118" s="38"/>
+      <c r="L118" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M118" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N118" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="O118" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P118" s="39" t="s">
+      <c r="O118" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P118" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q118" s="39"/>
-      <c r="R118" s="40"/>
-      <c r="S118" s="44" t="s">
+      <c r="Q118" s="38"/>
+      <c r="R118" s="39"/>
+      <c r="S118" s="43" t="s">
         <v>588</v>
       </c>
-      <c r="T118" s="42" t="s">
+      <c r="T118" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="135.75" thickBot="1">
+    <row r="119" spans="1:20" ht="115.8" thickBot="1">
       <c r="A119" s="20">
         <v>157</v>
       </c>
@@ -12263,231 +12264,231 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="315.75" thickBot="1">
-      <c r="A120" s="34">
+    <row r="120" spans="1:20" ht="288.60000000000002" thickBot="1">
+      <c r="A120" s="33">
         <v>158</v>
       </c>
-      <c r="B120" s="35" t="s">
+      <c r="B120" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C120" s="35" t="s">
+      <c r="C120" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D120" s="35" t="s">
+      <c r="D120" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="E120" s="36" t="s">
+      <c r="E120" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="F120" s="37">
+      <c r="F120" s="36">
         <v>45376</v>
       </c>
-      <c r="G120" s="38" t="s">
+      <c r="G120" s="37" t="s">
         <v>687</v>
       </c>
-      <c r="H120" s="38" t="s">
+      <c r="H120" s="37" t="s">
         <v>592</v>
       </c>
-      <c r="I120" s="38" t="s">
+      <c r="I120" s="37" t="s">
         <v>593</v>
       </c>
-      <c r="J120" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K120" s="39"/>
-      <c r="L120" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M120" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N120" s="39" t="s">
+      <c r="J120" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K120" s="38"/>
+      <c r="L120" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M120" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N120" s="38" t="s">
         <v>594</v>
       </c>
-      <c r="O120" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P120" s="39" t="s">
+      <c r="O120" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P120" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q120" s="39"/>
-      <c r="R120" s="40"/>
-      <c r="S120" s="44" t="s">
+      <c r="Q120" s="38"/>
+      <c r="R120" s="39"/>
+      <c r="S120" s="43" t="s">
         <v>591</v>
       </c>
-      <c r="T120" s="42" t="s">
+      <c r="T120" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="345.75" thickBot="1">
-      <c r="A121" s="34">
+    <row r="121" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A121" s="33">
         <v>159</v>
       </c>
-      <c r="B121" s="35" t="s">
+      <c r="B121" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C121" s="35" t="s">
+      <c r="C121" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D121" s="35" t="s">
+      <c r="D121" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="E121" s="36" t="s">
+      <c r="E121" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="F121" s="37">
+      <c r="F121" s="36">
         <v>45376</v>
       </c>
-      <c r="G121" s="38" t="s">
+      <c r="G121" s="37" t="s">
         <v>688</v>
       </c>
-      <c r="H121" s="38" t="s">
+      <c r="H121" s="37" t="s">
         <v>596</v>
       </c>
-      <c r="I121" s="38" t="s">
+      <c r="I121" s="37" t="s">
         <v>597</v>
       </c>
-      <c r="J121" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K121" s="39"/>
-      <c r="L121" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M121" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N121" s="39" t="s">
+      <c r="J121" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K121" s="38"/>
+      <c r="L121" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M121" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N121" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="O121" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P121" s="39" t="s">
+      <c r="O121" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P121" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q121" s="39"/>
-      <c r="R121" s="40"/>
-      <c r="S121" s="44" t="s">
+      <c r="Q121" s="38"/>
+      <c r="R121" s="39"/>
+      <c r="S121" s="43" t="s">
         <v>595</v>
       </c>
-      <c r="T121" s="42" t="s">
+      <c r="T121" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="345.75" thickBot="1">
-      <c r="A122" s="34">
+    <row r="122" spans="1:20" ht="331.8" thickBot="1">
+      <c r="A122" s="33">
         <v>160</v>
       </c>
-      <c r="B122" s="35" t="s">
+      <c r="B122" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C122" s="35" t="s">
+      <c r="C122" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D122" s="35" t="s">
+      <c r="D122" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="E122" s="36" t="s">
+      <c r="E122" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="F122" s="37">
+      <c r="F122" s="36">
         <v>45376</v>
       </c>
-      <c r="G122" s="38" t="s">
+      <c r="G122" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="H122" s="38" t="s">
+      <c r="H122" s="37" t="s">
         <v>599</v>
       </c>
-      <c r="I122" s="38" t="s">
+      <c r="I122" s="37" t="s">
         <v>600</v>
       </c>
-      <c r="J122" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K122" s="39"/>
-      <c r="L122" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M122" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N122" s="39" t="s">
+      <c r="J122" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K122" s="38"/>
+      <c r="L122" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M122" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N122" s="38" t="s">
         <v>601</v>
       </c>
-      <c r="O122" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P122" s="39" t="s">
+      <c r="O122" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P122" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q122" s="39"/>
-      <c r="R122" s="40"/>
-      <c r="S122" s="44" t="s">
+      <c r="Q122" s="38"/>
+      <c r="R122" s="39"/>
+      <c r="S122" s="43" t="s">
         <v>598</v>
       </c>
-      <c r="T122" s="42" t="s">
+      <c r="T122" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="330.75" thickBot="1">
-      <c r="A123" s="34">
+    <row r="123" spans="1:20" ht="317.39999999999998" thickBot="1">
+      <c r="A123" s="33">
         <v>161</v>
       </c>
-      <c r="B123" s="35" t="s">
+      <c r="B123" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C123" s="35" t="s">
+      <c r="C123" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D123" s="35" t="s">
+      <c r="D123" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="E123" s="36" t="s">
+      <c r="E123" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="F123" s="37">
+      <c r="F123" s="36">
         <v>45376</v>
       </c>
-      <c r="G123" s="38" t="s">
+      <c r="G123" s="37" t="s">
         <v>690</v>
       </c>
-      <c r="H123" s="38" t="s">
+      <c r="H123" s="37" t="s">
         <v>603</v>
       </c>
-      <c r="I123" s="38" t="s">
+      <c r="I123" s="37" t="s">
         <v>604</v>
       </c>
-      <c r="J123" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K123" s="39"/>
-      <c r="L123" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M123" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N123" s="39" t="s">
+      <c r="J123" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K123" s="38"/>
+      <c r="L123" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M123" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N123" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="O123" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P123" s="39" t="s">
+      <c r="O123" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P123" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q123" s="39"/>
-      <c r="R123" s="40"/>
-      <c r="S123" s="44" t="s">
+      <c r="Q123" s="38"/>
+      <c r="R123" s="39"/>
+      <c r="S123" s="43" t="s">
         <v>602</v>
       </c>
-      <c r="T123" s="42" t="s">
+      <c r="T123" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="135.75" thickBot="1">
+    <row r="124" spans="1:20" ht="115.8" thickBot="1">
       <c r="A124" s="20">
         <v>162</v>
       </c>
@@ -12525,7 +12526,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="135.75" thickBot="1">
+    <row r="125" spans="1:20" ht="115.8" thickBot="1">
       <c r="A125" s="20">
         <v>163</v>
       </c>
@@ -12563,7 +12564,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="135.75" thickBot="1">
+    <row r="126" spans="1:20" ht="115.8" thickBot="1">
       <c r="A126" s="20">
         <v>164</v>
       </c>
@@ -12601,7 +12602,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="135.75" thickBot="1">
+    <row r="127" spans="1:20" ht="115.8" thickBot="1">
       <c r="A127" s="20">
         <v>165</v>
       </c>
@@ -12639,7 +12640,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="135.75" thickBot="1">
+    <row r="128" spans="1:20" ht="115.8" thickBot="1">
       <c r="A128" s="20">
         <v>166</v>
       </c>
@@ -12677,7 +12678,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="135.75" thickBot="1">
+    <row r="129" spans="1:20" ht="115.8" thickBot="1">
       <c r="A129" s="20">
         <v>167</v>
       </c>
@@ -12715,7 +12716,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="135.75" thickBot="1">
+    <row r="130" spans="1:20" ht="115.8" thickBot="1">
       <c r="A130" s="20">
         <v>168</v>
       </c>
@@ -12753,63 +12754,63 @@
         <v>88</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="285.75" thickBot="1">
-      <c r="A131" s="34">
+    <row r="131" spans="1:20" ht="259.8" thickBot="1">
+      <c r="A131" s="33">
         <v>169</v>
       </c>
-      <c r="B131" s="35" t="s">
+      <c r="B131" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D131" s="35" t="s">
+      <c r="D131" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="E131" s="36" t="s">
+      <c r="E131" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="F131" s="37">
+      <c r="F131" s="36">
         <v>45376</v>
       </c>
-      <c r="G131" s="38" t="s">
+      <c r="G131" s="37" t="s">
         <v>691</v>
       </c>
-      <c r="H131" s="38" t="s">
+      <c r="H131" s="37" t="s">
         <v>606</v>
       </c>
-      <c r="I131" s="38" t="s">
+      <c r="I131" s="37" t="s">
         <v>607</v>
       </c>
-      <c r="J131" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K131" s="39"/>
-      <c r="L131" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M131" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N131" s="39" t="s">
+      <c r="J131" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K131" s="38"/>
+      <c r="L131" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M131" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N131" s="38" t="s">
         <v>608</v>
       </c>
-      <c r="O131" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P131" s="39" t="s">
+      <c r="O131" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P131" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="Q131" s="39"/>
-      <c r="R131" s="40"/>
-      <c r="S131" s="44" t="s">
+      <c r="Q131" s="38"/>
+      <c r="R131" s="39"/>
+      <c r="S131" s="43" t="s">
         <v>605</v>
       </c>
-      <c r="T131" s="42" t="s">
+      <c r="T131" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="150.75" thickBot="1">
+    <row r="132" spans="1:20" ht="144.6" thickBot="1">
       <c r="A132" s="20">
         <v>191</v>
       </c>
@@ -12829,7 +12830,7 @@
       <c r="G132" s="24"/>
       <c r="H132" s="24"/>
       <c r="I132" s="24"/>
-      <c r="J132" s="46" t="s">
+      <c r="J132" s="45" t="s">
         <v>363</v>
       </c>
       <c r="K132" s="25" t="s">
@@ -12847,237 +12848,237 @@
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="165.75" thickBot="1">
-      <c r="A133" s="34">
+    <row r="133" spans="1:20" ht="144.6" thickBot="1">
+      <c r="A133" s="33">
         <v>368</v>
       </c>
-      <c r="B133" s="35" t="s">
+      <c r="B133" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C133" s="35" t="s">
+      <c r="C133" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D133" s="35" t="s">
+      <c r="D133" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="E133" s="36" t="s">
+      <c r="E133" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="F133" s="38">
+      <c r="F133" s="37">
         <v>45374</v>
       </c>
-      <c r="G133" s="50" t="s">
+      <c r="G133" s="49" t="s">
         <v>509</v>
       </c>
-      <c r="H133" s="48" t="s">
+      <c r="H133" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="I133" s="38" t="s">
+      <c r="I133" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="J133" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K133" s="39"/>
-      <c r="L133" s="39"/>
-      <c r="M133" s="39"/>
-      <c r="N133" s="39"/>
-      <c r="O133" s="39"/>
-      <c r="P133" s="39"/>
-      <c r="Q133" s="39"/>
-      <c r="R133" s="40"/>
-      <c r="S133" s="41" t="s">
+      <c r="J133" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K133" s="38"/>
+      <c r="L133" s="38"/>
+      <c r="M133" s="38"/>
+      <c r="N133" s="38"/>
+      <c r="O133" s="38"/>
+      <c r="P133" s="38"/>
+      <c r="Q133" s="38"/>
+      <c r="R133" s="39"/>
+      <c r="S133" s="40" t="s">
         <v>475</v>
       </c>
-      <c r="T133" s="42" t="s">
+      <c r="T133" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="225.75" thickBot="1">
-      <c r="A134" s="34">
+    <row r="134" spans="1:20" ht="202.2" thickBot="1">
+      <c r="A134" s="33">
         <v>369</v>
       </c>
-      <c r="B134" s="35" t="s">
+      <c r="B134" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C134" s="35" t="s">
+      <c r="C134" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D134" s="35" t="s">
+      <c r="D134" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="E134" s="36" t="s">
+      <c r="E134" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="F134" s="38">
+      <c r="F134" s="37">
         <v>45376</v>
       </c>
-      <c r="G134" s="60" t="s">
+      <c r="G134" s="59" t="s">
         <v>692</v>
       </c>
-      <c r="H134" s="48" t="s">
+      <c r="H134" s="47" t="s">
         <v>525</v>
       </c>
-      <c r="I134" s="38" t="s">
+      <c r="I134" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="J134" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K134" s="39"/>
-      <c r="L134" s="39"/>
-      <c r="M134" s="39"/>
-      <c r="N134" s="39"/>
-      <c r="O134" s="39"/>
-      <c r="P134" s="39"/>
-      <c r="Q134" s="39"/>
-      <c r="R134" s="40"/>
-      <c r="S134" s="44" t="s">
+      <c r="J134" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K134" s="38"/>
+      <c r="L134" s="38"/>
+      <c r="M134" s="38"/>
+      <c r="N134" s="38"/>
+      <c r="O134" s="38"/>
+      <c r="P134" s="38"/>
+      <c r="Q134" s="38"/>
+      <c r="R134" s="39"/>
+      <c r="S134" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="T134" s="42" t="s">
+      <c r="T134" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="195.75" thickBot="1">
-      <c r="A135" s="34">
+    <row r="135" spans="1:20" ht="187.8" thickBot="1">
+      <c r="A135" s="33">
         <v>370</v>
       </c>
-      <c r="B135" s="35" t="s">
+      <c r="B135" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C135" s="35" t="s">
+      <c r="C135" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D135" s="35" t="s">
+      <c r="D135" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="E135" s="36" t="s">
+      <c r="E135" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="F135" s="38">
+      <c r="F135" s="37">
         <v>45374</v>
       </c>
-      <c r="G135" s="50" t="s">
+      <c r="G135" s="49" t="s">
         <v>493</v>
       </c>
-      <c r="H135" s="48" t="s">
+      <c r="H135" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="I135" s="38" t="s">
+      <c r="I135" s="37" t="s">
         <v>471</v>
       </c>
-      <c r="J135" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K135" s="39"/>
-      <c r="L135" s="39"/>
-      <c r="M135" s="39"/>
-      <c r="N135" s="39"/>
-      <c r="O135" s="39"/>
-      <c r="P135" s="39"/>
-      <c r="Q135" s="39"/>
-      <c r="R135" s="40"/>
-      <c r="S135" s="41" t="s">
+      <c r="J135" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K135" s="38"/>
+      <c r="L135" s="38"/>
+      <c r="M135" s="38"/>
+      <c r="N135" s="38"/>
+      <c r="O135" s="38"/>
+      <c r="P135" s="38"/>
+      <c r="Q135" s="38"/>
+      <c r="R135" s="39"/>
+      <c r="S135" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="T135" s="42" t="s">
+      <c r="T135" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="150.75" thickBot="1">
-      <c r="A136" s="34">
+    <row r="136" spans="1:20" ht="144.6" thickBot="1">
+      <c r="A136" s="33">
         <v>373</v>
       </c>
-      <c r="B136" s="35" t="s">
+      <c r="B136" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C136" s="35" t="s">
+      <c r="C136" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D136" s="35" t="s">
+      <c r="D136" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="E136" s="36" t="s">
+      <c r="E136" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="F136" s="37">
+      <c r="F136" s="36">
         <v>45376</v>
       </c>
-      <c r="G136" s="38" t="s">
+      <c r="G136" s="37" t="s">
         <v>693</v>
       </c>
-      <c r="H136" s="38" t="s">
+      <c r="H136" s="37" t="s">
         <v>561</v>
       </c>
-      <c r="I136" s="38" t="s">
+      <c r="I136" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="J136" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K136" s="39"/>
-      <c r="L136" s="39"/>
-      <c r="M136" s="39"/>
-      <c r="N136" s="39"/>
-      <c r="O136" s="39"/>
-      <c r="P136" s="39"/>
-      <c r="Q136" s="39"/>
-      <c r="R136" s="40"/>
-      <c r="S136" s="44" t="s">
+      <c r="J136" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K136" s="38"/>
+      <c r="L136" s="38"/>
+      <c r="M136" s="38"/>
+      <c r="N136" s="38"/>
+      <c r="O136" s="38"/>
+      <c r="P136" s="38"/>
+      <c r="Q136" s="38"/>
+      <c r="R136" s="39"/>
+      <c r="S136" s="43" t="s">
         <v>563</v>
       </c>
-      <c r="T136" s="42" t="s">
+      <c r="T136" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="165.75" thickBot="1">
-      <c r="A137" s="34">
+    <row r="137" spans="1:20" ht="159" thickBot="1">
+      <c r="A137" s="33">
         <v>374</v>
       </c>
-      <c r="B137" s="35" t="s">
+      <c r="B137" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="35" t="s">
+      <c r="C137" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D137" s="35" t="s">
+      <c r="D137" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="E137" s="36" t="s">
+      <c r="E137" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="F137" s="37">
+      <c r="F137" s="36">
         <v>45376</v>
       </c>
-      <c r="G137" s="38" t="s">
+      <c r="G137" s="37" t="s">
         <v>694</v>
       </c>
-      <c r="H137" s="38" t="s">
+      <c r="H137" s="37" t="s">
         <v>564</v>
       </c>
-      <c r="I137" s="38" t="s">
+      <c r="I137" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="J137" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K137" s="39"/>
-      <c r="L137" s="39"/>
-      <c r="M137" s="39"/>
-      <c r="N137" s="39"/>
-      <c r="O137" s="39"/>
-      <c r="P137" s="39"/>
-      <c r="Q137" s="39"/>
-      <c r="R137" s="40"/>
-      <c r="S137" s="44" t="s">
+      <c r="J137" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K137" s="38"/>
+      <c r="L137" s="38"/>
+      <c r="M137" s="38"/>
+      <c r="N137" s="38"/>
+      <c r="O137" s="38"/>
+      <c r="P137" s="38"/>
+      <c r="Q137" s="38"/>
+      <c r="R137" s="39"/>
+      <c r="S137" s="43" t="s">
         <v>566</v>
       </c>
-      <c r="T137" s="42" t="s">
+      <c r="T137" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="165">
+    <row r="138" spans="1:20" ht="144">
       <c r="A138" s="20">
         <v>376</v>
       </c>
@@ -17810,13 +17811,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="4" width="102" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
@@ -17903,7 +17904,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="14.4">
       <c r="A7" s="11" t="s">
         <v>77</v>
       </c>
@@ -17917,7 +17918,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="14.4">
       <c r="A8" s="11" t="s">
         <v>94</v>
       </c>
@@ -17931,7 +17932,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="14.4">
       <c r="A9" s="11" t="s">
         <v>91</v>
       </c>
@@ -17945,7 +17946,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45">
+    <row r="10" spans="1:4" ht="43.2">
       <c r="A10" s="11" t="s">
         <v>329</v>
       </c>
@@ -19481,34 +19482,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="4" t="s">
         <v>363</v>
       </c>
     </row>

--- a/GATEWAY/A1#111GARASOFTWAREXX/Gara_Software/AnaSanPlus/V1/report-checklist.xlsx
+++ b/GATEWAY/A1#111GARASOFTWAREXX/Gara_Software/AnaSanPlus/V1/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\AnaSan\FSE\FSE 2\Accreditamento\V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7162DD-3484-448C-BEA5-7B0F43E5878A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4271250-C227-4B04-913F-8515F979F68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="726">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1873,9 +1873,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>Viene effettuata la segnalazione dell'errore all'assistenza</t>
-  </si>
-  <si>
     <t>{
     "traceID": "e4ab0c649103c130",
     "spanID": "e4ab0c649103c130",
@@ -1921,9 +1918,6 @@
     <t>Errore di sintassi. ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.</t>
   </si>
   <si>
-    <t>Viene visualizzato l'errore per consentire la correzione del file CDA</t>
-  </si>
-  <si>
     <t>{
     "traceID": "efd5500d5b2e1a8d",
     "spanID": "efd5500d5b2e1a8d",
@@ -2743,9 +2737,6 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.a565d1ace74eb76a1589d3d00e4ee8f945009dfe3fecca23f334022d0ae0840c.91b0bbac65^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>viene visualizzato l'errore per consentire la correzione del file CDA</t>
-  </si>
-  <si>
     <t>{
     "traceID": "755021ee15e4d4e6",
     "spanID": "755021ee15e4d4e6",
@@ -3577,6 +3568,21 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.a565d1ace74eb76a1589d3d00e4ee8f945009dfe3fecca23f334022d0ae0840c.3542f05a2c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene effettuata la segnalazione dell'errore all'assistenza attraverso la memorizzazione dell'errore in un file di Log. Inoltre viene mostrato sullo schermo un messaggio di errore  L'operatore deve obbligatoriamente correggere i dati per proseguire. L'operazione di retry viene eseguita manualmente dall’operatore in back office</t>
+  </si>
+  <si>
+    <t>Viene effettuata la segnalazione dell'errore all'assistenza attraverso la memorizzazione in un file di Log. Il documento viene messo in una coda che si occupa di eseguire la retry fino a 5 tentativi. Se il documento resta nella coda verrà poi gestito in backoffice da un operatore del supporto tecnico.</t>
+  </si>
+  <si>
+    <t>Errore di sintassi. Il campo "Condizioni del paziente alla dimissione e diagnosi di dimissione" è obbligatorio</t>
+  </si>
+  <si>
+    <t>Errore di sintassi. E' obbligatorio compilare la sezione 'Referto'.</t>
+  </si>
+  <si>
+    <t>Errore di sintassi. Il campo "Modalità di Trasporto" è obbligatorio</t>
   </si>
 </sst>
 </file>
@@ -6608,10 +6614,10 @@
   <dimension ref="A1:T755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -6882,13 +6888,13 @@
         <v>45370</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J10" s="42" t="s">
         <v>111</v>
@@ -6902,7 +6908,7 @@
       <c r="Q10" s="38"/>
       <c r="R10" s="39"/>
       <c r="S10" s="40" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T10" s="41" t="s">
         <v>48</v>
@@ -6928,13 +6934,13 @@
         <v>45370</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>111</v>
@@ -6948,7 +6954,7 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="39"/>
       <c r="S11" s="40" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="T11" s="41" t="s">
         <v>48</v>
@@ -6974,13 +6980,13 @@
         <v>45374</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>111</v>
@@ -6994,7 +7000,7 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="39"/>
       <c r="S12" s="40" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="T12" s="41" t="s">
         <v>48</v>
@@ -7024,7 +7030,7 @@
         <v>363</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -7062,7 +7068,7 @@
         <v>363</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -7096,13 +7102,13 @@
         <v>45379</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J15" s="38" t="s">
         <v>111</v>
@@ -7116,7 +7122,7 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="39"/>
       <c r="S15" s="43" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="T15" s="41" t="s">
         <v>48</v>
@@ -7146,7 +7152,7 @@
         <v>363</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
@@ -7184,7 +7190,7 @@
         <v>363</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -7222,7 +7228,7 @@
         <v>363</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -7256,7 +7262,7 @@
         <v>45367</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H19" s="47" t="s">
         <v>367</v>
@@ -7302,13 +7308,13 @@
         <v>45369</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J20" s="42" t="s">
         <v>111</v>
@@ -7322,7 +7328,7 @@
       <c r="Q20" s="38"/>
       <c r="R20" s="39"/>
       <c r="S20" s="40" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T20" s="41" t="s">
         <v>48</v>
@@ -7352,7 +7358,7 @@
         <v>363</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -7392,7 +7398,7 @@
         <v>363</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -7426,13 +7432,13 @@
         <v>45379</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J23" s="38" t="s">
         <v>111</v>
@@ -7446,7 +7452,7 @@
       <c r="Q23" s="38"/>
       <c r="R23" s="39"/>
       <c r="S23" s="43" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="T23" s="41" t="s">
         <v>48</v>
@@ -7476,7 +7482,7 @@
         <v>363</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -7514,7 +7520,7 @@
         <v>363</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -7552,7 +7558,7 @@
         <v>363</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
@@ -7586,10 +7592,10 @@
         <v>45370</v>
       </c>
       <c r="G27" s="49" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H27" s="47" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I27" s="37" t="s">
         <v>372</v>
@@ -7605,18 +7611,18 @@
         <v>111</v>
       </c>
       <c r="N27" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O27" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P27" s="42" t="s">
-        <v>373</v>
+        <v>721</v>
       </c>
       <c r="Q27" s="38"/>
       <c r="R27" s="39"/>
       <c r="S27" s="40" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T27" s="41" t="s">
         <v>88</v>
@@ -7642,10 +7648,10 @@
         <v>45374</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H28" s="47" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I28" s="37" t="s">
         <v>372</v>
@@ -7661,18 +7667,18 @@
         <v>111</v>
       </c>
       <c r="N28" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O28" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P28" s="42" t="s">
-        <v>373</v>
+        <v>721</v>
       </c>
       <c r="Q28" s="38"/>
       <c r="R28" s="39"/>
       <c r="S28" s="40" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="T28" s="41" t="s">
         <v>88</v>
@@ -7698,7 +7704,7 @@
         <v>45367</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H29" s="47" t="s">
         <v>371</v>
@@ -7717,18 +7723,18 @@
         <v>111</v>
       </c>
       <c r="N29" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O29" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P29" s="42" t="s">
-        <v>373</v>
+        <v>721</v>
       </c>
       <c r="Q29" s="38"/>
       <c r="R29" s="39"/>
       <c r="S29" s="40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T29" s="41" t="s">
         <v>88</v>
@@ -7754,10 +7760,10 @@
         <v>45374</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H30" s="47" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I30" s="37" t="s">
         <v>372</v>
@@ -7773,18 +7779,18 @@
         <v>111</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O30" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P30" s="38" t="s">
-        <v>373</v>
+        <v>721</v>
       </c>
       <c r="Q30" s="38"/>
       <c r="R30" s="39"/>
       <c r="S30" s="40" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T30" s="41" t="s">
         <v>88</v>
@@ -7810,10 +7816,10 @@
         <v>45374</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H31" s="47" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I31" s="37" t="s">
         <v>372</v>
@@ -7829,18 +7835,18 @@
         <v>111</v>
       </c>
       <c r="N31" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O31" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P31" s="38" t="s">
-        <v>373</v>
+        <v>721</v>
       </c>
       <c r="Q31" s="38"/>
       <c r="R31" s="39"/>
       <c r="S31" s="40" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="T31" s="41" t="s">
         <v>88</v>
@@ -7866,10 +7872,10 @@
         <v>45370</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H32" s="47" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I32" s="37" t="s">
         <v>372</v>
@@ -7885,18 +7891,18 @@
         <v>111</v>
       </c>
       <c r="N32" s="42" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="O32" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P32" s="38" t="s">
-        <v>373</v>
+        <v>721</v>
       </c>
       <c r="Q32" s="38"/>
       <c r="R32" s="39"/>
       <c r="S32" s="40" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="T32" s="41" t="s">
         <v>88</v>
@@ -7922,10 +7928,10 @@
         <v>45374</v>
       </c>
       <c r="G33" s="53" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H33" s="37" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I33" s="37" t="s">
         <v>372</v>
@@ -7941,18 +7947,18 @@
         <v>111</v>
       </c>
       <c r="N33" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O33" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P33" s="42" t="s">
-        <v>373</v>
+        <v>721</v>
       </c>
       <c r="Q33" s="38"/>
       <c r="R33" s="39"/>
       <c r="S33" s="40" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="T33" s="41" t="s">
         <v>88</v>
@@ -7978,10 +7984,10 @@
         <v>45367</v>
       </c>
       <c r="G34" s="46" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I34" s="37" t="s">
         <v>372</v>
@@ -7997,18 +8003,18 @@
         <v>111</v>
       </c>
       <c r="N34" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O34" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P34" s="42" t="s">
-        <v>373</v>
+        <v>721</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="39"/>
       <c r="S34" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T34" s="41" t="s">
         <v>88</v>
@@ -8034,10 +8040,10 @@
         <v>45374</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I35" s="37" t="s">
         <v>372</v>
@@ -8053,18 +8059,18 @@
         <v>111</v>
       </c>
       <c r="N35" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O35" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P35" s="38" t="s">
-        <v>373</v>
+        <v>721</v>
       </c>
       <c r="Q35" s="38"/>
       <c r="R35" s="39"/>
       <c r="S35" s="40" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="T35" s="41" t="s">
         <v>88</v>
@@ -8090,10 +8096,10 @@
         <v>45374</v>
       </c>
       <c r="G36" s="54" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H36" s="47" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I36" s="37" t="s">
         <v>372</v>
@@ -8109,24 +8115,24 @@
         <v>111</v>
       </c>
       <c r="N36" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O36" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P36" s="38" t="s">
-        <v>373</v>
+        <v>721</v>
       </c>
       <c r="Q36" s="38"/>
       <c r="R36" s="39"/>
       <c r="S36" s="40" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T36" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="58.2" thickBot="1">
+    <row r="37" spans="1:20" ht="159" thickBot="1">
       <c r="A37" s="33">
         <v>44</v>
       </c>
@@ -8155,13 +8161,13 @@
         <v>111</v>
       </c>
       <c r="N37" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O37" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="P37" s="38" t="s">
-        <v>373</v>
+      <c r="P37" s="42" t="s">
+        <v>722</v>
       </c>
       <c r="Q37" s="38"/>
       <c r="R37" s="39" t="s">
@@ -8201,13 +8207,13 @@
         <v>111</v>
       </c>
       <c r="N38" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O38" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P38" s="42" t="s">
-        <v>373</v>
+        <v>722</v>
       </c>
       <c r="Q38" s="38"/>
       <c r="R38" s="39" t="s">
@@ -8218,7 +8224,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="58.2" thickBot="1">
+    <row r="39" spans="1:20" ht="159" thickBot="1">
       <c r="A39" s="33">
         <v>47</v>
       </c>
@@ -8247,13 +8253,13 @@
         <v>111</v>
       </c>
       <c r="N39" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O39" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P39" s="42" t="s">
-        <v>373</v>
+        <v>722</v>
       </c>
       <c r="Q39" s="38"/>
       <c r="R39" s="39" t="s">
@@ -8264,7 +8270,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="58.2" thickBot="1">
+    <row r="40" spans="1:20" ht="159" thickBot="1">
       <c r="A40" s="33">
         <v>48</v>
       </c>
@@ -8293,13 +8299,13 @@
         <v>111</v>
       </c>
       <c r="N40" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O40" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="P40" s="38" t="s">
-        <v>373</v>
+      <c r="P40" s="42" t="s">
+        <v>722</v>
       </c>
       <c r="Q40" s="38"/>
       <c r="R40" s="39" t="s">
@@ -8310,7 +8316,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="58.2" thickBot="1">
+    <row r="41" spans="1:20" ht="159" thickBot="1">
       <c r="A41" s="33">
         <v>51</v>
       </c>
@@ -8339,13 +8345,13 @@
         <v>111</v>
       </c>
       <c r="N41" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O41" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="P41" s="38" t="s">
-        <v>373</v>
+      <c r="P41" s="42" t="s">
+        <v>722</v>
       </c>
       <c r="Q41" s="38"/>
       <c r="R41" s="39" t="s">
@@ -8376,13 +8382,13 @@
         <v>45370</v>
       </c>
       <c r="G42" s="49" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H42" s="47" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I42" s="37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J42" s="42" t="s">
         <v>111</v>
@@ -8395,18 +8401,18 @@
         <v>111</v>
       </c>
       <c r="N42" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O42" s="38" t="s">
         <v>111</v>
       </c>
       <c r="P42" s="42" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
       <c r="Q42" s="38"/>
       <c r="R42" s="39"/>
       <c r="S42" s="43" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="T42" s="41" t="s">
         <v>88</v>
@@ -8432,13 +8438,13 @@
         <v>45370</v>
       </c>
       <c r="G43" s="49" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H43" s="47" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I43" s="37" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J43" s="42" t="s">
         <v>111</v>
@@ -8451,18 +8457,18 @@
         <v>111</v>
       </c>
       <c r="N43" s="42" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O43" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P43" s="42" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
       <c r="Q43" s="38"/>
       <c r="R43" s="39"/>
       <c r="S43" s="40" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="T43" s="41" t="s">
         <v>88</v>
@@ -8488,13 +8494,13 @@
         <v>45370</v>
       </c>
       <c r="G44" s="49" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H44" s="47" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J44" s="42" t="s">
         <v>111</v>
@@ -8507,18 +8513,18 @@
         <v>111</v>
       </c>
       <c r="N44" s="42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O44" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P44" s="42" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
       <c r="Q44" s="38"/>
       <c r="R44" s="39"/>
       <c r="S44" s="40" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T44" s="41" t="s">
         <v>88</v>
@@ -8544,13 +8550,13 @@
         <v>45370</v>
       </c>
       <c r="G45" s="49" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H45" s="47" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I45" s="37" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J45" s="42" t="s">
         <v>111</v>
@@ -8563,18 +8569,18 @@
         <v>111</v>
       </c>
       <c r="N45" s="42" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O45" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P45" s="42" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
       <c r="Q45" s="38"/>
       <c r="R45" s="39"/>
       <c r="S45" s="40" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="T45" s="41" t="s">
         <v>88</v>
@@ -8600,13 +8606,13 @@
         <v>45370</v>
       </c>
       <c r="G46" s="49" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H46" s="47" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I46" s="37" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J46" s="42" t="s">
         <v>111</v>
@@ -8619,18 +8625,18 @@
         <v>111</v>
       </c>
       <c r="N46" s="42" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O46" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P46" s="42" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
       <c r="Q46" s="38"/>
       <c r="R46" s="39"/>
       <c r="S46" s="40" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="T46" s="41" t="s">
         <v>88</v>
@@ -8656,13 +8662,13 @@
         <v>45370</v>
       </c>
       <c r="G47" s="49" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H47" s="47" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I47" s="37" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J47" s="42" t="s">
         <v>111</v>
@@ -8675,18 +8681,18 @@
         <v>111</v>
       </c>
       <c r="N47" s="42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O47" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P47" s="42" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
       <c r="Q47" s="38"/>
       <c r="R47" s="39"/>
       <c r="S47" s="40" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T47" s="41" t="s">
         <v>88</v>
@@ -8712,13 +8718,13 @@
         <v>45371</v>
       </c>
       <c r="G48" s="49" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H48" s="47" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I48" s="37" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J48" s="42" t="s">
         <v>111</v>
@@ -8731,18 +8737,18 @@
         <v>111</v>
       </c>
       <c r="N48" s="42" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O48" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P48" s="42" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
       <c r="Q48" s="38"/>
       <c r="R48" s="39"/>
       <c r="S48" s="40" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="T48" s="41" t="s">
         <v>88</v>
@@ -8768,13 +8774,13 @@
         <v>45371</v>
       </c>
       <c r="G49" s="49" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H49" s="52" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I49" s="37" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J49" s="42" t="s">
         <v>111</v>
@@ -8787,18 +8793,18 @@
         <v>111</v>
       </c>
       <c r="N49" s="42" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O49" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P49" s="42" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
       <c r="Q49" s="38"/>
       <c r="R49" s="39"/>
       <c r="S49" s="40" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="T49" s="41" t="s">
         <v>88</v>
@@ -8824,13 +8830,13 @@
         <v>45371</v>
       </c>
       <c r="G50" s="49" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H50" s="47" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I50" s="37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J50" s="42" t="s">
         <v>111</v>
@@ -8843,18 +8849,18 @@
         <v>111</v>
       </c>
       <c r="N50" s="42" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="O50" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P50" s="42" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
       <c r="Q50" s="38"/>
       <c r="R50" s="39"/>
       <c r="S50" s="40" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="T50" s="41" t="s">
         <v>88</v>
@@ -8880,13 +8886,13 @@
         <v>45371</v>
       </c>
       <c r="G51" s="49" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H51" s="47" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I51" s="37" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J51" s="42" t="s">
         <v>111</v>
@@ -8899,18 +8905,18 @@
         <v>111</v>
       </c>
       <c r="N51" s="42" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O51" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="P51" s="38" t="s">
-        <v>383</v>
+      <c r="P51" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q51" s="38"/>
       <c r="R51" s="39"/>
       <c r="S51" s="40" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="T51" s="41" t="s">
         <v>88</v>
@@ -8940,7 +8946,7 @@
         <v>363</v>
       </c>
       <c r="K52" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L52" s="25"/>
       <c r="M52" s="25"/>
@@ -8974,13 +8980,13 @@
         <v>45376</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H53" s="37" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J53" s="38" t="s">
         <v>111</v>
@@ -8993,18 +8999,18 @@
         <v>111</v>
       </c>
       <c r="N53" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O53" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P53" s="38" t="s">
-        <v>383</v>
+      <c r="P53" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q53" s="38"/>
       <c r="R53" s="39"/>
       <c r="S53" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="T53" s="41" t="s">
         <v>88</v>
@@ -9030,13 +9036,13 @@
         <v>45376</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I54" s="37" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J54" s="38" t="s">
         <v>111</v>
@@ -9049,18 +9055,18 @@
         <v>111</v>
       </c>
       <c r="N54" s="38" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O54" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P54" s="38" t="s">
-        <v>383</v>
+      <c r="P54" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q54" s="38"/>
       <c r="R54" s="39"/>
       <c r="S54" s="43" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="T54" s="41" t="s">
         <v>88</v>
@@ -9086,13 +9092,13 @@
         <v>45376</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I55" s="37" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J55" s="38" t="s">
         <v>111</v>
@@ -9105,18 +9111,18 @@
         <v>111</v>
       </c>
       <c r="N55" s="38" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O55" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P55" s="38" t="s">
-        <v>383</v>
+      <c r="P55" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q55" s="38"/>
       <c r="R55" s="39"/>
       <c r="S55" s="43" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="T55" s="41" t="s">
         <v>88</v>
@@ -9142,13 +9148,13 @@
         <v>45376</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I56" s="37" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J56" s="38" t="s">
         <v>111</v>
@@ -9161,18 +9167,18 @@
         <v>111</v>
       </c>
       <c r="N56" s="38" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="O56" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P56" s="38" t="s">
-        <v>383</v>
+      <c r="P56" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q56" s="38"/>
       <c r="R56" s="39"/>
       <c r="S56" s="43" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="T56" s="41" t="s">
         <v>88</v>
@@ -9198,13 +9204,13 @@
         <v>45376</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J57" s="38" t="s">
         <v>111</v>
@@ -9217,18 +9223,18 @@
         <v>111</v>
       </c>
       <c r="N57" s="38" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="O57" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P57" s="38" t="s">
-        <v>383</v>
+      <c r="P57" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q57" s="38"/>
       <c r="R57" s="39"/>
       <c r="S57" s="43" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="T57" s="41" t="s">
         <v>88</v>
@@ -9254,13 +9260,13 @@
         <v>45376</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I58" s="37" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>111</v>
@@ -9273,18 +9279,18 @@
         <v>111</v>
       </c>
       <c r="N58" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O58" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P58" s="38" t="s">
-        <v>548</v>
+      <c r="P58" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q58" s="38"/>
       <c r="R58" s="39"/>
       <c r="S58" s="43" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="T58" s="41" t="s">
         <v>88</v>
@@ -9310,13 +9316,13 @@
         <v>45376</v>
       </c>
       <c r="G59" s="37" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H59" s="37" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I59" s="37" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J59" s="38" t="s">
         <v>111</v>
@@ -9329,18 +9335,18 @@
         <v>111</v>
       </c>
       <c r="N59" s="38" t="s">
-        <v>411</v>
+        <v>723</v>
       </c>
       <c r="O59" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P59" s="38" t="s">
-        <v>383</v>
+      <c r="P59" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q59" s="38"/>
       <c r="R59" s="39"/>
       <c r="S59" s="43" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="T59" s="41" t="s">
         <v>88</v>
@@ -9366,13 +9372,13 @@
         <v>45376</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I60" s="37" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J60" s="38" t="s">
         <v>111</v>
@@ -9385,18 +9391,18 @@
         <v>111</v>
       </c>
       <c r="N60" s="38" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="O60" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P60" s="38" t="s">
-        <v>383</v>
+      <c r="P60" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q60" s="38"/>
       <c r="R60" s="39"/>
       <c r="S60" s="43" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="T60" s="41" t="s">
         <v>88</v>
@@ -9426,7 +9432,7 @@
         <v>363</v>
       </c>
       <c r="K61" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
@@ -9464,7 +9470,7 @@
         <v>363</v>
       </c>
       <c r="K62" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
@@ -9498,13 +9504,13 @@
         <v>45376</v>
       </c>
       <c r="G63" s="55" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I63" s="37" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J63" s="38" t="s">
         <v>111</v>
@@ -9517,18 +9523,18 @@
         <v>111</v>
       </c>
       <c r="N63" s="38" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="O63" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P63" s="38" t="s">
-        <v>383</v>
+      <c r="P63" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q63" s="38"/>
       <c r="R63" s="39"/>
       <c r="S63" s="43" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="T63" s="41" t="s">
         <v>88</v>
@@ -9558,7 +9564,7 @@
         <v>363</v>
       </c>
       <c r="K64" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
@@ -9592,13 +9598,13 @@
         <v>45367</v>
       </c>
       <c r="G65" s="49" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H65" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="I65" s="37" t="s">
         <v>380</v>
-      </c>
-      <c r="I65" s="37" t="s">
-        <v>381</v>
       </c>
       <c r="J65" s="42" t="s">
         <v>111</v>
@@ -9611,18 +9617,18 @@
         <v>111</v>
       </c>
       <c r="N65" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O65" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P65" s="42" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
       <c r="Q65" s="38"/>
       <c r="R65" s="39"/>
       <c r="S65" s="40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T65" s="41" t="s">
         <v>88</v>
@@ -9648,13 +9654,13 @@
         <v>45367</v>
       </c>
       <c r="G66" s="49" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H66" s="47" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I66" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J66" s="42" t="s">
         <v>111</v>
@@ -9667,18 +9673,18 @@
         <v>111</v>
       </c>
       <c r="N66" s="42" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O66" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P66" s="42" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
       <c r="Q66" s="38"/>
       <c r="R66" s="39"/>
       <c r="S66" s="40" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="T66" s="41" t="s">
         <v>88</v>
@@ -9704,13 +9710,13 @@
         <v>45369</v>
       </c>
       <c r="G67" s="49" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H67" s="47" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J67" s="42" t="s">
         <v>111</v>
@@ -9723,18 +9729,18 @@
         <v>111</v>
       </c>
       <c r="N67" s="42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O67" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="P67" s="38" t="s">
-        <v>383</v>
+      <c r="P67" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q67" s="38"/>
       <c r="R67" s="39"/>
       <c r="S67" s="40" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="T67" s="41" t="s">
         <v>88</v>
@@ -9760,13 +9766,13 @@
         <v>45367</v>
       </c>
       <c r="G68" s="49" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H68" s="47" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J68" s="42" t="s">
         <v>111</v>
@@ -9779,18 +9785,18 @@
         <v>111</v>
       </c>
       <c r="N68" s="42" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O68" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P68" s="38" t="s">
-        <v>383</v>
+      <c r="P68" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q68" s="38"/>
       <c r="R68" s="39"/>
       <c r="S68" s="40" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="T68" s="41" t="s">
         <v>88</v>
@@ -9816,13 +9822,13 @@
         <v>45367</v>
       </c>
       <c r="G69" s="49" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H69" s="47" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I69" s="37" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J69" s="42" t="s">
         <v>111</v>
@@ -9835,18 +9841,18 @@
         <v>111</v>
       </c>
       <c r="N69" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O69" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P69" s="42" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
       <c r="Q69" s="38"/>
       <c r="R69" s="39"/>
       <c r="S69" s="40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="T69" s="41" t="s">
         <v>88</v>
@@ -9872,13 +9878,13 @@
         <v>45367</v>
       </c>
       <c r="G70" s="49" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H70" s="47" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I70" s="37" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J70" s="42" t="s">
         <v>111</v>
@@ -9891,18 +9897,18 @@
         <v>111</v>
       </c>
       <c r="N70" s="42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O70" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P70" s="42" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
       <c r="Q70" s="38"/>
       <c r="R70" s="39"/>
       <c r="S70" s="40" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="T70" s="41" t="s">
         <v>88</v>
@@ -9932,7 +9938,7 @@
         <v>363</v>
       </c>
       <c r="K71" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
@@ -9966,13 +9972,13 @@
         <v>45369</v>
       </c>
       <c r="G72" s="49" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H72" s="47" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I72" s="37" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J72" s="42" t="s">
         <v>111</v>
@@ -9985,18 +9991,18 @@
         <v>111</v>
       </c>
       <c r="N72" s="42" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O72" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="P72" s="38" t="s">
-        <v>383</v>
+      <c r="P72" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q72" s="38"/>
       <c r="R72" s="39"/>
       <c r="S72" s="40" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T72" s="41" t="s">
         <v>88</v>
@@ -10022,13 +10028,13 @@
         <v>45367</v>
       </c>
       <c r="G73" s="49" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H73" s="47" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I73" s="37" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J73" s="42" t="s">
         <v>111</v>
@@ -10041,18 +10047,18 @@
         <v>111</v>
       </c>
       <c r="N73" s="42" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O73" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P73" s="42" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
       <c r="Q73" s="38"/>
       <c r="R73" s="39"/>
       <c r="S73" s="40" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="T73" s="41" t="s">
         <v>88</v>
@@ -10078,13 +10084,13 @@
         <v>45367</v>
       </c>
       <c r="G74" s="49" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H74" s="47" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I74" s="37" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J74" s="42" t="s">
         <v>111</v>
@@ -10097,18 +10103,18 @@
         <v>111</v>
       </c>
       <c r="N74" s="42" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O74" s="42" t="s">
         <v>111</v>
       </c>
       <c r="P74" s="42" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
       <c r="Q74" s="38"/>
       <c r="R74" s="39"/>
       <c r="S74" s="40" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="T74" s="41" t="s">
         <v>88</v>
@@ -10134,13 +10140,13 @@
         <v>45367</v>
       </c>
       <c r="G75" s="49" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H75" s="47" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I75" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J75" s="42" t="s">
         <v>111</v>
@@ -10153,18 +10159,18 @@
         <v>111</v>
       </c>
       <c r="N75" s="42" t="s">
-        <v>411</v>
+        <v>724</v>
       </c>
       <c r="O75" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="P75" s="38" t="s">
-        <v>383</v>
+      <c r="P75" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q75" s="38"/>
       <c r="R75" s="39"/>
       <c r="S75" s="40" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="T75" s="41" t="s">
         <v>88</v>
@@ -10194,7 +10200,7 @@
         <v>363</v>
       </c>
       <c r="K76" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L76" s="25"/>
       <c r="M76" s="25"/>
@@ -10232,7 +10238,7 @@
         <v>363</v>
       </c>
       <c r="K77" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L77" s="25"/>
       <c r="M77" s="25"/>
@@ -10270,7 +10276,7 @@
         <v>363</v>
       </c>
       <c r="K78" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L78" s="25"/>
       <c r="M78" s="25"/>
@@ -10308,7 +10314,7 @@
         <v>363</v>
       </c>
       <c r="K79" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L79" s="25"/>
       <c r="M79" s="25"/>
@@ -10346,7 +10352,7 @@
         <v>363</v>
       </c>
       <c r="K80" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L80" s="25"/>
       <c r="M80" s="25"/>
@@ -10384,7 +10390,7 @@
         <v>363</v>
       </c>
       <c r="K81" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L81" s="25"/>
       <c r="M81" s="25"/>
@@ -10422,7 +10428,7 @@
         <v>363</v>
       </c>
       <c r="K82" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L82" s="25"/>
       <c r="M82" s="25"/>
@@ -10460,7 +10466,7 @@
         <v>363</v>
       </c>
       <c r="K83" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L83" s="25"/>
       <c r="M83" s="25"/>
@@ -10494,13 +10500,13 @@
         <v>45376</v>
       </c>
       <c r="G84" s="37" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H84" s="37" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I84" s="37" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="J84" s="38" t="s">
         <v>111</v>
@@ -10513,18 +10519,18 @@
         <v>111</v>
       </c>
       <c r="N84" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O84" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P84" s="38" t="s">
-        <v>383</v>
+      <c r="P84" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q84" s="38"/>
       <c r="R84" s="39"/>
       <c r="S84" s="43" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="T84" s="41" t="s">
         <v>88</v>
@@ -10550,13 +10556,13 @@
         <v>45376</v>
       </c>
       <c r="G85" s="37" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H85" s="37" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I85" s="37" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="J85" s="38" t="s">
         <v>111</v>
@@ -10569,18 +10575,18 @@
         <v>111</v>
       </c>
       <c r="N85" s="38" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O85" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P85" s="38" t="s">
-        <v>383</v>
+      <c r="P85" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q85" s="38"/>
       <c r="R85" s="39"/>
       <c r="S85" s="43" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="T85" s="41" t="s">
         <v>88</v>
@@ -10606,13 +10612,13 @@
         <v>45376</v>
       </c>
       <c r="G86" s="37" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H86" s="37" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I86" s="37" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J86" s="38" t="s">
         <v>111</v>
@@ -10625,18 +10631,18 @@
         <v>111</v>
       </c>
       <c r="N86" s="38" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="O86" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P86" s="38" t="s">
-        <v>383</v>
+      <c r="P86" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q86" s="38"/>
       <c r="R86" s="39"/>
       <c r="S86" s="43" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="T86" s="41" t="s">
         <v>88</v>
@@ -10662,13 +10668,13 @@
         <v>45376</v>
       </c>
       <c r="G87" s="37" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H87" s="37" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I87" s="37" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J87" s="38" t="s">
         <v>111</v>
@@ -10681,18 +10687,18 @@
         <v>111</v>
       </c>
       <c r="N87" s="38" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O87" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P87" s="38" t="s">
-        <v>383</v>
+      <c r="P87" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q87" s="38"/>
       <c r="R87" s="39"/>
       <c r="S87" s="43" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="T87" s="41" t="s">
         <v>88</v>
@@ -10718,13 +10724,13 @@
         <v>45376</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H88" s="37" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I88" s="37" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="J88" s="38" t="s">
         <v>111</v>
@@ -10737,18 +10743,18 @@
         <v>111</v>
       </c>
       <c r="N88" s="38" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O88" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P88" s="38" t="s">
-        <v>383</v>
+      <c r="P88" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q88" s="38"/>
       <c r="R88" s="39"/>
       <c r="S88" s="43" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="T88" s="41" t="s">
         <v>88</v>
@@ -10774,13 +10780,13 @@
         <v>45376</v>
       </c>
       <c r="G89" s="37" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="H89" s="37" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I89" s="37" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="J89" s="38" t="s">
         <v>111</v>
@@ -10793,18 +10799,18 @@
         <v>111</v>
       </c>
       <c r="N89" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O89" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P89" s="38" t="s">
-        <v>383</v>
+      <c r="P89" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q89" s="38"/>
       <c r="R89" s="39"/>
       <c r="S89" s="43" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="T89" s="41" t="s">
         <v>88</v>
@@ -10830,13 +10836,13 @@
         <v>45376</v>
       </c>
       <c r="G90" s="37" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H90" s="37" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I90" s="37" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="J90" s="38" t="s">
         <v>111</v>
@@ -10849,18 +10855,18 @@
         <v>111</v>
       </c>
       <c r="N90" s="38" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="O90" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P90" s="38" t="s">
-        <v>383</v>
+      <c r="P90" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q90" s="38"/>
       <c r="R90" s="39"/>
       <c r="S90" s="43" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="T90" s="41" t="s">
         <v>88</v>
@@ -10886,13 +10892,13 @@
         <v>45376</v>
       </c>
       <c r="G91" s="37" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H91" s="37" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="I91" s="37" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J91" s="38" t="s">
         <v>111</v>
@@ -10905,18 +10911,18 @@
         <v>111</v>
       </c>
       <c r="N91" s="38" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="O91" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P91" s="38" t="s">
-        <v>383</v>
+      <c r="P91" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q91" s="38"/>
       <c r="R91" s="39"/>
       <c r="S91" s="43" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="T91" s="41" t="s">
         <v>88</v>
@@ -10942,13 +10948,13 @@
         <v>45376</v>
       </c>
       <c r="G92" s="37" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="H92" s="37" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="I92" s="37" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="J92" s="38" t="s">
         <v>111</v>
@@ -10961,18 +10967,18 @@
         <v>111</v>
       </c>
       <c r="N92" s="38" t="s">
-        <v>411</v>
+        <v>725</v>
       </c>
       <c r="O92" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P92" s="38" t="s">
-        <v>383</v>
+      <c r="P92" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q92" s="38"/>
       <c r="R92" s="39"/>
       <c r="S92" s="43" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="T92" s="41" t="s">
         <v>88</v>
@@ -10998,13 +11004,13 @@
         <v>45376</v>
       </c>
       <c r="G93" s="37" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="H93" s="37" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J93" s="38" t="s">
         <v>111</v>
@@ -11017,18 +11023,18 @@
         <v>111</v>
       </c>
       <c r="N93" s="38" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="O93" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P93" s="38" t="s">
-        <v>383</v>
+      <c r="P93" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q93" s="38"/>
       <c r="R93" s="39"/>
       <c r="S93" s="43" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="T93" s="41" t="s">
         <v>88</v>
@@ -11054,13 +11060,13 @@
         <v>45376</v>
       </c>
       <c r="G94" s="37" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="H94" s="37" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="I94" s="37" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J94" s="38" t="s">
         <v>111</v>
@@ -11073,18 +11079,18 @@
         <v>111</v>
       </c>
       <c r="N94" s="38" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="O94" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P94" s="38" t="s">
-        <v>383</v>
+      <c r="P94" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q94" s="38"/>
       <c r="R94" s="39"/>
       <c r="S94" s="43" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="T94" s="41" t="s">
         <v>88</v>
@@ -11110,13 +11116,13 @@
         <v>45376</v>
       </c>
       <c r="G95" s="37" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H95" s="37" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="J95" s="38" t="s">
         <v>111</v>
@@ -11129,18 +11135,18 @@
         <v>111</v>
       </c>
       <c r="N95" s="38" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="O95" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P95" s="38" t="s">
-        <v>383</v>
+      <c r="P95" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q95" s="38"/>
       <c r="R95" s="39"/>
       <c r="S95" s="43" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="T95" s="41" t="s">
         <v>88</v>
@@ -11170,7 +11176,7 @@
         <v>363</v>
       </c>
       <c r="K96" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L96" s="25"/>
       <c r="M96" s="25"/>
@@ -11208,7 +11214,7 @@
         <v>363</v>
       </c>
       <c r="K97" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L97" s="25"/>
       <c r="M97" s="25"/>
@@ -11246,7 +11252,7 @@
         <v>363</v>
       </c>
       <c r="K98" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L98" s="25"/>
       <c r="M98" s="25"/>
@@ -11284,7 +11290,7 @@
         <v>363</v>
       </c>
       <c r="K99" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L99" s="25"/>
       <c r="M99" s="25"/>
@@ -11322,7 +11328,7 @@
         <v>363</v>
       </c>
       <c r="K100" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L100" s="25"/>
       <c r="M100" s="25"/>
@@ -11356,13 +11362,13 @@
         <v>45376</v>
       </c>
       <c r="G101" s="37" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H101" s="37" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="J101" s="38" t="s">
         <v>111</v>
@@ -11375,18 +11381,18 @@
         <v>111</v>
       </c>
       <c r="N101" s="38" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="O101" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P101" s="38" t="s">
-        <v>383</v>
+      <c r="P101" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q101" s="38"/>
       <c r="R101" s="39"/>
       <c r="S101" s="43" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="T101" s="41" t="s">
         <v>88</v>
@@ -11412,13 +11418,13 @@
         <v>45377</v>
       </c>
       <c r="G102" s="37" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H102" s="37" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I102" s="37" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="J102" s="38" t="s">
         <v>111</v>
@@ -11431,18 +11437,18 @@
         <v>111</v>
       </c>
       <c r="N102" s="38" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="O102" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P102" s="38" t="s">
-        <v>383</v>
+      <c r="P102" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q102" s="38"/>
       <c r="R102" s="39"/>
       <c r="S102" s="43" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="T102" s="41" t="s">
         <v>88</v>
@@ -11472,7 +11478,7 @@
         <v>363</v>
       </c>
       <c r="K103" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L103" s="25"/>
       <c r="M103" s="25"/>
@@ -11506,13 +11512,13 @@
         <v>45377</v>
       </c>
       <c r="G104" s="37" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H104" s="37" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="I104" s="37" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="J104" s="38" t="s">
         <v>111</v>
@@ -11525,18 +11531,18 @@
         <v>111</v>
       </c>
       <c r="N104" s="38" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="O104" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P104" s="38" t="s">
-        <v>383</v>
+      <c r="P104" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q104" s="38"/>
       <c r="R104" s="39"/>
       <c r="S104" s="43" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="T104" s="41" t="s">
         <v>88</v>
@@ -11562,13 +11568,13 @@
         <v>45377</v>
       </c>
       <c r="G105" s="37" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H105" s="37" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="I105" s="37" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="J105" s="38" t="s">
         <v>111</v>
@@ -11581,18 +11587,18 @@
         <v>111</v>
       </c>
       <c r="N105" s="38" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="O105" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P105" s="38" t="s">
-        <v>383</v>
+      <c r="P105" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q105" s="38"/>
       <c r="R105" s="39"/>
       <c r="S105" s="43" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="T105" s="41" t="s">
         <v>88</v>
@@ -11618,13 +11624,13 @@
         <v>45377</v>
       </c>
       <c r="G106" s="37" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="H106" s="37" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="I106" s="37" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="J106" s="38" t="s">
         <v>111</v>
@@ -11637,18 +11643,18 @@
         <v>111</v>
       </c>
       <c r="N106" s="38" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="O106" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P106" s="38" t="s">
-        <v>383</v>
+      <c r="P106" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q106" s="38"/>
       <c r="R106" s="39"/>
       <c r="S106" s="43" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="T106" s="41" t="s">
         <v>88</v>
@@ -11678,7 +11684,7 @@
         <v>363</v>
       </c>
       <c r="K107" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L107" s="25"/>
       <c r="M107" s="25"/>
@@ -11716,7 +11722,7 @@
         <v>363</v>
       </c>
       <c r="K108" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L108" s="25"/>
       <c r="M108" s="25"/>
@@ -11750,13 +11756,13 @@
         <v>45376</v>
       </c>
       <c r="G109" s="37" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="H109" s="37" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I109" s="37" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J109" s="38" t="s">
         <v>111</v>
@@ -11770,7 +11776,7 @@
       <c r="Q109" s="38"/>
       <c r="R109" s="39"/>
       <c r="S109" s="43" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="T109" s="41" t="s">
         <v>48</v>
@@ -11800,7 +11806,7 @@
         <v>363</v>
       </c>
       <c r="K110" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L110" s="25"/>
       <c r="M110" s="25"/>
@@ -11838,7 +11844,7 @@
         <v>363</v>
       </c>
       <c r="K111" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L111" s="25"/>
       <c r="M111" s="25"/>
@@ -11876,7 +11882,7 @@
         <v>363</v>
       </c>
       <c r="K112" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L112" s="25"/>
       <c r="M112" s="25"/>
@@ -11910,13 +11916,13 @@
         <v>45376</v>
       </c>
       <c r="G113" s="37" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H113" s="37" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I113" s="37" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J113" s="38" t="s">
         <v>111</v>
@@ -11929,18 +11935,18 @@
         <v>111</v>
       </c>
       <c r="N113" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O113" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P113" s="38" t="s">
-        <v>383</v>
+      <c r="P113" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q113" s="38"/>
       <c r="R113" s="39"/>
       <c r="S113" s="43" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="T113" s="41" t="s">
         <v>88</v>
@@ -11966,13 +11972,13 @@
         <v>45376</v>
       </c>
       <c r="G114" s="37" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H114" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="I114" s="37" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J114" s="38" t="s">
         <v>111</v>
@@ -11985,18 +11991,18 @@
         <v>111</v>
       </c>
       <c r="N114" s="38" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O114" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P114" s="38" t="s">
-        <v>383</v>
+      <c r="P114" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q114" s="38"/>
       <c r="R114" s="39"/>
       <c r="S114" s="43" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="T114" s="41" t="s">
         <v>88</v>
@@ -12022,13 +12028,13 @@
         <v>45376</v>
       </c>
       <c r="G115" s="37" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H115" s="37" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I115" s="37" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J115" s="38" t="s">
         <v>111</v>
@@ -12041,18 +12047,18 @@
         <v>111</v>
       </c>
       <c r="N115" s="38" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="O115" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P115" s="38" t="s">
-        <v>383</v>
+      <c r="P115" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q115" s="38"/>
       <c r="R115" s="39"/>
       <c r="S115" s="43" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="T115" s="41" t="s">
         <v>88</v>
@@ -12078,13 +12084,13 @@
         <v>45376</v>
       </c>
       <c r="G116" s="37" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H116" s="37" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I116" s="37" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J116" s="38" t="s">
         <v>111</v>
@@ -12097,18 +12103,18 @@
         <v>111</v>
       </c>
       <c r="N116" s="38" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="O116" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P116" s="38" t="s">
-        <v>383</v>
+      <c r="P116" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q116" s="38"/>
       <c r="R116" s="39"/>
       <c r="S116" s="43" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="T116" s="41" t="s">
         <v>88</v>
@@ -12134,13 +12140,13 @@
         <v>45376</v>
       </c>
       <c r="G117" s="37" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="H117" s="37" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I117" s="37" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="J117" s="38" t="s">
         <v>111</v>
@@ -12153,18 +12159,18 @@
         <v>111</v>
       </c>
       <c r="N117" s="38" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="O117" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P117" s="38" t="s">
-        <v>383</v>
+      <c r="P117" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q117" s="38"/>
       <c r="R117" s="39"/>
       <c r="S117" s="43" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="T117" s="41" t="s">
         <v>88</v>
@@ -12190,13 +12196,13 @@
         <v>45376</v>
       </c>
       <c r="G118" s="37" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H118" s="37" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I118" s="37" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="J118" s="38" t="s">
         <v>111</v>
@@ -12209,18 +12215,18 @@
         <v>111</v>
       </c>
       <c r="N118" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O118" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P118" s="38" t="s">
-        <v>383</v>
+      <c r="P118" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q118" s="38"/>
       <c r="R118" s="39"/>
       <c r="S118" s="43" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="T118" s="41" t="s">
         <v>88</v>
@@ -12250,7 +12256,7 @@
         <v>363</v>
       </c>
       <c r="K119" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L119" s="25"/>
       <c r="M119" s="25"/>
@@ -12284,13 +12290,13 @@
         <v>45376</v>
       </c>
       <c r="G120" s="37" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="H120" s="37" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I120" s="37" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J120" s="38" t="s">
         <v>111</v>
@@ -12303,18 +12309,18 @@
         <v>111</v>
       </c>
       <c r="N120" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="O120" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P120" s="38" t="s">
-        <v>383</v>
+      <c r="P120" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q120" s="38"/>
       <c r="R120" s="39"/>
       <c r="S120" s="43" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="T120" s="41" t="s">
         <v>88</v>
@@ -12340,13 +12346,13 @@
         <v>45376</v>
       </c>
       <c r="G121" s="37" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H121" s="37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I121" s="37" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="J121" s="38" t="s">
         <v>111</v>
@@ -12359,18 +12365,18 @@
         <v>111</v>
       </c>
       <c r="N121" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O121" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P121" s="38" t="s">
-        <v>383</v>
+      <c r="P121" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q121" s="38"/>
       <c r="R121" s="39"/>
       <c r="S121" s="43" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="T121" s="41" t="s">
         <v>88</v>
@@ -12396,13 +12402,13 @@
         <v>45376</v>
       </c>
       <c r="G122" s="37" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="I122" s="37" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="J122" s="38" t="s">
         <v>111</v>
@@ -12415,18 +12421,18 @@
         <v>111</v>
       </c>
       <c r="N122" s="38" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="O122" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P122" s="38" t="s">
-        <v>383</v>
+      <c r="P122" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q122" s="38"/>
       <c r="R122" s="39"/>
       <c r="S122" s="43" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="T122" s="41" t="s">
         <v>88</v>
@@ -12452,13 +12458,13 @@
         <v>45376</v>
       </c>
       <c r="G123" s="37" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H123" s="37" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="I123" s="37" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="J123" s="38" t="s">
         <v>111</v>
@@ -12471,18 +12477,18 @@
         <v>111</v>
       </c>
       <c r="N123" s="38" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O123" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P123" s="38" t="s">
-        <v>383</v>
+      <c r="P123" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q123" s="38"/>
       <c r="R123" s="39"/>
       <c r="S123" s="43" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="T123" s="41" t="s">
         <v>88</v>
@@ -12512,7 +12518,7 @@
         <v>363</v>
       </c>
       <c r="K124" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L124" s="25"/>
       <c r="M124" s="25"/>
@@ -12550,7 +12556,7 @@
         <v>363</v>
       </c>
       <c r="K125" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L125" s="25"/>
       <c r="M125" s="25"/>
@@ -12588,7 +12594,7 @@
         <v>363</v>
       </c>
       <c r="K126" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L126" s="25"/>
       <c r="M126" s="25"/>
@@ -12626,7 +12632,7 @@
         <v>363</v>
       </c>
       <c r="K127" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L127" s="25"/>
       <c r="M127" s="25"/>
@@ -12664,7 +12670,7 @@
         <v>363</v>
       </c>
       <c r="K128" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L128" s="25"/>
       <c r="M128" s="25"/>
@@ -12702,7 +12708,7 @@
         <v>363</v>
       </c>
       <c r="K129" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L129" s="25"/>
       <c r="M129" s="25"/>
@@ -12740,7 +12746,7 @@
         <v>363</v>
       </c>
       <c r="K130" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L130" s="25"/>
       <c r="M130" s="25"/>
@@ -12774,13 +12780,13 @@
         <v>45376</v>
       </c>
       <c r="G131" s="37" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="H131" s="37" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I131" s="37" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J131" s="38" t="s">
         <v>111</v>
@@ -12793,18 +12799,18 @@
         <v>111</v>
       </c>
       <c r="N131" s="38" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="O131" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P131" s="38" t="s">
-        <v>383</v>
+      <c r="P131" s="42" t="s">
+        <v>721</v>
       </c>
       <c r="Q131" s="38"/>
       <c r="R131" s="39"/>
       <c r="S131" s="43" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="T131" s="41" t="s">
         <v>88</v>
@@ -12834,7 +12840,7 @@
         <v>363</v>
       </c>
       <c r="K132" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L132" s="25"/>
       <c r="M132" s="25"/>
@@ -12868,13 +12874,13 @@
         <v>45374</v>
       </c>
       <c r="G133" s="49" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H133" s="47" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I133" s="37" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J133" s="42" t="s">
         <v>111</v>
@@ -12888,7 +12894,7 @@
       <c r="Q133" s="38"/>
       <c r="R133" s="39"/>
       <c r="S133" s="40" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="T133" s="41" t="s">
         <v>48</v>
@@ -12914,13 +12920,13 @@
         <v>45376</v>
       </c>
       <c r="G134" s="59" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H134" s="47" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I134" s="37" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J134" s="38" t="s">
         <v>111</v>
@@ -12934,7 +12940,7 @@
       <c r="Q134" s="38"/>
       <c r="R134" s="39"/>
       <c r="S134" s="43" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="T134" s="41" t="s">
         <v>48</v>
@@ -12960,13 +12966,13 @@
         <v>45374</v>
       </c>
       <c r="G135" s="49" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H135" s="47" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I135" s="37" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J135" s="42" t="s">
         <v>111</v>
@@ -12980,7 +12986,7 @@
       <c r="Q135" s="38"/>
       <c r="R135" s="39"/>
       <c r="S135" s="40" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="T135" s="41" t="s">
         <v>48</v>
@@ -13006,13 +13012,13 @@
         <v>45376</v>
       </c>
       <c r="G136" s="37" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="H136" s="37" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I136" s="37" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J136" s="38" t="s">
         <v>111</v>
@@ -13026,7 +13032,7 @@
       <c r="Q136" s="38"/>
       <c r="R136" s="39"/>
       <c r="S136" s="43" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="T136" s="41" t="s">
         <v>48</v>
@@ -13052,13 +13058,13 @@
         <v>45376</v>
       </c>
       <c r="G137" s="37" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H137" s="37" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I137" s="37" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J137" s="38" t="s">
         <v>111</v>
@@ -13072,7 +13078,7 @@
       <c r="Q137" s="38"/>
       <c r="R137" s="39"/>
       <c r="S137" s="43" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="T137" s="41" t="s">
         <v>48</v>
@@ -13102,7 +13108,7 @@
         <v>363</v>
       </c>
       <c r="K138" s="25" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L138" s="25"/>
       <c r="M138" s="25"/>
@@ -17788,13 +17794,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O10:O29 L10:M29 J10:J29 O31:O34 L31:M34 J31:J34 O36:O132 L36:M132 J36:J132 J133:J138 L133:M138 O133:O138</xm:sqref>
+          <xm:sqref>O10:O29 L10:M29 J10:J29 O31:O34 L31:M34 J31:J34 J36:J138 L36:M138 O36:O138</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q10:Q29 Q31:Q34 Q36:Q132 Q133:Q138</xm:sqref>
+          <xm:sqref>Q10:Q29 Q31:Q34 Q36:Q138</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/GATEWAY/A1#111GARASOFTWAREXX/Gara_Software/AnaSanPlus/V1/report-checklist.xlsx
+++ b/GATEWAY/A1#111GARASOFTWAREXX/Gara_Software/AnaSanPlus/V1/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\AnaSan\FSE\FSE 2\Accreditamento\V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4271250-C227-4B04-913F-8515F979F68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946CEB0B-1AF4-4522-A19A-2C1065BB4FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3576,13 +3576,13 @@
     <t>Viene effettuata la segnalazione dell'errore all'assistenza attraverso la memorizzazione in un file di Log. Il documento viene messo in una coda che si occupa di eseguire la retry fino a 5 tentativi. Se il documento resta nella coda verrà poi gestito in backoffice da un operatore del supporto tecnico.</t>
   </si>
   <si>
-    <t>Errore di sintassi. Il campo "Condizioni del paziente alla dimissione e diagnosi di dimissione" è obbligatorio</t>
-  </si>
-  <si>
-    <t>Errore di sintassi. E' obbligatorio compilare la sezione 'Referto'.</t>
-  </si>
-  <si>
-    <t>Errore di sintassi. Il campo "Modalità di Trasporto" è obbligatorio</t>
+    <t>Errore Semantico. Il campo "Condizioni del paziente alla dimissione e diagnosi di dimissione" è obbligatorio</t>
+  </si>
+  <si>
+    <t>Errore Semantico. E' obbligatorio compilare la sezione 'Referto'.</t>
+  </si>
+  <si>
+    <t>Errore Semantico. Il campo "Modalità di Trasporto" è obbligatorio</t>
   </si>
 </sst>
 </file>
@@ -6614,10 +6614,10 @@
   <dimension ref="A1:T755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
